--- a/results/extracted_data.xlsx
+++ b/results/extracted_data.xlsx
@@ -786,12 +786,24 @@
           <t>VGL_cao_2011_2013_doorlopende_tekst_200212</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>VGL_CAO_2011_2013_ Doon_tekst_200212.json</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2011-04-01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2013-04-01</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
@@ -799,65 +811,253 @@
           <t>no</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>499.37</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2011-10-10</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>4 weeks</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>543.0700000000001</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2011-10-01</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2011-10-01</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>o'clock</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>464.07</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>2011-10-10</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>4 weeks</t>
+        </is>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>506.86</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>2012-01-02</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>4 weeks</t>
+        </is>
+      </c>
       <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AE2" t="n">
+        <v>551.21</v>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>2012-01-01</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
       <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AI2" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>2012-01-02</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>o'clock</t>
+        </is>
+      </c>
       <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Wages per age and function years. Employees aged 13 or 14 receive the wages from a 15-year-old. There is a separate, lower inflow scale for the long -term unemployed for a maximum of one year.</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>As of January 1, 2012, the pension premium for the 2012 calendar year will be increased to 18.5%. In 2011 the premium was 18.3%.</t>
+        </is>
+      </c>
       <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>The intended retirement age is gradually increased to 62 years and four months.</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>2 working days</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Concerns maternity leave for the partner: during delivery and two working days leave while retaining wages. Reference is made to the Work and Care Act for maternity and maternity leave.</t>
+        </is>
+      </c>
+      <c r="AX2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>working days</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>Extra vacation days based on service time (3 days at 25-40 years of service, 5 days at 40+ years of service) or age (1 day at 50-55 years, 2 days by 55-60 years, 4 days by 60+ years). The highest number of the two schemes applies.</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>at least one month for monthly laborers, at least four weeks for periods of periods</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>month / weeks</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>Termination takes place at the end of a wage payment period. Permission from CWI necessary if the employee does not agree.</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>at least one month for monthly laborers, at least four weeks for periods of periods</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>month / weeks</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>Termination takes place at the end of a wage payment period.</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>months</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>Applies to every new employment. Can be shortened or omitted in writing.</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>on average 40 hours a week</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>normal hourly wage plus a surcharge of 35%</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>9 hours a day. A maximum overtime of 3 hours a day and 10 hours a week applies to managers.</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>Auxiliary forces are employed and paid for at least two hours a week.</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>Shops: Mon-VR 00: 00-06: 00 (50%), 20: 00-21: 00 (33 1/3%), 21: 00-24: 00 (50%); Sat 18: 00-24: 00 (50%); Sun/holiday (100%). Distribution centers: Mon-Fri 20: 00-22: 00 (25%), 22: 00-06: 00 (50%); Sat 06: 00-18: 00 (30%), 18: 00-06: 00 (50%); Sun/holiday (100%). Freeze cell allowance DC: 8% on the hourly wage.</t>
+        </is>
+      </c>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>Employee is informed annually about training options. Agreements about training are recorded in writing. For professional drivers (code 95), course costs, exam fees, travel costs and course time are reimbursed by the employer, with a possible repayment scheme on departure within 3 years.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/extracted_data.xlsx
+++ b/results/extracted_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN14"/>
+  <dimension ref="A1:BN31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,12 +768,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+          <t>VGL_CAO_2011_2013_ Doon_tekst_200212.json</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Horeca_cao_2018_2019_na_ttw</t>
+          <t>VGL_cao_2011_2013_doorlopende_tekst_200212</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -786,27 +786,27 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>9.59</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -815,38 +815,68 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+          <t>10/10/2011</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>16/07/2012</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
@@ -866,12 +896,12 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>The gross hourly wage is 1/164.67th part of the monthly wage at full -time (art 1.22). The amounts in the table will be adjusted annually on 1 January with the CBS Consumer price index All households to the state of October of the previous year (art 4.7.4). If the wage in the tables is lower than the statutory minimum (youth) wage, the employee is entitled to payment of the statutory minimum (youth) wage. For the employee who is not (yet) an skilled power, including the students, the statutory minimum youth wage and the legal minimum youth wages (Page 43) applies.</t>
+          <t>The Salary Increases on 02/01/2012 and 31/12/2012 or 1.5% Only Apply to Employees Younger Than 18. For Employees 18 Years and Older, there is no increase on these dates. The Period Wage is calculated by multiplying the Hourly Wage by A Factor of 160, and the months Wage by a Factor of 174. A Special, Lower Wage Scale Exists for Long-Term umployed Individuals for A maximum of one year (Appendix 2B). Vacation Allowance is 8% of the Annual Gross Salary. Employees Replacing Someone in A Higher Function Group Receive A Supplement of AT Least 15% of the Starting Salary of That Higher Scale. The Voluntarily Given Wage Increase of 1.7% In October 2011 by Employers is Offset Against the 1.8% Increase.</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21 years or older</t>
+          <t>21 years and older</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
@@ -902,12 +932,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+          <t>VGL_CAO_2011_2013_ Doon_tekst_200212.json</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Horeca_cao_2018_2019_na_ttw</t>
+          <t>VGL_cao_2011_2013_doorlopende_tekst_200212</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -920,27 +950,27 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Ii</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>9.74</v>
+        <v>10.68</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -949,38 +979,68 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+          <t>10/10/2011</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>16/07/2012</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
@@ -1000,12 +1060,12 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>The gross hourly wage is 1/164.67th part of the monthly wage at full -time (art 1.22). The amounts in the table will be adjusted annually on 1 January with the CBS Consumer price index All households to the state of October of the previous year (art 4.7.4). If the wage in the tables is lower than the statutory minimum (youth) wage, the employee is entitled to payment of the statutory minimum (youth) wage. For the employee who is not (yet) an skilled power, including the students, the statutory minimum youth wage and the legal minimum youth wages (Page 43) applies.</t>
+          <t>The Salary Increases on 02/01/2012 and 31/12/2012 or 1.5% Only Apply to Employees Younger Than 18. For Employees 18 Years and Older, there is no increase on these dates. The Period Wage is calculated by multiplying the Hourly Wage by A Factor of 160, and the months Wage by a Factor of 174. A Special, Lower Wage Scale Exists for Long-Term umployed Individuals for A maximum of one year (Appendix 2B). Vacation Allowance is 8% of the Annual Gross Salary. Employees Replacing Someone in A Higher Function Group Receive A Supplement of AT Least 15% of the Starting Salary of That Higher Scale. The Voluntarily Given Wage Increase of 1.7% In October 2011 by Employers is Offset Against the 1.8% Increase.</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21 years or older</t>
+          <t>21 years and older</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr"/>
@@ -1036,12 +1096,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+          <t>VGL_CAO_2011_2013_ Doon_tekst_200212.json</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Horeca_cao_2018_2019_na_ttw</t>
+          <t>VGL_cao_2011_2013_doorlopende_tekst_200212</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -1054,27 +1114,27 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>10.19</v>
+        <v>11.18</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1083,38 +1143,68 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+          <t>10/10/2011</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>16/07/2012</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="X4" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
@@ -1134,12 +1224,12 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>The gross hourly wage is 1/164.67th part of the monthly wage at full -time (art 1.22). The amounts in the table will be adjusted annually on 1 January with the CBS Consumer price index All households to the state of October of the previous year (art 4.7.4). If the wage in the tables is lower than the statutory minimum (youth) wage, the employee is entitled to payment of the statutory minimum (youth) wage. For the employee who is not (yet) an skilled power, including the students, the statutory minimum youth wage and the legal minimum youth wages (Page 43) applies.</t>
+          <t>The Salary Increases on 02/01/2012 and 31/12/2012 or 1.5% Only Apply to Employees Younger Than 18. For Employees 18 Years and Older, there is no increase on these dates. The Period Wage is calculated by multiplying the Hourly Wage by A Factor of 160, and the months Wage by a Factor of 174. A Special, Lower Wage Scale Exists for Long-Term umployed Individuals for A maximum of one year (Appendix 2B). Vacation Allowance is 8% of the Annual Gross Salary. Employees Replacing Someone in A Higher Function Group Receive A Supplement of AT Least 15% of the Starting Salary of That Higher Scale. The Voluntarily Given Wage Increase of 1.7% In October 2011 by Employers is Offset Against the 1.8% Increase.</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21 years or older</t>
+          <t>21 years and older</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr"/>
@@ -1170,12 +1260,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+          <t>VGL_CAO_2011_2013_ Doon_tekst_200212.json</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Horeca_cao_2018_2019_na_ttw</t>
+          <t>VGL_cao_2011_2013_doorlopende_tekst_200212</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1188,27 +1278,27 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Iv</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>10.66</v>
+        <v>11.68</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1217,38 +1307,68 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+          <t>10/10/2011</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>16/07/2012</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="X5" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
@@ -1268,12 +1388,12 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>The gross hourly wage is 1/164.67th part of the monthly wage at full -time (art 1.22). The amounts in the table will be adjusted annually on 1 January with the CBS Consumer price index All households to the state of October of the previous year (art 4.7.4). If the wage in the tables is lower than the statutory minimum (youth) wage, the employee is entitled to payment of the statutory minimum (youth) wage. For the employee who is not (yet) an skilled power, including the students, the statutory minimum youth wage and the legal minimum youth wages (Page 43) applies.</t>
+          <t>The Salary Increases on 02/01/2012 and 31/12/2012 or 1.5% Only Apply to Employees Younger Than 18. For Employees 18 Years and Older, there is no increase on these dates. The Period Wage is calculated by multiplying the Hourly Wage by A Factor of 160, and the months Wage by a Factor of 174. A Special, Lower Wage Scale Exists for Long-Term umployed Individuals for A maximum of one year (Appendix 2B). Vacation Allowance is 8% of the Annual Gross Salary. Employees Replacing Someone in A Higher Function Group Receive A Supplement of AT Least 15% of the Starting Salary of That Higher Scale. The Voluntarily Given Wage Increase of 1.7% In October 2011 by Employers is Offset Against the 1.8% Increase.</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21 years or older</t>
+          <t>21 years and older</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr"/>
@@ -1304,12 +1424,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+          <t>VGL_CAO_2011_2013_ Doon_tekst_200212.json</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Horeca_cao_2018_2019_na_ttw</t>
+          <t>VGL_cao_2011_2013_doorlopende_tekst_200212</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1322,27 +1442,27 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>One</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>11.02</v>
+        <v>12.35</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1351,38 +1471,68 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+          <t>10/10/2011</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>16/07/2012</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
@@ -1402,12 +1552,12 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>The gross hourly wage is 1/164.67th part of the monthly wage at full -time (art 1.22). The amounts in the table will be adjusted annually on 1 January with the CBS Consumer price index All households to the state of October of the previous year (art 4.7.4). If the wage in the tables is lower than the statutory minimum (youth) wage, the employee is entitled to payment of the statutory minimum (youth) wage. For the employee who is not (yet) an skilled power, including the students, the statutory minimum youth wage and the legal minimum youth wages (Page 43) applies.</t>
+          <t>The Salary Increases on 02/01/2012 and 31/12/2012 or 1.5% Only Apply to Employees Younger Than 18. For Employees 18 Years and Older, there is no increase on these dates. The Period Wage is calculated by multiplying the Hourly Wage by A Factor of 160, and the months Wage by a Factor of 174. A Special, Lower Wage Scale Exists for Long-Term umployed Individuals for A maximum of one year (Appendix 2B). Vacation Allowance is 8% of the Annual Gross Salary. Employees Replacing Someone in A Higher Function Group Receive A Supplement of AT Least 15% of the Starting Salary of That Higher Scale. The Voluntarily Given Wage Increase of 1.7% In October 2011 by Employers is Offset Against the 1.8% Increase.</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21 years or older</t>
+          <t>21 years and older</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr"/>
@@ -1438,12 +1588,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+          <t>VGL_CAO_2011_2013_ Doon_tekst_200212.json</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Horeca_cao_2018_2019_na_ttw</t>
+          <t>VGL_cao_2011_2013_doorlopende_tekst_200212</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1456,27 +1606,27 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Vi</t>
+          <t>F</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>12.28</v>
+        <v>13.72</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1485,38 +1635,68 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+          <t>10/10/2011</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>16/07/2012</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
@@ -1536,12 +1716,12 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>The gross hourly wage is 1/164.67th part of the monthly wage at full -time (art 1.22). The amounts in the table will be adjusted annually on 1 January with the CBS Consumer price index All households to the state of October of the previous year (art 4.7.4). If the wage in the tables is lower than the statutory minimum (youth) wage, the employee is entitled to payment of the statutory minimum (youth) wage. For the employee who is not (yet) an skilled power, including the students, the statutory minimum youth wage and the legal minimum youth wages (Page 43) applies.</t>
+          <t>The Salary Increases on 02/01/2012 and 31/12/2012 or 1.5% Only Apply to Employees Younger Than 18. For Employees 18 Years and Older, there is no increase on these dates. The Period Wage is calculated by multiplying the Hourly Wage by A Factor of 160, and the months Wage by a Factor of 174. A Special, Lower Wage Scale Exists for Long-Term umployed Individuals for A maximum of one year (Appendix 2B). Vacation Allowance is 8% of the Annual Gross Salary. Employees Replacing Someone in A Higher Function Group Receive A Supplement of AT Least 15% of the Starting Salary of That Higher Scale. The Voluntarily Given Wage Increase of 1.7% In October 2011 by Employers is Offset Against the 1.8% Increase.</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21 years or older</t>
+          <t>21 years and older</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr"/>
@@ -1572,12 +1752,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+          <t>VGL_CAO_2011_2013_ Doon_tekst_200212.json</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Horeca_cao_2018_2019_na_ttw</t>
+          <t>VGL_cao_2011_2013_doorlopende_tekst_200212</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1590,27 +1770,27 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>VII</t>
+          <t>G</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>13.58</v>
+        <v>15.73</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1619,38 +1799,68 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+          <t>10/10/2011</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>16/07/2012</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
@@ -1670,12 +1880,12 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>The gross hourly wage is 1/164.67th part of the monthly wage at full -time (art 1.22). The amounts in the table will be adjusted annually on 1 January with the CBS Consumer price index All households to the state of October of the previous year (art 4.7.4). If the wage in the tables is lower than the statutory minimum (youth) wage, the employee is entitled to payment of the statutory minimum (youth) wage. For the employee who is not (yet) an skilled power, including the students, the statutory minimum youth wage and the legal minimum youth wages (Page 43) applies.</t>
+          <t>The Salary Increases on 02/01/2012 and 31/12/2012 or 1.5% Only Apply to Employees Younger Than 18. For Employees 18 Years and Older, there is no increase on these dates. The Period Wage is calculated by multiplying the Hourly Wage by A Factor of 160, and the months Wage by a Factor of 174. A Special, Lower Wage Scale Exists for Long-Term umployed Individuals for A maximum of one year (Appendix 2B). Vacation Allowance is 8% of the Annual Gross Salary. Employees Replacing Someone in A Higher Function Group Receive A Supplement of AT Least 15% of the Starting Salary of That Higher Scale. The Voluntarily Given Wage Increase of 1.7% In October 2011 by Employers is Offset Against the 1.8% Increase.</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21 years or older</t>
+          <t>21 years and older</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr"/>
@@ -1706,12 +1916,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+          <t>VGL_CAO_2011_2013_ Doon_tekst_200212.json</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Horeca_cao_2018_2019_na_ttw</t>
+          <t>VGL_cao_2011_2013_doorlopende_tekst_200212</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1724,27 +1934,27 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>VIII</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>14.87</v>
+        <v>18.05</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1753,38 +1963,68 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
+          <t>10/10/2011</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>16/07/2012</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
@@ -1804,12 +2044,12 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>The gross hourly wage is 1/164.67th part of the monthly wage at full -time (art 1.22). The amounts in the table will be adjusted annually on 1 January with the CBS Consumer price index All households to the state of October of the previous year (art 4.7.4). If the wage in the tables is lower than the statutory minimum (youth) wage, the employee is entitled to payment of the statutory minimum (youth) wage. For the employee who is not (yet) an skilled power, including the students, the statutory minimum youth wage and the legal minimum youth wages (Page 43) applies.</t>
+          <t>The Salary Increases on 02/01/2012 and 31/12/2012 or 1.5% Only Apply to Employees Younger Than 18. For Employees 18 Years and Older, there is no increase on these dates. The Period Wage is calculated by multiplying the Hourly Wage by A Factor of 160, and the months Wage by a Factor of 174. A Special, Lower Wage Scale Exists for Long-Term umployed Individuals for A maximum of one year (Appendix 2B). Vacation Allowance is 8% of the Annual Gross Salary. Employees Replacing Someone in A Higher Function Group Receive A Supplement of AT Least 15% of the Starting Salary of That Higher Scale. The Voluntarily Given Wage Increase of 1.7% In October 2011 by Employers is Offset Against the 1.8% Increase.</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21 years or older</t>
+          <t>21 years and older</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr"/>
@@ -1840,55 +2080,115 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+          <t>VGL_CAO_2011_2013_ Doon_tekst_200212.json</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Horeca_cao_2018_2019_na_ttw</t>
+          <t>VGL_cao_2011_2013_doorlopende_tekst_200212</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pension</t>
+          <t>Wage</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>10/10/2011</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>02/01/2012</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>16/07/2012</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
@@ -1901,16 +2201,24 @@
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>The Salary Increases on 02/01/2012 and 31/12/2012 or 1.5% Only Apply to Employees Younger Than 18. For Employees 18 Years and Older, there is no increase on these dates. The Period Wage is calculated by multiplying the Hourly Wage by A Factor of 160, and the months Wage by a Factor of 174. A Special, Lower Wage Scale Exists for Long-Term umployed Individuals for A maximum of one year (Appendix 2B). Vacation Allowance is 8% of the Annual Gross Salary. Employees Replacing Someone in A Higher Function Group Receive A Supplement of AT Least 15% of the Starting Salary of That Higher Scale. The Voluntarily Given Wage Increase of 1.7% In October 2011 by Employers is Offset Against the 1.8% Increase.</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>The age to be achieved to be eligible for a benefit from the General Old Age Pensions Act (AOW) (Article 1.25). The employment contract ends by operation of law when reaching the state pension age, if this is included in the employment contract (Article 2.11.1).</t>
-        </is>
-      </c>
+      <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
@@ -1936,36 +2244,36 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+          <t>VGL_CAO_2011_2013_ Doon_tekst_200212.json</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Horeca_cao_2018_2019_na_ttw</t>
+          <t>VGL_cao_2011_2013_doorlopende_tekst_200212</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Leave</t>
+          <t>Pension</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -2000,37 +2308,37 @@
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr">
-        <is>
-          <t>2 days when your partner's birth or with adoption (art. 3.23.6).</t>
-        </is>
-      </c>
-      <c r="AW11" t="inlineStr">
-        <is>
-          <t>While retaining wages (art. 3.23).</t>
-        </is>
-      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>Pension is arranged via The Industry Pension Fund for the Food sector (BPF-L). As of January 1, 2012, The Pension Premium is increased to 18.5%for the calendar year 2012. From January 1, 2013, the accrual rate returns to 2.25%, based on the 2011 premium or 18.3%. The VUT (Early Retirement) Premium is 0% axis or 1 January 2009.</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>The VUT Scheme Provides a Supplement to the Pension Built Up With The BPF Food company. Employees Who Were Employed Before 1 January 2004 and Were Covered by the BPF-L Scheme are entitled to a transitional Measure. This Measure Involves Building Up And Finance An Extra Pension on A Maximum Period of 15 Years.</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>The Intended Retirement Age is Gradually Being Increased to 62 Years and Four Months. The VUT (Early Retirement) Age was Gradually Increased to 60 Years and Seven Months Between 2006 and 2010. No New Vut Benefits Are Granted After 2011.</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>Four times the agreed working hours per week (legal) plus 5 extra -statutory vacation days per year.</t>
-        </is>
-      </c>
-      <c r="AZ11" t="inlineStr">
-        <is>
-          <t>hours/days</t>
-        </is>
-      </c>
-      <c r="BA11" t="inlineStr">
-        <is>
-          <t>The holiday year runs from 1 June to 31 May, unless the employer continues for all employees on 1 January to 31 December (art 3.15). Employees Build by hours worked 0.0769 hours of legal vacation and 0.0192 hours of extra -statutory holiday on (art 3.16). Employees are entitled to a continuous holiday period of 3 weeks (art 3.19). Holiday allowance is 8% of the wage earned in the holiday year (art 4.16). Substitute forces may be paid out immediately at the wage (art 3.22).</t>
-        </is>
-      </c>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
@@ -2048,36 +2356,36 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+          <t>VGL_CAO_2011_2013_ Doon_tekst_200212.json</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Horeca_cao_2018_2019_na_ttw</t>
+          <t>VGL_cao_2011_2013_doorlopende_tekst_200212</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Termination</t>
+          <t>Leave</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -2117,42 +2425,42 @@
       <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr">
-        <is>
-          <t>The provisions of the Dutch Civil Code apply. At or after reaching the state pension age, the employer can cancel with a cancellation period of one month (Article 2.11.2).</t>
-        </is>
-      </c>
-      <c r="BC12" t="inlineStr">
-        <is>
-          <t>The provisions of the Dutch Civil Code (Article 2.7) apply to cancellation and termination. A fixed -term employment contract ends by operation of law (Article 2.8.1).</t>
-        </is>
-      </c>
-      <c r="BD12" t="inlineStr">
-        <is>
-          <t>The provisions of the Dutch Civil Code apply.</t>
-        </is>
-      </c>
-      <c r="BE12" t="inlineStr">
-        <is>
-          <t>The provisions of the Dutch Civil Code (Article 2.7) apply to cancellation and termination.</t>
-        </is>
-      </c>
-      <c r="BF12" t="inlineStr">
-        <is>
-          <t>The provisions of the Dutch Civil Code apply.</t>
-        </is>
-      </c>
-      <c r="BG12" t="inlineStr">
-        <is>
-          <t>A probationary period must be agreed in writing and be the same for both parties. With a subsequent employment contract for the same work, no new probationary period is permitted, unless the new position clearly requires other skills and responsibilities (Article 2.6).</t>
-        </is>
-      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>The Provisions of the 'Work and Care Act' (Work and Care Act) Apply. For the partner, Leave is Granted Turning the Birth and for Two Working Days Thereafter.</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Leave for the partner is with full pay. For the Mother, Payment is arranged accordance to the 'Work and Care Act' (WAZO), which is not Further Specific in the CAO.</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>A Request from the partner to take vacation Leave immediately following the birth will be honored. There is no restriction on the accrual of vacation days.</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>days per vacation year</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>A full-time employee is entitled to 24 vacation days or 192 hours per year. Extra Days Are Granted Based on Length of Service or Age (The Higher Number Applies): 3 extra days for 25-40 years of service, 5 extra days for 40+ years. For Age: 1 extra day for 50-55 years, 2 extra days for 55-60 years, 4 extra days for 60+ years. Employees Are Entitled to At Least Three Consecutive Week of Vacation, Preferred Between May and September. Vacation Allowance is 8% of the Annual Salary. From January 1, 2012, The Limitation on Vacation Day AcRuual Dooring Long-Term Sick Leave is Removed for Statutory Vacation Days.</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
       <c r="BH12" t="inlineStr"/>
       <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr"/>
@@ -2164,36 +2472,36 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+          <t>VGL_CAO_2011_2013_ Doon_tekst_200212.json</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Horeca_cao_2018_2019_na_ttw</t>
+          <t>VGL_cao_2011_2013_doorlopende_tekst_200212</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Overtime</t>
+          <t>Termination</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -2239,32 +2547,40 @@
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr">
-        <is>
-          <t>For established overtime hours, compensation in time before time applies: free time paid for each overtime. In consultation, this can also be paid directly at 100% of the hourly wage. If compensation in time is not possible within 6 months, the overtime will be paid at 100% (art 3.14).</t>
-        </is>
-      </c>
-      <c r="BI13" t="inlineStr">
-        <is>
-          <t>For employees aged 18 and older: 12 hours per service, 60 hours a week. On average 55 hours a week over a period of 4 weeks. On average 48 hours a week over a period of 16 weeks (without night shifts) (Appendix I).</t>
-        </is>
-      </c>
-      <c r="BJ13" t="inlineStr">
-        <is>
-          <t>For a substitute: at least 156 hours of work offered per period of 52 weeks (art 1.9).</t>
-        </is>
-      </c>
-      <c r="BK13" t="inlineStr">
-        <is>
-          <t>Night surcharge: 10% on every hourly wage of the entire night shift (a service with more than an hour of work between 00:00 and 06:00) for Front Office in accommodation companies (art 4.12, 3.8). Holidays compensation: For every hour worked on a holiday 1 hour replacement paid free time. If compensation in time is not possible within 6 months, a surcharge of 50% applies to the hourly wage. This compensation does not apply to employees who are not an skilled force (art 3.12).</t>
-        </is>
-      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>For Employees with a Monthly Salary: At Least One Month. For Employees with a Four week Salary: at Least Four Weeks.</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>Termination must be against the end of a pay period. Prior Authorization from the CWI (Center for Work and Income) is required if the employee does not agree with the termination or notice period. A Non-Compete Clause is Only Allowed for Managers.</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>For Employees with a Monthly Salary: At Least One Month. For Employees with a Four week Salary: at Least Four Weeks.</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>Termination must be against the end of a pay period.</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>A Probationaly Period of Two Months Applies to Every New Employment Contract, Regardless of Its Duration.</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>The Employer and Employee Can Agree in Writing to a Shorter or No Probationaly Period. Imediate Termination is Possible Turning the Probationaly Period.</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
       <c r="BL13" t="inlineStr"/>
       <c r="BM13" t="inlineStr"/>
       <c r="BN13" t="inlineStr"/>
@@ -2272,36 +2588,36 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+          <t>VGL_CAO_2011_2013_ Doon_tekst_200212.json</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Horeca_cao_2018_2019_na_ttw</t>
+          <t>VGL_cao_2011_2013_doorlopende_tekst_200212</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>Overtime</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -2353,15 +2669,2099 @@
       <c r="BE14" t="inlineStr"/>
       <c r="BF14" t="inlineStr"/>
       <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr"/>
-      <c r="BI14" t="inlineStr"/>
-      <c r="BJ14" t="inlineStr"/>
-      <c r="BK14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>For Each Hour of Overtime, the Normal Hourly Wage is Paid Plus a Surcharge or 35%. This is preferably compensated with time off within four weeks. If not compensated within four weeks, The Employee Can Chose Compensation in Time, Time-Saving, or Money. This rule Does not Apply to Employees in Function Groups E To I. For Managers, Overtime Pay Can Be Included in The Salary.</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>For managers (managers), Overtime is limited to: 3 hours per day, 10 hours per week, 36 hours per three 4-week pay periods, OR 39 hours per three months pay periods.</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>Auxiliary Workers (auxiliary forces) Will Be Employed and Paid For A Minimum of Two Hours per week.</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>Store Employees Receive Surcharges: Mon-Fri 00: 00-06: 00 (50%), 20: 00-21: 00 (33 1/3%), 21: 00-24: 00 (50%); Sat 18: 00-24: 00 (50%); Sun (100%). Distribution Center Employees Receive Surcharges: Mon-Fri 20: 00-22: 00 (25%), 22: 00-06: 00 (50%); Sat 06: 00-18: 00 (30%), 18: 00-06: 00 (50%); Sun (100%). There is a Freezer bonus or 8% of the Hourly Wage for Every Hour Worked in A Freezer. An on-call Duty (consignment) Allowance is € 12.16 per 24-hour period, and € 36.50 for a Saturday, Sunday, or public holiday.</t>
+        </is>
+      </c>
       <c r="BL14" t="inlineStr"/>
       <c r="BM14" t="inlineStr"/>
-      <c r="BN14" t="inlineStr">
-        <is>
-          <t>The employer determines a development budget of at least 2% of the cumulative annual wage of the company per calendar year. This budget is used for training, training, training, career advice and the realization of development agreements from the assessment interview (Article 5.1). A student can only work in a catering company that is recognized as a training company by the SBB (art 5.2). The teacher is given the opportunity to attend the meetings of quality promotion of the SBB (art 5.8).</t>
+      <c r="BN14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>VGL_CAO_2011_2013_ Doon_tekst_200212.json</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>VGL_cao_2011_2013_doorlopende_tekst_200212</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>01/04/2011</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>01/04/2013</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>Employees are annually informed about training opportunities. If the employer or employee feels the need, a performance review is hero where training is discussed. For Professional Drivers (code 95), IF Training is Mandated by the Employer Or Law, The Employer Covers Course Costs, Exam Fees, Travel Costs, and Compensates For Weekday Course Time. A repayment scheme for thesis training Costs applies if the employee resigns within three years. Employees Within Five Years of Retirement Are Entitled to Up to Five Days of Paid Leave For A Pre-Pension Course. The CAO Parties Will Investigate the Possibilities of Introducing Recognition of Prior Learning (EVC).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Horeca_cao_2018_2019_na_ttw</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>I = WML</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1578</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="n">
+        <v>1578</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>The Gross Hourly Wage is 1/164.67Th of the Monthly Salary (art. 1.22). Job Classification is based on the 'Handbook reference functions Horeca' (art. 4.1). Skilled Workers ('skilled power') Are Employees aged 18 or about with 1,976 Hours of Experience in the Relevant Function (art. 1.6). Workers who are not 'skilled power' Receive the Statutory Minimum (Youth) Wage (art. 4.9). The Wage Table is Adjusted Annually on January 1st Based on the CBS Consumer Price Index From The Preceded October (art. 4.7.4). A Further 1% Wage Increase is Scheduled for July 1, 2019 (art. 4.7.6).</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Horeca_cao_2018_2019_na_ttw</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Ii</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1604.02</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="n">
+        <v>1620.06</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>The Gross Hourly Wage is 1/164.67Th of the Monthly Salary (art. 1.22). Job Classification is based on the 'Handbook reference functions Horeca' (art. 4.1). Skilled Workers ('skilled power') Are Employees aged 18 or about with 1,976 Hours of Experience in the Relevant Function (art. 1.6). Workers who are not 'skilled power' Receive the Statutory Minimum (Youth) Wage (art. 4.9). The Wage Table is Adjusted Annually on January 1st Based on the CBS Consumer Price Index From The Preceded October (art. 4.7.4). A Further 1% Wage Increase is Scheduled for July 1, 2019 (art. 4.7.6).</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Horeca_cao_2018_2019_na_ttw</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1677.41</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="n">
+        <v>1694.18</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>The Gross Hourly Wage is 1/164.67Th of the Monthly Salary (art. 1.22). Job Classification is based on the 'Handbook reference functions Horeca' (art. 4.1). Skilled Workers ('skilled power') Are Employees aged 18 or about with 1,976 Hours of Experience in the Relevant Function (art. 1.6). Workers who are not 'skilled power' Receive the Statutory Minimum (Youth) Wage (art. 4.9). The Wage Table is Adjusted Annually on January 1st Based on the CBS Consumer Price Index From The Preceded October (art. 4.7.4). A Further 1% Wage Increase is Scheduled for July 1, 2019 (art. 4.7.6).</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr"/>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Horeca_cao_2018_2019_na_ttw</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Iv</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1755.99</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="n">
+        <v>1773.55</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>The Gross Hourly Wage is 1/164.67Th of the Monthly Salary (art. 1.22). Job Classification is based on the 'Handbook reference functions Horeca' (art. 4.1). Skilled Workers ('skilled power') Are Employees aged 18 or about with 1,976 Hours of Experience in the Relevant Function (art. 1.6). Workers who are not 'skilled power' Receive the Statutory Minimum (Youth) Wage (art. 4.9). The Wage Table is Adjusted Annually on January 1st Based on the CBS Consumer Price Index From The Preceded October (art. 4.7.4). A Further 1% Wage Increase is Scheduled for July 1, 2019 (art. 4.7.6).</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Horeca_cao_2018_2019_na_ttw</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1813.96</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="n">
+        <v>1832.1</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>The Gross Hourly Wage is 1/164.67Th of the Monthly Salary (art. 1.22). Job Classification is based on the 'Handbook reference functions Horeca' (art. 4.1). Skilled Workers ('skilled power') Are Employees aged 18 or about with 1,976 Hours of Experience in the Relevant Function (art. 1.6). Workers who are not 'skilled power' Receive the Statutory Minimum (Youth) Wage (art. 4.9). The Wage Table is Adjusted Annually on January 1st Based on the CBS Consumer Price Index From The Preceded October (art. 4.7.4). A Further 1% Wage Increase is Scheduled for July 1, 2019 (art. 4.7.6).</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
+      <c r="BM20" t="inlineStr"/>
+      <c r="BN20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Horeca_cao_2018_2019_na_ttw</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Vi</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>2021.95</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="n">
+        <v>2042.17</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>The Gross Hourly Wage is 1/164.67Th of the Monthly Salary (art. 1.22). Job Classification is based on the 'Handbook reference functions Horeca' (art. 4.1). Skilled Workers ('skilled power') Are Employees aged 18 or about with 1,976 Hours of Experience in the Relevant Function (art. 1.6). Workers who are not 'skilled power' Receive the Statutory Minimum (Youth) Wage (art. 4.9). The Wage Table is Adjusted Annually on January 1st Based on the CBS Consumer Price Index From The Preceded October (art. 4.7.4). A Further 1% Wage Increase is Scheduled for July 1, 2019 (art. 4.7.6).</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="inlineStr"/>
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="inlineStr"/>
+      <c r="BM21" t="inlineStr"/>
+      <c r="BN21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Horeca_cao_2018_2019_na_ttw</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>VII</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>2236.5</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="n">
+        <v>2258.87</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>The Gross Hourly Wage is 1/164.67Th of the Monthly Salary (art. 1.22). Job Classification is based on the 'Handbook reference functions Horeca' (art. 4.1). Skilled Workers ('skilled power') Are Employees aged 18 or about with 1,976 Hours of Experience in the Relevant Function (art. 1.6). Workers who are not 'skilled power' Receive the Statutory Minimum (Youth) Wage (art. 4.9). The Wage Table is Adjusted Annually on January 1st Based on the CBS Consumer Price Index From The Preceded October (art. 4.7.4). A Further 1% Wage Increase is Scheduled for July 1, 2019 (art. 4.7.6).</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="inlineStr"/>
+      <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Horeca_cao_2018_2019_na_ttw</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>2448.87</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="n">
+        <v>2473.36</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>The Gross Hourly Wage is 1/164.67Th of the Monthly Salary (art. 1.22). Job Classification is based on the 'Handbook reference functions Horeca' (art. 4.1). Skilled Workers ('skilled power') Are Employees aged 18 or about with 1,976 Hours of Experience in the Relevant Function (art. 1.6). Workers who are not 'skilled power' Receive the Statutory Minimum (Youth) Wage (art. 4.9). The Wage Table is Adjusted Annually on January 1st Based on the CBS Consumer Price Index From The Preceded October (art. 4.7.4). A Further 1% Wage Increase is Scheduled for July 1, 2019 (art. 4.7.6).</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr"/>
+      <c r="BM23" t="inlineStr"/>
+      <c r="BN23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Horeca_cao_2018_2019_na_ttw</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>2669.73</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="n">
+        <v>2696.43</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>The Gross Hourly Wage is 1/164.67Th of the Monthly Salary (art. 1.22). Job Classification is based on the 'Handbook reference functions Horeca' (art. 4.1). Skilled Workers ('skilled power') Are Employees aged 18 or about with 1,976 Hours of Experience in the Relevant Function (art. 1.6). Workers who are not 'skilled power' Receive the Statutory Minimum (Youth) Wage (art. 4.9). The Wage Table is Adjusted Annually on January 1st Based on the CBS Consumer Price Index From The Preceded October (art. 4.7.4). A Further 1% Wage Increase is Scheduled for July 1, 2019 (art. 4.7.6).</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr"/>
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="inlineStr"/>
+      <c r="BM24" t="inlineStr"/>
+      <c r="BN24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Horeca_cao_2018_2019_na_ttw</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2909.99</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="n">
+        <v>2939.09</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>The Gross Hourly Wage is 1/164.67Th of the Monthly Salary (art. 1.22). Job Classification is based on the 'Handbook reference functions Horeca' (art. 4.1). Skilled Workers ('skilled power') Are Employees aged 18 or about with 1,976 Hours of Experience in the Relevant Function (art. 1.6). Workers who are not 'skilled power' Receive the Statutory Minimum (Youth) Wage (art. 4.9). The Wage Table is Adjusted Annually on January 1st Based on the CBS Consumer Price Index From The Preceded October (art. 4.7.4). A Further 1% Wage Increase is Scheduled for July 1, 2019 (art. 4.7.6).</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr"/>
+      <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Horeca_cao_2018_2019_na_ttw</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>XI</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>3171.91</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="n">
+        <v>3203.63</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>The Gross Hourly Wage is 1/164.67Th of the Monthly Salary (art. 1.22). Job Classification is based on the 'Handbook reference functions Horeca' (art. 4.1). Skilled Workers ('skilled power') Are Employees aged 18 or about with 1,976 Hours of Experience in the Relevant Function (art. 1.6). Workers who are not 'skilled power' Receive the Statutory Minimum (Youth) Wage (art. 4.9). The Wage Table is Adjusted Annually on January 1st Based on the CBS Consumer Price Index From The Preceded October (art. 4.7.4). A Further 1% Wage Increase is Scheduled for July 1, 2019 (art. 4.7.6).</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr"/>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" t="inlineStr"/>
+      <c r="BL26" t="inlineStr"/>
+      <c r="BM26" t="inlineStr"/>
+      <c r="BN26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Horeca_cao_2018_2019_na_ttw</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Pension</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>AOW-entitled Age (State Pension Age)</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="inlineStr"/>
+      <c r="BM27" t="inlineStr"/>
+      <c r="BN27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Horeca_cao_2018_2019_na_ttw</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>2 Days Upon Partner's Delivery Or Adoption (art. 3.23.6).</t>
+        </is>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>The 2 Days of Leave for Partner's Delivery or Adoption are with Continued Pay (art. 3.23).</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>0.096</t>
+        </is>
+      </c>
+      <c r="AZ28" t="inlineStr">
+        <is>
+          <t>Hours per hour worked for which the employee is entitled to salary</t>
+        </is>
+      </c>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>TOTAL Vacation Entitlement Consists of Statutory Vacation (4 Times the Eggreed Weekly Working Hours, Equating to An Accrual or 0.0769 Hours per HOR Worked) and Non-Statutory Vacation (5 Days per year for full-time Employment, Eighting to An AcRuual). For a full-time employee, this amounts to 25 days (152 hours + 38 hours) per year. The Vacation Year runs from June 1 to May 31, But Can Be Aligned with the Calendar Year. Employees Are Entitled to a Vacation period or 3 consecutive weeks. A Vacation Allowance of 8% of the Annual Salary is Paid Out, Typically in May or June (art. 3.15, 3.16, 3.19, 4.16).</t>
+        </is>
+      </c>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="inlineStr"/>
+      <c r="BJ28" t="inlineStr"/>
+      <c r="BK28" t="inlineStr"/>
+      <c r="BL28" t="inlineStr"/>
+      <c r="BM28" t="inlineStr"/>
+      <c r="BN28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Horeca_cao_2018_2019_na_ttw</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>The Notice Period is Governed by the Dutch Civil Code (art. 2.7). A Specific Notice Period of One Month Applies If the Employer Terminates The Contract of An Employee At Or After They Reach The Aow (State Pension) Age, Provied the Employee was Hired Before Reaching That Age (Art. 2.11.2).</t>
+        </is>
+      </c>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>Fixed-term Contracts End Automatically Upon Expiry (art. 2.8.1). For fixed term contracts of 6 months or longer, the employer must-be-pride notice ('told') at Least one month before the end date about Whether the contract will be renewed and under What Conditions (art. 2.10). A fixed-term contract can only be terminated prematurely if this possibility is included in the agreement (art. 2.8.3).</t>
+        </is>
+      </c>
+      <c r="BD29" t="inlineStr">
+        <is>
+          <t>The Notice Period For The Employee is Governed by the Dutch Civil Code (Art. 2.7).</t>
+        </is>
+      </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t>The CAO refers to the Provisions of the Dutch Civil Code for the Employee's Notice Period. A fixed-term contract can only be terminated prematurely by the employee if this possibility is included in the agreement (art. 2.8.3).</t>
+        </is>
+      </c>
+      <c r="BF29" t="inlineStr">
+        <is>
+          <t>The Duration and Conditions of the Probation Period are Governed by the Provisions of the Dutch Civil Code (Art. 2.6).</t>
+        </is>
+      </c>
+      <c r="BG29" t="inlineStr">
+        <is>
+          <t>A Probation Period must be agreed Upon in Writing in the Employment Contract and Must Be of Equal Duration for Both Parties. A New Probation Period can only be agreed Upon in a Subsequent Contract If the New Position Clearly Requires Different Skills and Responsibilities (art. 2.6).</t>
+        </is>
+      </c>
+      <c r="BH29" t="inlineStr"/>
+      <c r="BI29" t="inlineStr"/>
+      <c r="BJ29" t="inlineStr"/>
+      <c r="BK29" t="inlineStr"/>
+      <c r="BL29" t="inlineStr"/>
+      <c r="BM29" t="inlineStr"/>
+      <c r="BN29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Horeca_cao_2018_2019_na_ttw</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>Overtime is compensated with time-for-time, where each hour of overtime entitles the employee to one hour or paid leave. At the Employee's Request, this can be paid out directly at 100% of the Hourly Wage. If time-for-time compensation is not Possible within 6 months after the overtime was established, the Hours must be paid out at 100% of the Hourly Wage (art. 3.14).</t>
+        </is>
+      </c>
+      <c r="BI30" t="inlineStr">
+        <is>
+          <t>For Employees Aged 18 and Older, the maximum working time is 12 hours per shift and 60 hours per week. About a period or 4 consecutive week, The Average is a maximum of 55 hours per week. About a period of 16 consecutive week, The Average is a maximum of 48 hours per week (OR 40 Hours per week If Night Shifts Are Worked). These Maximums Are Constrained by the Normal Full-time Work Year of 1976 Hours (Appendix I).</t>
+        </is>
+      </c>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="inlineStr">
+        <is>
+          <t>For Working on a public holiday, compensation is provid as time-for-time (One Hour of Paid Leave for Each Hour Worked). If this is not Possible Within 6 Months, A 50% Surcharge on the Hourly Wage is Paid Instead (art. 3.12). For Night Shifts (Defined AS A Shift with More than One Hour Worked Between 00:00 and 06:00), A 10% Surcharge On The Hourly Wage is Paid for the Entire Shift for Employees in Front Office Functions in Lodging Companies (Art. 4.12).</t>
+        </is>
+      </c>
+      <c r="BL30" t="inlineStr"/>
+      <c r="BM30" t="inlineStr"/>
+      <c r="BN30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Horeca_Cao_2018_2019_na_tt.json</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Horeca_cao_2018_2019_na_ttw</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="inlineStr"/>
+      <c r="BG31" t="inlineStr"/>
+      <c r="BH31" t="inlineStr"/>
+      <c r="BI31" t="inlineStr"/>
+      <c r="BJ31" t="inlineStr"/>
+      <c r="BK31" t="inlineStr"/>
+      <c r="BL31" t="inlineStr"/>
+      <c r="BM31" t="inlineStr"/>
+      <c r="BN31" t="inlineStr">
+        <is>
+          <t>The Employer Must Establish An Annual Development Budget of AT Least 2% of the Company's Cumulative Annual Wage Sum for Payroll Tax Purposes. This budget is to be used for onboarding, training, education, career advice, and to support development goals from performance reviews (art. 5.1). The CAO specifications rules for apprentices ('student'), who must be employed by a training Company Recognized by SBB and Have Both a Professional Practice Agreement and an Employment Contract (art. 5.2, 5.3, 5.4). Performance reviews, Held at Least Annually, include discussions about Personal Development and Setting Goals, which May Involve Training or Education (art. 4.4).</t>
         </is>
       </c>
     </row>

--- a/results/extracted_data.xlsx
+++ b/results/extracted_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN172"/>
+  <dimension ref="A1:BN219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25227,6 +25227,6386 @@
         </is>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Cao_Technische_Golhandel_2014_2016_formal_tekst.json</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>730</v>
+      </c>
+      <c r="C173" t="n">
+        <v>730001</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>01-01-2014</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>30-06-2016</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>30/06/2016</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>24-03-2015</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1485.6</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="n">
+        <v>1495.2</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="n">
+        <v>1516.82</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="W173" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="X173" t="n">
+        <v>1539.57</v>
+      </c>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z173" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="AA173" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB173" t="n">
+        <v>1562.66</v>
+      </c>
+      <c r="AC173" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD173" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="AE173" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AF173" t="n">
+        <v>1574.38</v>
+      </c>
+      <c r="AG173" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AH173" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="AI173" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="AJ173" t="inlineStr"/>
+      <c r="AK173" t="inlineStr"/>
+      <c r="AL173" t="inlineStr"/>
+      <c r="AM173" t="inlineStr"/>
+      <c r="AN173" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO173" t="inlineStr">
+        <is>
+          <t>Hourly Wage is calculated by dividing the months salary by 164.67 (article 30). For profitable companies in 2014, a one-time payment of 1.6% over 12 Times the October 2014 Salary was made in March 2015 (article 32). The 1.2% Life Course Allowance was Converted Into A 1% Structural Wage Increase AS of January 1, 2015 (article 32).</t>
+        </is>
+      </c>
+      <c r="AP173" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ173" t="inlineStr"/>
+      <c r="AR173" t="inlineStr"/>
+      <c r="AS173" t="inlineStr"/>
+      <c r="AT173" t="inlineStr"/>
+      <c r="AU173" t="inlineStr"/>
+      <c r="AV173" t="inlineStr"/>
+      <c r="AW173" t="inlineStr"/>
+      <c r="AX173" t="inlineStr"/>
+      <c r="AY173" t="inlineStr"/>
+      <c r="AZ173" t="inlineStr"/>
+      <c r="BA173" t="inlineStr"/>
+      <c r="BB173" t="inlineStr"/>
+      <c r="BC173" t="inlineStr"/>
+      <c r="BD173" t="inlineStr"/>
+      <c r="BE173" t="inlineStr"/>
+      <c r="BF173" t="inlineStr"/>
+      <c r="BG173" t="inlineStr"/>
+      <c r="BH173" t="inlineStr"/>
+      <c r="BI173" t="inlineStr"/>
+      <c r="BJ173" t="inlineStr"/>
+      <c r="BK173" t="inlineStr"/>
+      <c r="BL173" t="inlineStr"/>
+      <c r="BM173" t="inlineStr"/>
+      <c r="BN173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Cao_Technische_Golhandel_2014_2016_formal_tekst.json</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>730</v>
+      </c>
+      <c r="C174" t="n">
+        <v>730001</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>01-01-2014</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>30-06-2016</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>30/06/2016</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>24-03-2015</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1574.72</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="n">
+        <v>1574.72</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="n">
+        <v>1590.47</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="W174" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="X174" t="n">
+        <v>1614.33</v>
+      </c>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z174" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="AA174" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB174" t="n">
+        <v>1638.54</v>
+      </c>
+      <c r="AC174" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD174" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="AE174" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AF174" t="n">
+        <v>1650.83</v>
+      </c>
+      <c r="AG174" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AH174" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="AI174" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="AJ174" t="inlineStr"/>
+      <c r="AK174" t="inlineStr"/>
+      <c r="AL174" t="inlineStr"/>
+      <c r="AM174" t="inlineStr"/>
+      <c r="AN174" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO174" t="inlineStr">
+        <is>
+          <t>Hourly Wage is calculated by dividing the months salary by 164.67 (article 30). For profitable companies in 2014, a one-time payment of 1.6% over 12 Times the October 2014 Salary was made in March 2015 (article 32). The 1.2% Life Course Allowance was Converted Into A 1% Structural Wage Increase AS of January 1, 2015 (article 32).</t>
+        </is>
+      </c>
+      <c r="AP174" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ174" t="inlineStr"/>
+      <c r="AR174" t="inlineStr"/>
+      <c r="AS174" t="inlineStr"/>
+      <c r="AT174" t="inlineStr"/>
+      <c r="AU174" t="inlineStr"/>
+      <c r="AV174" t="inlineStr"/>
+      <c r="AW174" t="inlineStr"/>
+      <c r="AX174" t="inlineStr"/>
+      <c r="AY174" t="inlineStr"/>
+      <c r="AZ174" t="inlineStr"/>
+      <c r="BA174" t="inlineStr"/>
+      <c r="BB174" t="inlineStr"/>
+      <c r="BC174" t="inlineStr"/>
+      <c r="BD174" t="inlineStr"/>
+      <c r="BE174" t="inlineStr"/>
+      <c r="BF174" t="inlineStr"/>
+      <c r="BG174" t="inlineStr"/>
+      <c r="BH174" t="inlineStr"/>
+      <c r="BI174" t="inlineStr"/>
+      <c r="BJ174" t="inlineStr"/>
+      <c r="BK174" t="inlineStr"/>
+      <c r="BL174" t="inlineStr"/>
+      <c r="BM174" t="inlineStr"/>
+      <c r="BN174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Cao_Technische_Golhandel_2014_2016_formal_tekst.json</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>730</v>
+      </c>
+      <c r="C175" t="n">
+        <v>730001</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>01-01-2014</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>30-06-2016</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>30/06/2016</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>24-03-2015</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>Ii</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1585.2</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="n">
+        <v>1585.2</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="n">
+        <v>1601.05</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="W175" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="X175" t="n">
+        <v>1625.07</v>
+      </c>
+      <c r="Y175" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z175" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="AA175" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB175" t="n">
+        <v>1649.44</v>
+      </c>
+      <c r="AC175" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD175" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="AE175" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AF175" t="n">
+        <v>1661.82</v>
+      </c>
+      <c r="AG175" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AH175" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="AI175" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="AJ175" t="inlineStr"/>
+      <c r="AK175" t="inlineStr"/>
+      <c r="AL175" t="inlineStr"/>
+      <c r="AM175" t="inlineStr"/>
+      <c r="AN175" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO175" t="inlineStr">
+        <is>
+          <t>Hourly Wage is calculated by dividing the months salary by 164.67 (article 30). For profitable companies in 2014, a one-time payment of 1.6% over 12 Times the October 2014 Salary was made in March 2015 (article 32). The 1.2% Life Course Allowance was Converted Into A 1% Structural Wage Increase AS of January 1, 2015 (article 32).</t>
+        </is>
+      </c>
+      <c r="AP175" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ175" t="inlineStr"/>
+      <c r="AR175" t="inlineStr"/>
+      <c r="AS175" t="inlineStr"/>
+      <c r="AT175" t="inlineStr"/>
+      <c r="AU175" t="inlineStr"/>
+      <c r="AV175" t="inlineStr"/>
+      <c r="AW175" t="inlineStr"/>
+      <c r="AX175" t="inlineStr"/>
+      <c r="AY175" t="inlineStr"/>
+      <c r="AZ175" t="inlineStr"/>
+      <c r="BA175" t="inlineStr"/>
+      <c r="BB175" t="inlineStr"/>
+      <c r="BC175" t="inlineStr"/>
+      <c r="BD175" t="inlineStr"/>
+      <c r="BE175" t="inlineStr"/>
+      <c r="BF175" t="inlineStr"/>
+      <c r="BG175" t="inlineStr"/>
+      <c r="BH175" t="inlineStr"/>
+      <c r="BI175" t="inlineStr"/>
+      <c r="BJ175" t="inlineStr"/>
+      <c r="BK175" t="inlineStr"/>
+      <c r="BL175" t="inlineStr"/>
+      <c r="BM175" t="inlineStr"/>
+      <c r="BN175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Cao_Technische_Golhandel_2014_2016_formal_tekst.json</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>730</v>
+      </c>
+      <c r="C176" t="n">
+        <v>730001</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>01-01-2014</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>30-06-2016</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>30/06/2016</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>24-03-2015</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1601.8</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="n">
+        <v>1601.8</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="n">
+        <v>1617.81</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="W176" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="X176" t="n">
+        <v>1642.08</v>
+      </c>
+      <c r="Y176" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z176" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="AA176" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB176" t="n">
+        <v>1666.71</v>
+      </c>
+      <c r="AC176" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD176" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="AE176" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AF176" t="n">
+        <v>1679.21</v>
+      </c>
+      <c r="AG176" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AH176" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="AI176" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="AJ176" t="inlineStr"/>
+      <c r="AK176" t="inlineStr"/>
+      <c r="AL176" t="inlineStr"/>
+      <c r="AM176" t="inlineStr"/>
+      <c r="AN176" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO176" t="inlineStr">
+        <is>
+          <t>Hourly Wage is calculated by dividing the months salary by 164.67 (article 30). For profitable companies in 2014, a one-time payment of 1.6% over 12 Times the October 2014 Salary was made in March 2015 (article 32). The 1.2% Life Course Allowance was Converted Into A 1% Structural Wage Increase AS of January 1, 2015 (article 32).</t>
+        </is>
+      </c>
+      <c r="AP176" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ176" t="inlineStr"/>
+      <c r="AR176" t="inlineStr"/>
+      <c r="AS176" t="inlineStr"/>
+      <c r="AT176" t="inlineStr"/>
+      <c r="AU176" t="inlineStr"/>
+      <c r="AV176" t="inlineStr"/>
+      <c r="AW176" t="inlineStr"/>
+      <c r="AX176" t="inlineStr"/>
+      <c r="AY176" t="inlineStr"/>
+      <c r="AZ176" t="inlineStr"/>
+      <c r="BA176" t="inlineStr"/>
+      <c r="BB176" t="inlineStr"/>
+      <c r="BC176" t="inlineStr"/>
+      <c r="BD176" t="inlineStr"/>
+      <c r="BE176" t="inlineStr"/>
+      <c r="BF176" t="inlineStr"/>
+      <c r="BG176" t="inlineStr"/>
+      <c r="BH176" t="inlineStr"/>
+      <c r="BI176" t="inlineStr"/>
+      <c r="BJ176" t="inlineStr"/>
+      <c r="BK176" t="inlineStr"/>
+      <c r="BL176" t="inlineStr"/>
+      <c r="BM176" t="inlineStr"/>
+      <c r="BN176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Cao_Technische_Golhandel_2014_2016_formal_tekst.json</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>730</v>
+      </c>
+      <c r="C177" t="n">
+        <v>730001</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>01-01-2014</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>30-06-2016</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>30/06/2016</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>24-03-2015</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Iv</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1641.06</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="n">
+        <v>1641.06</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="n">
+        <v>1657.47</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="W177" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="X177" t="n">
+        <v>1682.33</v>
+      </c>
+      <c r="Y177" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z177" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="AA177" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB177" t="n">
+        <v>1707.57</v>
+      </c>
+      <c r="AC177" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD177" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="AE177" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AF177" t="n">
+        <v>1720.37</v>
+      </c>
+      <c r="AG177" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AH177" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="AI177" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="AJ177" t="inlineStr"/>
+      <c r="AK177" t="inlineStr"/>
+      <c r="AL177" t="inlineStr"/>
+      <c r="AM177" t="inlineStr"/>
+      <c r="AN177" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO177" t="inlineStr">
+        <is>
+          <t>Hourly Wage is calculated by dividing the months salary by 164.67 (article 30). For profitable companies in 2014, a one-time payment of 1.6% over 12 Times the October 2014 Salary was made in March 2015 (article 32). The 1.2% Life Course Allowance was Converted Into A 1% Structural Wage Increase AS of January 1, 2015 (article 32).</t>
+        </is>
+      </c>
+      <c r="AP177" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ177" t="inlineStr"/>
+      <c r="AR177" t="inlineStr"/>
+      <c r="AS177" t="inlineStr"/>
+      <c r="AT177" t="inlineStr"/>
+      <c r="AU177" t="inlineStr"/>
+      <c r="AV177" t="inlineStr"/>
+      <c r="AW177" t="inlineStr"/>
+      <c r="AX177" t="inlineStr"/>
+      <c r="AY177" t="inlineStr"/>
+      <c r="AZ177" t="inlineStr"/>
+      <c r="BA177" t="inlineStr"/>
+      <c r="BB177" t="inlineStr"/>
+      <c r="BC177" t="inlineStr"/>
+      <c r="BD177" t="inlineStr"/>
+      <c r="BE177" t="inlineStr"/>
+      <c r="BF177" t="inlineStr"/>
+      <c r="BG177" t="inlineStr"/>
+      <c r="BH177" t="inlineStr"/>
+      <c r="BI177" t="inlineStr"/>
+      <c r="BJ177" t="inlineStr"/>
+      <c r="BK177" t="inlineStr"/>
+      <c r="BL177" t="inlineStr"/>
+      <c r="BM177" t="inlineStr"/>
+      <c r="BN177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Cao_Technische_Golhandel_2014_2016_formal_tekst.json</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>730</v>
+      </c>
+      <c r="C178" t="n">
+        <v>730001</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>01-01-2014</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>30-06-2016</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>30/06/2016</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>24-03-2015</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1681.08</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="n">
+        <v>1681.08</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="n">
+        <v>1697.89</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="W178" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="X178" t="n">
+        <v>1723.36</v>
+      </c>
+      <c r="Y178" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z178" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="AA178" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB178" t="n">
+        <v>1749.21</v>
+      </c>
+      <c r="AC178" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD178" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="AE178" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AF178" t="n">
+        <v>1762.33</v>
+      </c>
+      <c r="AG178" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AH178" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="AI178" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="AJ178" t="inlineStr"/>
+      <c r="AK178" t="inlineStr"/>
+      <c r="AL178" t="inlineStr"/>
+      <c r="AM178" t="inlineStr"/>
+      <c r="AN178" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO178" t="inlineStr">
+        <is>
+          <t>Hourly Wage is calculated by dividing the months salary by 164.67 (article 30). For profitable companies in 2014, a one-time payment of 1.6% over 12 Times the October 2014 Salary was made in March 2015 (article 32). The 1.2% Life Course Allowance was Converted Into A 1% Structural Wage Increase AS of January 1, 2015 (article 32).</t>
+        </is>
+      </c>
+      <c r="AP178" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ178" t="inlineStr"/>
+      <c r="AR178" t="inlineStr"/>
+      <c r="AS178" t="inlineStr"/>
+      <c r="AT178" t="inlineStr"/>
+      <c r="AU178" t="inlineStr"/>
+      <c r="AV178" t="inlineStr"/>
+      <c r="AW178" t="inlineStr"/>
+      <c r="AX178" t="inlineStr"/>
+      <c r="AY178" t="inlineStr"/>
+      <c r="AZ178" t="inlineStr"/>
+      <c r="BA178" t="inlineStr"/>
+      <c r="BB178" t="inlineStr"/>
+      <c r="BC178" t="inlineStr"/>
+      <c r="BD178" t="inlineStr"/>
+      <c r="BE178" t="inlineStr"/>
+      <c r="BF178" t="inlineStr"/>
+      <c r="BG178" t="inlineStr"/>
+      <c r="BH178" t="inlineStr"/>
+      <c r="BI178" t="inlineStr"/>
+      <c r="BJ178" t="inlineStr"/>
+      <c r="BK178" t="inlineStr"/>
+      <c r="BL178" t="inlineStr"/>
+      <c r="BM178" t="inlineStr"/>
+      <c r="BN178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Cao_Technische_Golhandel_2014_2016_formal_tekst.json</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>730</v>
+      </c>
+      <c r="C179" t="n">
+        <v>730001</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>01-01-2014</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>30-06-2016</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>30/06/2016</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>24-03-2015</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>Vi</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="W179" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z179" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="AA179" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB179" t="inlineStr"/>
+      <c r="AC179" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD179" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="AE179" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AF179" t="inlineStr"/>
+      <c r="AG179" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AH179" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="AI179" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="AJ179" t="inlineStr"/>
+      <c r="AK179" t="inlineStr"/>
+      <c r="AL179" t="inlineStr"/>
+      <c r="AM179" t="inlineStr"/>
+      <c r="AN179" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO179" t="inlineStr">
+        <is>
+          <t>Hourly Wage is calculated by dividing the months salary by 164.67 (article 30). For profitable companies in 2014, a one-time payment of 1.6% over 12 Times the October 2014 Salary was made in March 2015 (article 32). The 1.2% Life Course Allowance was Converted Into A 1% Structural Wage Increase AS of January 1, 2015 (article 32).</t>
+        </is>
+      </c>
+      <c r="AP179" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ179" t="inlineStr"/>
+      <c r="AR179" t="inlineStr"/>
+      <c r="AS179" t="inlineStr"/>
+      <c r="AT179" t="inlineStr"/>
+      <c r="AU179" t="inlineStr"/>
+      <c r="AV179" t="inlineStr"/>
+      <c r="AW179" t="inlineStr"/>
+      <c r="AX179" t="inlineStr"/>
+      <c r="AY179" t="inlineStr"/>
+      <c r="AZ179" t="inlineStr"/>
+      <c r="BA179" t="inlineStr"/>
+      <c r="BB179" t="inlineStr"/>
+      <c r="BC179" t="inlineStr"/>
+      <c r="BD179" t="inlineStr"/>
+      <c r="BE179" t="inlineStr"/>
+      <c r="BF179" t="inlineStr"/>
+      <c r="BG179" t="inlineStr"/>
+      <c r="BH179" t="inlineStr"/>
+      <c r="BI179" t="inlineStr"/>
+      <c r="BJ179" t="inlineStr"/>
+      <c r="BK179" t="inlineStr"/>
+      <c r="BL179" t="inlineStr"/>
+      <c r="BM179" t="inlineStr"/>
+      <c r="BN179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Cao_Technische_Golhandel_2014_2016_formal_tekst.json</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>730</v>
+      </c>
+      <c r="C180" t="n">
+        <v>730001</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Pension</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>01-01-2014</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>30-06-2016</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>30/06/2016</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>24-03-2015</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr"/>
+      <c r="Z180" t="inlineStr"/>
+      <c r="AA180" t="inlineStr"/>
+      <c r="AB180" t="inlineStr"/>
+      <c r="AC180" t="inlineStr"/>
+      <c r="AD180" t="inlineStr"/>
+      <c r="AE180" t="inlineStr"/>
+      <c r="AF180" t="inlineStr"/>
+      <c r="AG180" t="inlineStr"/>
+      <c r="AH180" t="inlineStr"/>
+      <c r="AI180" t="inlineStr"/>
+      <c r="AJ180" t="inlineStr"/>
+      <c r="AK180" t="inlineStr"/>
+      <c r="AL180" t="inlineStr"/>
+      <c r="AM180" t="inlineStr"/>
+      <c r="AN180" t="inlineStr"/>
+      <c r="AO180" t="inlineStr"/>
+      <c r="AP180" t="inlineStr"/>
+      <c r="AQ180" t="inlineStr">
+        <is>
+          <t>The Employer is recommended to arrange a collective guesthouse Scheme for Employees (B - Pension scheme). The Vutech Early Retirement Scheme for Employees Born Before 1950 Stopped on January 1, 2015. The Accrual of Early Pension Rights via The Vptech Scheme Stopped on January 1, 2006 (article 52).</t>
+        </is>
+      </c>
+      <c r="AR180" t="inlineStr">
+        <is>
+          <t>Under the 'Cao à la carte' Scheme, available funds can be used for additional claims within an existing company Pension Plan or an individual annuity insurance (article 58).</t>
+        </is>
+      </c>
+      <c r="AS180" t="inlineStr">
+        <is>
+          <t>The Employment Contract Ends Automaticaxy On The Day the AOW-Eligible Age is Reached (article 18).</t>
+        </is>
+      </c>
+      <c r="AT180" t="inlineStr"/>
+      <c r="AU180" t="inlineStr"/>
+      <c r="AV180" t="inlineStr"/>
+      <c r="AW180" t="inlineStr"/>
+      <c r="AX180" t="inlineStr"/>
+      <c r="AY180" t="inlineStr"/>
+      <c r="AZ180" t="inlineStr"/>
+      <c r="BA180" t="inlineStr"/>
+      <c r="BB180" t="inlineStr"/>
+      <c r="BC180" t="inlineStr"/>
+      <c r="BD180" t="inlineStr"/>
+      <c r="BE180" t="inlineStr"/>
+      <c r="BF180" t="inlineStr"/>
+      <c r="BG180" t="inlineStr"/>
+      <c r="BH180" t="inlineStr"/>
+      <c r="BI180" t="inlineStr"/>
+      <c r="BJ180" t="inlineStr"/>
+      <c r="BK180" t="inlineStr"/>
+      <c r="BL180" t="inlineStr"/>
+      <c r="BM180" t="inlineStr"/>
+      <c r="BN180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Cao_Technische_Golhandel_2014_2016_formal_tekst.json</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>730</v>
+      </c>
+      <c r="C181" t="n">
+        <v>730001</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>01-01-2014</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>30-06-2016</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>30/06/2016</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>24-03-2015</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
+      <c r="AB181" t="inlineStr"/>
+      <c r="AC181" t="inlineStr"/>
+      <c r="AD181" t="inlineStr"/>
+      <c r="AE181" t="inlineStr"/>
+      <c r="AF181" t="inlineStr"/>
+      <c r="AG181" t="inlineStr"/>
+      <c r="AH181" t="inlineStr"/>
+      <c r="AI181" t="inlineStr"/>
+      <c r="AJ181" t="inlineStr"/>
+      <c r="AK181" t="inlineStr"/>
+      <c r="AL181" t="inlineStr"/>
+      <c r="AM181" t="inlineStr"/>
+      <c r="AN181" t="inlineStr"/>
+      <c r="AO181" t="inlineStr"/>
+      <c r="AP181" t="inlineStr"/>
+      <c r="AQ181" t="inlineStr"/>
+      <c r="AR181" t="inlineStr"/>
+      <c r="AS181" t="inlineStr"/>
+      <c r="AT181" t="inlineStr"/>
+      <c r="AU181" t="inlineStr"/>
+      <c r="AV181" t="inlineStr">
+        <is>
+          <t>A pregnant employee is entitled to at Least 16 weeks of maternity and childbirth leave. The Leave Can start from 6 Week Up to 4 Week Before the Expected Delivery Date. After Delivery, The Employee is entitled to at Least 10 Week of Leave. The Last Part of the Childbirth Leave (from 6 Week After Delivery) Can Be Taken Flexible on A Period of Up to 30 Week. The partner is entitled to 2 days of Paternity Leave (maternity leave). For adoption or foster care, there is an entitlement or up to 4 weeks of leave. (Article 43, appendix 3b)</t>
+        </is>
+      </c>
+      <c r="AW181" t="inlineStr">
+        <is>
+          <t>Maternity and Childbirth Leave is 100% paid, in the Form of a UWV Benefit Equal to the Employee's Salary (article 43, Appendix 3b). Paternity Leave (maternity leave) is 100% paid by the employer. Adoption and Foster Care Leave is Unpaid, But A Benefit Can Be Claimed from the UWV.</t>
+        </is>
+      </c>
+      <c r="AX181" t="inlineStr">
+        <is>
+          <t>AS or Jan 1, 2015: Extended Childbirth Leave in Case of the Child's Hospitalization (incubator arrangement); Transfer of Leave to the Partner Upon the Mother's Death; And the option to take the Liter part of the Leave part-time in 30 weeks. There is an intention to extend Leave for Multiple Births. An Employee has the right to take at Least Three Weeks of Vacation Immediately Following Her Maternity Leave If Requed on Time (article 46).</t>
+        </is>
+      </c>
+      <c r="AY181" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AZ181" t="inlineStr">
+        <is>
+          <t>days per year</t>
+        </is>
+      </c>
+      <c r="BA181" t="inlineStr">
+        <is>
+          <t>ACCURUST is 2 1/12 days per month. Additional Days are Granted for: Employees in Job Groups V and VI and Sales Representatives (3 Days); Employees aged 50-54 (1 day); 55-59 (3 Days Total); 60+ (5 Days Total). These are cumulative with the job group bonus. At Least Three Week's must be tasks consecutive, preferably between April 30 and October 1. The Holiday Allowance is 8% of the salary. AS of Jan 1, 2016, The Statutory Limitation Period Applies to Statutory Holidays. For Holidays Acharued Up to Dec 31, 2015, A 5-Year Limitation Period Applies. For Non-Statutory Holidays, The Limitation Period is 5 Years. (Articles 46 &amp; 47)</t>
+        </is>
+      </c>
+      <c r="BB181" t="inlineStr"/>
+      <c r="BC181" t="inlineStr"/>
+      <c r="BD181" t="inlineStr"/>
+      <c r="BE181" t="inlineStr"/>
+      <c r="BF181" t="inlineStr"/>
+      <c r="BG181" t="inlineStr"/>
+      <c r="BH181" t="inlineStr"/>
+      <c r="BI181" t="inlineStr"/>
+      <c r="BJ181" t="inlineStr"/>
+      <c r="BK181" t="inlineStr"/>
+      <c r="BL181" t="inlineStr"/>
+      <c r="BM181" t="inlineStr"/>
+      <c r="BN181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Cao_Technische_Golhandel_2014_2016_formal_tekst.json</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>730</v>
+      </c>
+      <c r="C182" t="n">
+        <v>730001</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>01-01-2014</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>30-06-2016</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>30/06/2016</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>24-03-2015</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
+      <c r="AB182" t="inlineStr"/>
+      <c r="AC182" t="inlineStr"/>
+      <c r="AD182" t="inlineStr"/>
+      <c r="AE182" t="inlineStr"/>
+      <c r="AF182" t="inlineStr"/>
+      <c r="AG182" t="inlineStr"/>
+      <c r="AH182" t="inlineStr"/>
+      <c r="AI182" t="inlineStr"/>
+      <c r="AJ182" t="inlineStr"/>
+      <c r="AK182" t="inlineStr"/>
+      <c r="AL182" t="inlineStr"/>
+      <c r="AM182" t="inlineStr"/>
+      <c r="AN182" t="inlineStr"/>
+      <c r="AO182" t="inlineStr"/>
+      <c r="AP182" t="inlineStr"/>
+      <c r="AQ182" t="inlineStr"/>
+      <c r="AR182" t="inlineStr"/>
+      <c r="AS182" t="inlineStr"/>
+      <c r="AT182" t="inlineStr"/>
+      <c r="AU182" t="inlineStr"/>
+      <c r="AV182" t="inlineStr"/>
+      <c r="AW182" t="inlineStr"/>
+      <c r="AX182" t="inlineStr"/>
+      <c r="AY182" t="inlineStr"/>
+      <c r="AZ182" t="inlineStr"/>
+      <c r="BA182" t="inlineStr"/>
+      <c r="BB182" t="inlineStr">
+        <is>
+          <t>The CAO Follows The Provisions of article 7: 672 of the Dutch Civil Code (BW) for the Notice Period.</t>
+        </is>
+      </c>
+      <c r="BC182" t="inlineStr">
+        <is>
+          <t>The Employment Contract Ends Automaticaxy On The Day the AOW-Eligible Age is Reached (article 18). In Case of Collective Dismissal (WMCO), The Employer Will Not Enforce Any Agreed-Uprein Non-Compete Clause (article 67).</t>
+        </is>
+      </c>
+      <c r="BD182" t="inlineStr">
+        <is>
+          <t>The CAO Follows The Provisions of article 7: 672 of the Dutch Civil Code (BW) for the Notice Period.</t>
+        </is>
+      </c>
+      <c r="BE182" t="inlineStr"/>
+      <c r="BF182" t="inlineStr">
+        <is>
+          <t>A Probationaly Period can be agreed UPON Between the Employer and Employee, in which case article 7: 652 of the Dutch Civil Code (BW) Applies.</t>
+        </is>
+      </c>
+      <c r="BG182" t="inlineStr">
+        <is>
+          <t>Unless Explicitly Stated Otherwise in the Written Contract, The Appointment is for an indefinite period (article 16).</t>
+        </is>
+      </c>
+      <c r="BH182" t="inlineStr"/>
+      <c r="BI182" t="inlineStr"/>
+      <c r="BJ182" t="inlineStr"/>
+      <c r="BK182" t="inlineStr"/>
+      <c r="BL182" t="inlineStr"/>
+      <c r="BM182" t="inlineStr"/>
+      <c r="BN182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Cao_Technische_Golhandel_2014_2016_formal_tekst.json</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>730</v>
+      </c>
+      <c r="C183" t="n">
+        <v>730001</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>01-01-2014</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>30-06-2016</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>30/06/2016</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>24-03-2015</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="inlineStr"/>
+      <c r="AC183" t="inlineStr"/>
+      <c r="AD183" t="inlineStr"/>
+      <c r="AE183" t="inlineStr"/>
+      <c r="AF183" t="inlineStr"/>
+      <c r="AG183" t="inlineStr"/>
+      <c r="AH183" t="inlineStr"/>
+      <c r="AI183" t="inlineStr"/>
+      <c r="AJ183" t="inlineStr"/>
+      <c r="AK183" t="inlineStr"/>
+      <c r="AL183" t="inlineStr"/>
+      <c r="AM183" t="inlineStr"/>
+      <c r="AN183" t="inlineStr"/>
+      <c r="AO183" t="inlineStr"/>
+      <c r="AP183" t="inlineStr"/>
+      <c r="AQ183" t="inlineStr"/>
+      <c r="AR183" t="inlineStr"/>
+      <c r="AS183" t="inlineStr"/>
+      <c r="AT183" t="inlineStr"/>
+      <c r="AU183" t="inlineStr"/>
+      <c r="AV183" t="inlineStr"/>
+      <c r="AW183" t="inlineStr"/>
+      <c r="AX183" t="inlineStr"/>
+      <c r="AY183" t="inlineStr"/>
+      <c r="AZ183" t="inlineStr"/>
+      <c r="BA183" t="inlineStr"/>
+      <c r="BB183" t="inlineStr"/>
+      <c r="BC183" t="inlineStr"/>
+      <c r="BD183" t="inlineStr"/>
+      <c r="BE183" t="inlineStr"/>
+      <c r="BF183" t="inlineStr"/>
+      <c r="BG183" t="inlineStr"/>
+      <c r="BH183" t="inlineStr">
+        <is>
+          <t>Overtime is compensated with a 25% Surcharge on the Hourly Wage for the First Two Hours, and A 50% Surcharge for Subsequent Hours. Alternatively, it can be compensated with paid time off within a 'reasonable term', in which case no surcharge applies. For Employees in Job Groups V and VI, Incidental Overtime is not paid but compensated with 3 extra vacation days; If overtime is more than incidental, normal overtime pay applies in addition to the extra days (article 42).</t>
+        </is>
+      </c>
+      <c r="BI183" t="inlineStr">
+        <is>
+          <t>The Working Week is a maximum of 45 hours, and the working day is a maximum of 9 hours (article 34). Overtime is Limited to 90 Hours per Six Months (article 42).</t>
+        </is>
+      </c>
+      <c r="BJ183" t="inlineStr">
+        <is>
+          <t>For on-call workers, the employer must sacrifice at Least 16 Hours of Work per Month (article 19). For part-time workers, The Aim is for a contract of at Least 8 hours per week, but in any case at Least 28 hours per month (article 20).</t>
+        </is>
+      </c>
+      <c r="BK183" t="inlineStr">
+        <is>
+          <t>Two-Shift Work: 12.5% Allowance. Three-Shift Work: 22.5% Allowance (article 38). For non-shift work under Regulation B (06: 00-20: 00), Allowances are: Mon-Fri 05: 00-06: 00: 25%; Mon-Fri 20: 00-23: 00: 25%; Mon-Fri 23: 00-05: 00: 50%. Saturday work has surcharges or 25% (09: 00-17: 00) and 50% OR 100% at Other Times. Sunday Work (Sat 17:00 - Mon 05:00) is paid with a 100% Surcharge. Work on Public Holidays is Paid with a 100% Surcharge Plus An Extra Day Off (Articles 37, 40, 41).</t>
+        </is>
+      </c>
+      <c r="BL183" t="inlineStr">
+        <is>
+          <t>Overtime is defined as work that exeds the normal daily working hours by more than 0.5 hours (article 42).</t>
+        </is>
+      </c>
+      <c r="BM183" t="inlineStr"/>
+      <c r="BN183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Cao_Technische_Golhandel_2014_2016_formal_tekst.json</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>730</v>
+      </c>
+      <c r="C184" t="n">
+        <v>730001</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>01-01-2014</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>30-06-2016</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>30/06/2016</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>24-03-2015</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr"/>
+      <c r="AB184" t="inlineStr"/>
+      <c r="AC184" t="inlineStr"/>
+      <c r="AD184" t="inlineStr"/>
+      <c r="AE184" t="inlineStr"/>
+      <c r="AF184" t="inlineStr"/>
+      <c r="AG184" t="inlineStr"/>
+      <c r="AH184" t="inlineStr"/>
+      <c r="AI184" t="inlineStr"/>
+      <c r="AJ184" t="inlineStr"/>
+      <c r="AK184" t="inlineStr"/>
+      <c r="AL184" t="inlineStr"/>
+      <c r="AM184" t="inlineStr"/>
+      <c r="AN184" t="inlineStr"/>
+      <c r="AO184" t="inlineStr"/>
+      <c r="AP184" t="inlineStr"/>
+      <c r="AQ184" t="inlineStr"/>
+      <c r="AR184" t="inlineStr"/>
+      <c r="AS184" t="inlineStr"/>
+      <c r="AT184" t="inlineStr"/>
+      <c r="AU184" t="inlineStr"/>
+      <c r="AV184" t="inlineStr"/>
+      <c r="AW184" t="inlineStr"/>
+      <c r="AX184" t="inlineStr"/>
+      <c r="AY184" t="inlineStr"/>
+      <c r="AZ184" t="inlineStr"/>
+      <c r="BA184" t="inlineStr"/>
+      <c r="BB184" t="inlineStr"/>
+      <c r="BC184" t="inlineStr"/>
+      <c r="BD184" t="inlineStr"/>
+      <c r="BE184" t="inlineStr"/>
+      <c r="BF184" t="inlineStr"/>
+      <c r="BG184" t="inlineStr"/>
+      <c r="BH184" t="inlineStr"/>
+      <c r="BI184" t="inlineStr"/>
+      <c r="BJ184" t="inlineStr"/>
+      <c r="BK184" t="inlineStr"/>
+      <c r="BL184" t="inlineStr"/>
+      <c r="BM184" t="inlineStr"/>
+      <c r="BN184" t="inlineStr">
+        <is>
+          <t>The Fonds Kollektive Interests (FKB) Finance Various Projects Related to the Labor Market, Funded by An Employer Contribution or 0.1% of the Gross Wage Bill (2014-2015). This Includes Supporting The Vocational Learning Learning path (BBL), Promotion Internships, and Developing Projects to Reduce Absenteeism and Disability (article 68). The FKB also Supports Activities Such as Developing A Branch-Rie, Training for Prevention Employees, and An Arbo Helpdesk. Employees Are Entitled to Paid Leave Leave For Attending Union Meetings and Courses (Up to 4 Days), With A Minimum of 2 Paid Days for Union Training. Union Officials Receive 6 Paid Days. In The Year Before Early Retirement, An Employee is entitled to 5 Paid Days for Pre-retirement Courses (Article 45). Under 'Cao à la carte', Employees Can Purchase Non-Function-Related Study Days (article 58).</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Raltex_2018_2020_doordend_tekst.json</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>35</v>
+      </c>
+      <c r="C185" t="n">
+        <v>35001</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>01-01-2018</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>30-06-2021</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>30/06/2020</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>14-11-2018</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Loon Group II</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>2.25%</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="W185" t="inlineStr">
+        <is>
+          <t>2.25%</t>
+        </is>
+      </c>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr"/>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="inlineStr"/>
+      <c r="AC185" t="inlineStr"/>
+      <c r="AD185" t="inlineStr"/>
+      <c r="AE185" t="inlineStr"/>
+      <c r="AF185" t="inlineStr"/>
+      <c r="AG185" t="inlineStr"/>
+      <c r="AH185" t="inlineStr"/>
+      <c r="AI185" t="inlineStr"/>
+      <c r="AJ185" t="inlineStr"/>
+      <c r="AK185" t="inlineStr"/>
+      <c r="AL185" t="inlineStr"/>
+      <c r="AM185" t="inlineStr"/>
+      <c r="AN185" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO185" t="inlineStr">
+        <is>
+          <t>Loon Group I is the Statutory (Youth) Minimum Wage. Function classification is based on the orba method as detailed in the raltex function manual. Periodic Increases Apply Annually On July 1 For Employees Aged 23 and Older who Have Not Reached the Maximum of Their Scale (Periodic 6.0). The Increase is 1.0 Periodic, OR Based on Performance (0.5, 1.0, OR 1.5 Periodic) IF A Company-specific Assessment System is in place. Allowances: driver supplement: € 36 gross per month for full-time drivers (Pro Rata for Part-time). Surcharge (student) sterile medical devices employee: € 36 gross per month (pro rata for part-time). End -of -year benefit: 8.33% of the Gross Annual Salary (Excluding Holiday Allowance and Overtime Pay). Anniversary allowance: Half A Month's Salary for 25 Years of Service. A 'Service allowance' Granted Before 01/07/2002 is retained.</t>
+        </is>
+      </c>
+      <c r="AP185" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ185" t="inlineStr"/>
+      <c r="AR185" t="inlineStr"/>
+      <c r="AS185" t="inlineStr"/>
+      <c r="AT185" t="inlineStr"/>
+      <c r="AU185" t="inlineStr"/>
+      <c r="AV185" t="inlineStr"/>
+      <c r="AW185" t="inlineStr"/>
+      <c r="AX185" t="inlineStr"/>
+      <c r="AY185" t="inlineStr"/>
+      <c r="AZ185" t="inlineStr"/>
+      <c r="BA185" t="inlineStr"/>
+      <c r="BB185" t="inlineStr"/>
+      <c r="BC185" t="inlineStr"/>
+      <c r="BD185" t="inlineStr"/>
+      <c r="BE185" t="inlineStr"/>
+      <c r="BF185" t="inlineStr"/>
+      <c r="BG185" t="inlineStr"/>
+      <c r="BH185" t="inlineStr"/>
+      <c r="BI185" t="inlineStr"/>
+      <c r="BJ185" t="inlineStr"/>
+      <c r="BK185" t="inlineStr"/>
+      <c r="BL185" t="inlineStr"/>
+      <c r="BM185" t="inlineStr"/>
+      <c r="BN185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Raltex_2018_2020_doordend_tekst.json</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>35</v>
+      </c>
+      <c r="C186" t="n">
+        <v>35001</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>01-01-2018</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>30-06-2021</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>30/06/2020</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>14-11-2018</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>Loon group III</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>2.25%</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="W186" t="inlineStr">
+        <is>
+          <t>2.25%</t>
+        </is>
+      </c>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="inlineStr"/>
+      <c r="AD186" t="inlineStr"/>
+      <c r="AE186" t="inlineStr"/>
+      <c r="AF186" t="inlineStr"/>
+      <c r="AG186" t="inlineStr"/>
+      <c r="AH186" t="inlineStr"/>
+      <c r="AI186" t="inlineStr"/>
+      <c r="AJ186" t="inlineStr"/>
+      <c r="AK186" t="inlineStr"/>
+      <c r="AL186" t="inlineStr"/>
+      <c r="AM186" t="inlineStr"/>
+      <c r="AN186" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO186" t="inlineStr">
+        <is>
+          <t>Loon Group I is the Statutory (Youth) Minimum Wage. Function classification is based on the orba method as detailed in the raltex function manual. Periodic Increases Apply Annually On July 1 For Employees Aged 23 and Older who Have Not Reached the Maximum of Their Scale (Periodic 6.0). The Increase is 1.0 Periodic, OR Based on Performance (0.5, 1.0, OR 1.5 Periodic) IF A Company-specific Assessment System is in place. Allowances: driver supplement: € 36 gross per month for full-time drivers (Pro Rata for Part-time). Surcharge (student) sterile medical devices employee: € 36 gross per month (pro rata for part-time). End -of -year benefit: 8.33% of the Gross Annual Salary (Excluding Holiday Allowance and Overtime Pay). Anniversary allowance: Half A Month's Salary for 25 Years of Service. A 'Service allowance' Granted Before 01/07/2002 is retained.</t>
+        </is>
+      </c>
+      <c r="AP186" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ186" t="inlineStr"/>
+      <c r="AR186" t="inlineStr"/>
+      <c r="AS186" t="inlineStr"/>
+      <c r="AT186" t="inlineStr"/>
+      <c r="AU186" t="inlineStr"/>
+      <c r="AV186" t="inlineStr"/>
+      <c r="AW186" t="inlineStr"/>
+      <c r="AX186" t="inlineStr"/>
+      <c r="AY186" t="inlineStr"/>
+      <c r="AZ186" t="inlineStr"/>
+      <c r="BA186" t="inlineStr"/>
+      <c r="BB186" t="inlineStr"/>
+      <c r="BC186" t="inlineStr"/>
+      <c r="BD186" t="inlineStr"/>
+      <c r="BE186" t="inlineStr"/>
+      <c r="BF186" t="inlineStr"/>
+      <c r="BG186" t="inlineStr"/>
+      <c r="BH186" t="inlineStr"/>
+      <c r="BI186" t="inlineStr"/>
+      <c r="BJ186" t="inlineStr"/>
+      <c r="BK186" t="inlineStr"/>
+      <c r="BL186" t="inlineStr"/>
+      <c r="BM186" t="inlineStr"/>
+      <c r="BN186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Raltex_2018_2020_doordend_tekst.json</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>35</v>
+      </c>
+      <c r="C187" t="n">
+        <v>35001</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>01-01-2018</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>30-06-2021</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>30/06/2020</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>14-11-2018</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>Loon group IV</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>2.25%</t>
+        </is>
+      </c>
+      <c r="T187" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>2.25%</t>
+        </is>
+      </c>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="inlineStr"/>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="inlineStr"/>
+      <c r="AC187" t="inlineStr"/>
+      <c r="AD187" t="inlineStr"/>
+      <c r="AE187" t="inlineStr"/>
+      <c r="AF187" t="inlineStr"/>
+      <c r="AG187" t="inlineStr"/>
+      <c r="AH187" t="inlineStr"/>
+      <c r="AI187" t="inlineStr"/>
+      <c r="AJ187" t="inlineStr"/>
+      <c r="AK187" t="inlineStr"/>
+      <c r="AL187" t="inlineStr"/>
+      <c r="AM187" t="inlineStr"/>
+      <c r="AN187" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO187" t="inlineStr">
+        <is>
+          <t>Loon Group I is the Statutory (Youth) Minimum Wage. Function classification is based on the orba method as detailed in the raltex function manual. Periodic Increases Apply Annually On July 1 For Employees Aged 23 and Older who Have Not Reached the Maximum of Their Scale (Periodic 6.0). The Increase is 1.0 Periodic, OR Based on Performance (0.5, 1.0, OR 1.5 Periodic) IF A Company-specific Assessment System is in place. Allowances: driver supplement: € 36 gross per month for full-time drivers (Pro Rata for Part-time). Surcharge (student) sterile medical devices employee: € 36 gross per month (pro rata for part-time). End -of -year benefit: 8.33% of the Gross Annual Salary (Excluding Holiday Allowance and Overtime Pay). Anniversary allowance: Half A Month's Salary for 25 Years of Service. A 'Service allowance' Granted Before 01/07/2002 is retained.</t>
+        </is>
+      </c>
+      <c r="AP187" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ187" t="inlineStr"/>
+      <c r="AR187" t="inlineStr"/>
+      <c r="AS187" t="inlineStr"/>
+      <c r="AT187" t="inlineStr"/>
+      <c r="AU187" t="inlineStr"/>
+      <c r="AV187" t="inlineStr"/>
+      <c r="AW187" t="inlineStr"/>
+      <c r="AX187" t="inlineStr"/>
+      <c r="AY187" t="inlineStr"/>
+      <c r="AZ187" t="inlineStr"/>
+      <c r="BA187" t="inlineStr"/>
+      <c r="BB187" t="inlineStr"/>
+      <c r="BC187" t="inlineStr"/>
+      <c r="BD187" t="inlineStr"/>
+      <c r="BE187" t="inlineStr"/>
+      <c r="BF187" t="inlineStr"/>
+      <c r="BG187" t="inlineStr"/>
+      <c r="BH187" t="inlineStr"/>
+      <c r="BI187" t="inlineStr"/>
+      <c r="BJ187" t="inlineStr"/>
+      <c r="BK187" t="inlineStr"/>
+      <c r="BL187" t="inlineStr"/>
+      <c r="BM187" t="inlineStr"/>
+      <c r="BN187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Raltex_2018_2020_doordend_tekst.json</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>35</v>
+      </c>
+      <c r="C188" t="n">
+        <v>35001</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>01-01-2018</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>30-06-2021</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>30/06/2020</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>14-11-2018</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>Wage group V</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>2.25%</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="W188" t="inlineStr">
+        <is>
+          <t>2.25%</t>
+        </is>
+      </c>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="inlineStr"/>
+      <c r="AC188" t="inlineStr"/>
+      <c r="AD188" t="inlineStr"/>
+      <c r="AE188" t="inlineStr"/>
+      <c r="AF188" t="inlineStr"/>
+      <c r="AG188" t="inlineStr"/>
+      <c r="AH188" t="inlineStr"/>
+      <c r="AI188" t="inlineStr"/>
+      <c r="AJ188" t="inlineStr"/>
+      <c r="AK188" t="inlineStr"/>
+      <c r="AL188" t="inlineStr"/>
+      <c r="AM188" t="inlineStr"/>
+      <c r="AN188" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO188" t="inlineStr">
+        <is>
+          <t>Loon Group I is the Statutory (Youth) Minimum Wage. Function classification is based on the orba method as detailed in the raltex function manual. Periodic Increases Apply Annually On July 1 For Employees Aged 23 and Older who Have Not Reached the Maximum of Their Scale (Periodic 6.0). The Increase is 1.0 Periodic, OR Based on Performance (0.5, 1.0, OR 1.5 Periodic) IF A Company-specific Assessment System is in place. Allowances: driver supplement: € 36 gross per month for full-time drivers (Pro Rata for Part-time). Surcharge (student) sterile medical devices employee: € 36 gross per month (pro rata for part-time). End -of -year benefit: 8.33% of the Gross Annual Salary (Excluding Holiday Allowance and Overtime Pay). Anniversary allowance: Half A Month's Salary for 25 Years of Service. A 'Service allowance' Granted Before 01/07/2002 is retained.</t>
+        </is>
+      </c>
+      <c r="AP188" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ188" t="inlineStr"/>
+      <c r="AR188" t="inlineStr"/>
+      <c r="AS188" t="inlineStr"/>
+      <c r="AT188" t="inlineStr"/>
+      <c r="AU188" t="inlineStr"/>
+      <c r="AV188" t="inlineStr"/>
+      <c r="AW188" t="inlineStr"/>
+      <c r="AX188" t="inlineStr"/>
+      <c r="AY188" t="inlineStr"/>
+      <c r="AZ188" t="inlineStr"/>
+      <c r="BA188" t="inlineStr"/>
+      <c r="BB188" t="inlineStr"/>
+      <c r="BC188" t="inlineStr"/>
+      <c r="BD188" t="inlineStr"/>
+      <c r="BE188" t="inlineStr"/>
+      <c r="BF188" t="inlineStr"/>
+      <c r="BG188" t="inlineStr"/>
+      <c r="BH188" t="inlineStr"/>
+      <c r="BI188" t="inlineStr"/>
+      <c r="BJ188" t="inlineStr"/>
+      <c r="BK188" t="inlineStr"/>
+      <c r="BL188" t="inlineStr"/>
+      <c r="BM188" t="inlineStr"/>
+      <c r="BN188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Raltex_2018_2020_doordend_tekst.json</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>35</v>
+      </c>
+      <c r="C189" t="n">
+        <v>35001</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Pension</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>01-01-2018</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>30-06-2021</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>30/06/2020</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>14-11-2018</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="inlineStr"/>
+      <c r="AC189" t="inlineStr"/>
+      <c r="AD189" t="inlineStr"/>
+      <c r="AE189" t="inlineStr"/>
+      <c r="AF189" t="inlineStr"/>
+      <c r="AG189" t="inlineStr"/>
+      <c r="AH189" t="inlineStr"/>
+      <c r="AI189" t="inlineStr"/>
+      <c r="AJ189" t="inlineStr"/>
+      <c r="AK189" t="inlineStr"/>
+      <c r="AL189" t="inlineStr"/>
+      <c r="AM189" t="inlineStr"/>
+      <c r="AN189" t="inlineStr"/>
+      <c r="AO189" t="inlineStr"/>
+      <c r="AP189" t="inlineStr"/>
+      <c r="AQ189" t="inlineStr">
+        <is>
+          <t>Both Employer and Employee Are Required to Participate in the 'Stichting Bedrijfslakpensioenfonds Fashion, Interieur,, Carpet and Textile Industry' Pension Fund. Duration Parental Leave and Statutory Short-Term Care Leave, Pension Accrual and Premium Payments Continue Based on the Income and Premium Distribution Prior to the Leave.</t>
+        </is>
+      </c>
+      <c r="AR189" t="inlineStr"/>
+      <c r="AS189" t="inlineStr">
+        <is>
+          <t>AOW - Age</t>
+        </is>
+      </c>
+      <c r="AT189" t="inlineStr"/>
+      <c r="AU189" t="inlineStr">
+        <is>
+          <t>The Pension Scheme does not Apply to Holiday Workers and Trainees.</t>
+        </is>
+      </c>
+      <c r="AV189" t="inlineStr"/>
+      <c r="AW189" t="inlineStr"/>
+      <c r="AX189" t="inlineStr"/>
+      <c r="AY189" t="inlineStr"/>
+      <c r="AZ189" t="inlineStr"/>
+      <c r="BA189" t="inlineStr"/>
+      <c r="BB189" t="inlineStr"/>
+      <c r="BC189" t="inlineStr"/>
+      <c r="BD189" t="inlineStr"/>
+      <c r="BE189" t="inlineStr"/>
+      <c r="BF189" t="inlineStr"/>
+      <c r="BG189" t="inlineStr"/>
+      <c r="BH189" t="inlineStr"/>
+      <c r="BI189" t="inlineStr"/>
+      <c r="BJ189" t="inlineStr"/>
+      <c r="BK189" t="inlineStr"/>
+      <c r="BL189" t="inlineStr"/>
+      <c r="BM189" t="inlineStr"/>
+      <c r="BN189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Raltex_2018_2020_doordend_tekst.json</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>35</v>
+      </c>
+      <c r="C190" t="n">
+        <v>35001</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>01-01-2018</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>30-06-2021</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>30/06/2020</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>14-11-2018</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="inlineStr"/>
+      <c r="AC190" t="inlineStr"/>
+      <c r="AD190" t="inlineStr"/>
+      <c r="AE190" t="inlineStr"/>
+      <c r="AF190" t="inlineStr"/>
+      <c r="AG190" t="inlineStr"/>
+      <c r="AH190" t="inlineStr"/>
+      <c r="AI190" t="inlineStr"/>
+      <c r="AJ190" t="inlineStr"/>
+      <c r="AK190" t="inlineStr"/>
+      <c r="AL190" t="inlineStr"/>
+      <c r="AM190" t="inlineStr"/>
+      <c r="AN190" t="inlineStr"/>
+      <c r="AO190" t="inlineStr"/>
+      <c r="AP190" t="inlineStr"/>
+      <c r="AQ190" t="inlineStr"/>
+      <c r="AR190" t="inlineStr"/>
+      <c r="AS190" t="inlineStr"/>
+      <c r="AT190" t="inlineStr"/>
+      <c r="AU190" t="inlineStr"/>
+      <c r="AV190" t="inlineStr">
+        <is>
+          <t>Leave for Pregnancy and Childbirth is Mentioned, But The Duration is not specified. The Life Partner of the Person Giving Birth is Entitled to 2 Days of Paid Leave.</t>
+        </is>
+      </c>
+      <c r="AW190" t="inlineStr"/>
+      <c r="AX190" t="inlineStr">
+        <is>
+          <t>Employees on pregnancy or childbirth Leave continuous to Age Age vacation time. Duration Parental Leave, Pension Accrual Continues As If the Employee Were Still Working.</t>
+        </is>
+      </c>
+      <c r="AY190" t="inlineStr">
+        <is>
+          <t>184 leave hours for a full-time (36-hour week) employee. Extra Hours Based on Length of Service: 16 Hours for 25+ years, 24 Hours for 35+ years. Extra Hours Based on Age (Effective 01/07/2017): 16 Hours (51-53), 24 Hours (54-55), 32 HORS (56-57), 40 Hours (58-59), 48 Hours (60-61), 56 Hours (62-66). Employees Under 19 years old Receive 24 extra Leave Hours. Only the most favorable extra leave scheme (service vs. age) applies.</t>
+        </is>
+      </c>
+      <c r="AZ190" t="inlineStr">
+        <is>
+          <t>Hours per Calendar Year</t>
+        </is>
+      </c>
+      <c r="BA190" t="inlineStr">
+        <is>
+          <t>For full-time employees working more than 36 hours a week, The Vacation Hours are: 188 (37h), 192 (38h), 196 (39h), 200 (40h). Leave is calculated pro-rata for part-time employees or those who have not worked a full calendar year. Holiday Allowance is 8.33% of the Gross Annual Salary (excluding the year-end bonus), paid in May. The Holiday Year runs from June 1st to May 31st of the Following Year. Employees Retain Their Right to Vacation Leave Duration Periods of Illness, But The Accrual of Non-Statutory Leave Days is Limited to the First Six Months of Illness.</t>
+        </is>
+      </c>
+      <c r="BB190" t="inlineStr"/>
+      <c r="BC190" t="inlineStr"/>
+      <c r="BD190" t="inlineStr"/>
+      <c r="BE190" t="inlineStr"/>
+      <c r="BF190" t="inlineStr"/>
+      <c r="BG190" t="inlineStr"/>
+      <c r="BH190" t="inlineStr"/>
+      <c r="BI190" t="inlineStr"/>
+      <c r="BJ190" t="inlineStr"/>
+      <c r="BK190" t="inlineStr"/>
+      <c r="BL190" t="inlineStr"/>
+      <c r="BM190" t="inlineStr"/>
+      <c r="BN190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Raltex_2018_2020_doordend_tekst.json</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>35</v>
+      </c>
+      <c r="C191" t="n">
+        <v>35001</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>01-01-2018</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>30-06-2021</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>30/06/2020</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>14-11-2018</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="inlineStr"/>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="inlineStr"/>
+      <c r="AC191" t="inlineStr"/>
+      <c r="AD191" t="inlineStr"/>
+      <c r="AE191" t="inlineStr"/>
+      <c r="AF191" t="inlineStr"/>
+      <c r="AG191" t="inlineStr"/>
+      <c r="AH191" t="inlineStr"/>
+      <c r="AI191" t="inlineStr"/>
+      <c r="AJ191" t="inlineStr"/>
+      <c r="AK191" t="inlineStr"/>
+      <c r="AL191" t="inlineStr"/>
+      <c r="AM191" t="inlineStr"/>
+      <c r="AN191" t="inlineStr"/>
+      <c r="AO191" t="inlineStr"/>
+      <c r="AP191" t="inlineStr"/>
+      <c r="AQ191" t="inlineStr"/>
+      <c r="AR191" t="inlineStr"/>
+      <c r="AS191" t="inlineStr"/>
+      <c r="AT191" t="inlineStr"/>
+      <c r="AU191" t="inlineStr"/>
+      <c r="AV191" t="inlineStr"/>
+      <c r="AW191" t="inlineStr"/>
+      <c r="AX191" t="inlineStr"/>
+      <c r="AY191" t="inlineStr"/>
+      <c r="AZ191" t="inlineStr"/>
+      <c r="BA191" t="inlineStr"/>
+      <c r="BB191" t="inlineStr">
+        <is>
+          <t>Based on length of service: 1 month (0-5 years), 2 months (5-10 years), 3 months (10-15 years), 4 months (15+ years). This is Extended Based on Employee Age: +0.5 Month (45-49 years), +1 Month (50-54 years), +1.5 Months (55+ years).</t>
+        </is>
+      </c>
+      <c r="BC191" t="inlineStr">
+        <is>
+          <t>For fixed term contracts of 6 months or longer, the employer must-bee 1 months notice ('notification period') on Whether the contract will be renewedwed. Termination must be effective from the first day following a pay period.</t>
+        </is>
+      </c>
+      <c r="BD191" t="inlineStr">
+        <is>
+          <t>1 Month</t>
+        </is>
+      </c>
+      <c r="BE191" t="inlineStr">
+        <is>
+          <t>Termination must be effective from the first day following a pay period.</t>
+        </is>
+      </c>
+      <c r="BF191" t="inlineStr">
+        <is>
+          <t>Maximum 1 months for contracts between 6 and 24 months. Maximum 2 months for contracts longer than 2 years. No Probation Period For Contracts of Less Than 6 Months.</t>
+        </is>
+      </c>
+      <c r="BG191" t="inlineStr">
+        <is>
+          <t>The Probation Period is not Renewed Upon Extension of a contract. Duration Probation, Either party can terminate the contract Without Notice. Illness does not suspend the probation period.</t>
+        </is>
+      </c>
+      <c r="BH191" t="inlineStr"/>
+      <c r="BI191" t="inlineStr"/>
+      <c r="BJ191" t="inlineStr"/>
+      <c r="BK191" t="inlineStr"/>
+      <c r="BL191" t="inlineStr"/>
+      <c r="BM191" t="inlineStr"/>
+      <c r="BN191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Raltex_2018_2020_doordend_tekst.json</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>35</v>
+      </c>
+      <c r="C192" t="n">
+        <v>35001</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>01-01-2018</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>30-06-2021</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>30/06/2020</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>14-11-2018</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="inlineStr"/>
+      <c r="AC192" t="inlineStr"/>
+      <c r="AD192" t="inlineStr"/>
+      <c r="AE192" t="inlineStr"/>
+      <c r="AF192" t="inlineStr"/>
+      <c r="AG192" t="inlineStr"/>
+      <c r="AH192" t="inlineStr"/>
+      <c r="AI192" t="inlineStr"/>
+      <c r="AJ192" t="inlineStr"/>
+      <c r="AK192" t="inlineStr"/>
+      <c r="AL192" t="inlineStr"/>
+      <c r="AM192" t="inlineStr"/>
+      <c r="AN192" t="inlineStr"/>
+      <c r="AO192" t="inlineStr"/>
+      <c r="AP192" t="inlineStr"/>
+      <c r="AQ192" t="inlineStr"/>
+      <c r="AR192" t="inlineStr"/>
+      <c r="AS192" t="inlineStr"/>
+      <c r="AT192" t="inlineStr"/>
+      <c r="AU192" t="inlineStr"/>
+      <c r="AV192" t="inlineStr"/>
+      <c r="AW192" t="inlineStr"/>
+      <c r="AX192" t="inlineStr"/>
+      <c r="AY192" t="inlineStr"/>
+      <c r="AZ192" t="inlineStr"/>
+      <c r="BA192" t="inlineStr"/>
+      <c r="BB192" t="inlineStr"/>
+      <c r="BC192" t="inlineStr"/>
+      <c r="BD192" t="inlineStr"/>
+      <c r="BE192" t="inlineStr"/>
+      <c r="BF192" t="inlineStr"/>
+      <c r="BG192" t="inlineStr"/>
+      <c r="BH192" t="inlineStr">
+        <is>
+          <t>Overtime is compensated in Money or Through a 'Time for Time' Arrangement, Where Hours Are Tasks As Leave Within Three Months And The Allowance is Paid Out. Allowances are: 12.5% for the 1st-4th hour/week (if Total Hours &lt;40), 25% for hours over 40/week or 5th-9th hour/week, 50% for Hours over 45/week, 10th+ hour, work on a scheduled day, or saturday work. 100% for Sunday work, and 200% for work on public holidays.</t>
+        </is>
+      </c>
+      <c r="BI192" t="inlineStr">
+        <is>
+          <t>Excluding overtime: max 9 hours/day and 45 hours/week. Including overtime: max 10 hours/day, 50 hours/week, with a maximum of 90 hours in two consecutive weeks.</t>
+        </is>
+      </c>
+      <c r="BJ192" t="inlineStr"/>
+      <c r="BK192" t="inlineStr">
+        <is>
+          <t>A 15% Allowance for Two-Shift Systems and 18% For Three-Shift Systems. Allowances for Working at Irregular Hours are also specified in detailed tables for 'linen rental and laundry companies' and 'textile cleaning companies', with surcharges ranging from 22.5% to 180% depending on the day and time.</t>
+        </is>
+      </c>
+      <c r="BL192" t="inlineStr"/>
+      <c r="BM192" t="inlineStr"/>
+      <c r="BN192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Raltex_2018_2020_doordend_tekst.json</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>35</v>
+      </c>
+      <c r="C193" t="n">
+        <v>35001</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>01-01-2018</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>30-06-2021</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>30/06/2020</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>14-11-2018</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="inlineStr"/>
+      <c r="AC193" t="inlineStr"/>
+      <c r="AD193" t="inlineStr"/>
+      <c r="AE193" t="inlineStr"/>
+      <c r="AF193" t="inlineStr"/>
+      <c r="AG193" t="inlineStr"/>
+      <c r="AH193" t="inlineStr"/>
+      <c r="AI193" t="inlineStr"/>
+      <c r="AJ193" t="inlineStr"/>
+      <c r="AK193" t="inlineStr"/>
+      <c r="AL193" t="inlineStr"/>
+      <c r="AM193" t="inlineStr"/>
+      <c r="AN193" t="inlineStr"/>
+      <c r="AO193" t="inlineStr"/>
+      <c r="AP193" t="inlineStr"/>
+      <c r="AQ193" t="inlineStr"/>
+      <c r="AR193" t="inlineStr"/>
+      <c r="AS193" t="inlineStr"/>
+      <c r="AT193" t="inlineStr"/>
+      <c r="AU193" t="inlineStr"/>
+      <c r="AV193" t="inlineStr"/>
+      <c r="AW193" t="inlineStr"/>
+      <c r="AX193" t="inlineStr"/>
+      <c r="AY193" t="inlineStr"/>
+      <c r="AZ193" t="inlineStr"/>
+      <c r="BA193" t="inlineStr"/>
+      <c r="BB193" t="inlineStr"/>
+      <c r="BC193" t="inlineStr"/>
+      <c r="BD193" t="inlineStr"/>
+      <c r="BE193" t="inlineStr"/>
+      <c r="BF193" t="inlineStr"/>
+      <c r="BG193" t="inlineStr"/>
+      <c r="BH193" t="inlineStr"/>
+      <c r="BI193" t="inlineStr"/>
+      <c r="BJ193" t="inlineStr"/>
+      <c r="BK193" t="inlineStr"/>
+      <c r="BL193" t="inlineStr"/>
+      <c r="BM193" t="inlineStr"/>
+      <c r="BN193" t="inlineStr">
+        <is>
+          <t>There is A Training and Development Fund (R&amp;D fund) That Aims to Develop, Promote, and Finance Industry-specific Training. The Employer Contributes 0.285% of the Wage Bill to this Fund. Employees Have A Right to Training to Maintain Their Professional Competence. At Least One Performance Review per year must take place, which are training that needs are identified. Courses Offered by the O&amp;O fund or Other Courses Aimed at Mintining Professional Competence Are, in Principle, to Take Place Turning Working Hours at the Employer's Expense.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Caowmd1213__270213__Definitief.json</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>301</v>
+      </c>
+      <c r="C194" t="n">
+        <v>301001</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>01-01-2012</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>31-12-2013</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>04-03-2013</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="inlineStr"/>
+      <c r="AC194" t="inlineStr"/>
+      <c r="AD194" t="inlineStr"/>
+      <c r="AE194" t="inlineStr"/>
+      <c r="AF194" t="inlineStr"/>
+      <c r="AG194" t="inlineStr"/>
+      <c r="AH194" t="inlineStr"/>
+      <c r="AI194" t="inlineStr"/>
+      <c r="AJ194" t="inlineStr"/>
+      <c r="AK194" t="inlineStr"/>
+      <c r="AL194" t="inlineStr"/>
+      <c r="AM194" t="inlineStr"/>
+      <c r="AN194" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO194" t="inlineStr">
+        <is>
+          <t>The Hourly Wage is obtained by dividing the Gross Monthly Amount by the Number 156 (art. F.3). The Salary is Increased Annually by One Periodic Number Until the Maxim of the Applicable Salary Scale is Reached (art. 4.4.1). A One-Off Gross Payment of € 300 is made in July 2013 to Employees in Service on July 1, 2013 (art. 4.10). The Holiday Allowance is 8% of the Gross Salary, with a minimum or € 150.13 per month from December 2012 and € 152.38 per month from February 2013 (art. 4.7). The year-end bonus is 8.3% of the annual gross salary plus the accumulated holiday allowance, with a minimum or € 1.095.16 in December 2012 and € 1.110.22 in December 2013 for a full-time employee (art. 4.8).</t>
+        </is>
+      </c>
+      <c r="AP194" t="inlineStr"/>
+      <c r="AQ194" t="inlineStr"/>
+      <c r="AR194" t="inlineStr"/>
+      <c r="AS194" t="inlineStr"/>
+      <c r="AT194" t="inlineStr"/>
+      <c r="AU194" t="inlineStr"/>
+      <c r="AV194" t="inlineStr"/>
+      <c r="AW194" t="inlineStr"/>
+      <c r="AX194" t="inlineStr"/>
+      <c r="AY194" t="inlineStr"/>
+      <c r="AZ194" t="inlineStr"/>
+      <c r="BA194" t="inlineStr"/>
+      <c r="BB194" t="inlineStr"/>
+      <c r="BC194" t="inlineStr"/>
+      <c r="BD194" t="inlineStr"/>
+      <c r="BE194" t="inlineStr"/>
+      <c r="BF194" t="inlineStr"/>
+      <c r="BG194" t="inlineStr"/>
+      <c r="BH194" t="inlineStr"/>
+      <c r="BI194" t="inlineStr"/>
+      <c r="BJ194" t="inlineStr"/>
+      <c r="BK194" t="inlineStr"/>
+      <c r="BL194" t="inlineStr"/>
+      <c r="BM194" t="inlineStr"/>
+      <c r="BN194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Caowmd1213__270213__Definitief.json</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>301</v>
+      </c>
+      <c r="C195" t="n">
+        <v>301001</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Pension</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>01-01-2012</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>31-12-2013</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>04-03-2013</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="inlineStr"/>
+      <c r="AC195" t="inlineStr"/>
+      <c r="AD195" t="inlineStr"/>
+      <c r="AE195" t="inlineStr"/>
+      <c r="AF195" t="inlineStr"/>
+      <c r="AG195" t="inlineStr"/>
+      <c r="AH195" t="inlineStr"/>
+      <c r="AI195" t="inlineStr"/>
+      <c r="AJ195" t="inlineStr"/>
+      <c r="AK195" t="inlineStr"/>
+      <c r="AL195" t="inlineStr"/>
+      <c r="AM195" t="inlineStr"/>
+      <c r="AN195" t="inlineStr"/>
+      <c r="AO195" t="inlineStr"/>
+      <c r="AP195" t="inlineStr"/>
+      <c r="AQ195" t="inlineStr">
+        <is>
+          <t>The Employer Must Enroll the Employee in the Pension Scheme of the Pension Fund Care and Welfare (art. 10.1). The Premium is Shared Equally, with 50% Paid by the Employee and 50% by the Employer (art. 10.2). If an employee Voluntarily Continues Pension Contributions Duration Lifelong Leave Leave, Parental Leave (Up to 12 Months), Or Care Leave, The Employer Continues to Pay The Employer's Share of the Premium (Art. 7.6.2, 7.2.2.6..</t>
+        </is>
+      </c>
+      <c r="AR195" t="inlineStr"/>
+      <c r="AS195" t="inlineStr">
+        <is>
+          <t>The Employment Contract Automatically Ends On The Day Before the Day the Employee Reaches the AOW-EILLE AGE AGE (art. 2.5.f).</t>
+        </is>
+      </c>
+      <c r="AT195" t="inlineStr"/>
+      <c r="AU195" t="inlineStr"/>
+      <c r="AV195" t="inlineStr"/>
+      <c r="AW195" t="inlineStr"/>
+      <c r="AX195" t="inlineStr"/>
+      <c r="AY195" t="inlineStr"/>
+      <c r="AZ195" t="inlineStr"/>
+      <c r="BA195" t="inlineStr"/>
+      <c r="BB195" t="inlineStr"/>
+      <c r="BC195" t="inlineStr"/>
+      <c r="BD195" t="inlineStr"/>
+      <c r="BE195" t="inlineStr"/>
+      <c r="BF195" t="inlineStr"/>
+      <c r="BG195" t="inlineStr"/>
+      <c r="BH195" t="inlineStr"/>
+      <c r="BI195" t="inlineStr"/>
+      <c r="BJ195" t="inlineStr"/>
+      <c r="BK195" t="inlineStr"/>
+      <c r="BL195" t="inlineStr"/>
+      <c r="BM195" t="inlineStr"/>
+      <c r="BN195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Caowmd1213__270213__Definitief.json</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>301</v>
+      </c>
+      <c r="C196" t="n">
+        <v>301001</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>01-01-2012</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>31-12-2013</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>04-03-2013</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="inlineStr"/>
+      <c r="AC196" t="inlineStr"/>
+      <c r="AD196" t="inlineStr"/>
+      <c r="AE196" t="inlineStr"/>
+      <c r="AF196" t="inlineStr"/>
+      <c r="AG196" t="inlineStr"/>
+      <c r="AH196" t="inlineStr"/>
+      <c r="AI196" t="inlineStr"/>
+      <c r="AJ196" t="inlineStr"/>
+      <c r="AK196" t="inlineStr"/>
+      <c r="AL196" t="inlineStr"/>
+      <c r="AM196" t="inlineStr"/>
+      <c r="AN196" t="inlineStr"/>
+      <c r="AO196" t="inlineStr"/>
+      <c r="AP196" t="inlineStr"/>
+      <c r="AQ196" t="inlineStr"/>
+      <c r="AR196" t="inlineStr"/>
+      <c r="AS196" t="inlineStr"/>
+      <c r="AT196" t="inlineStr"/>
+      <c r="AU196" t="inlineStr"/>
+      <c r="AV196" t="inlineStr">
+        <is>
+          <t>The CAO refers to the Labor and Care Act (Labor and Care Act) for Regulations on Maternity Leave (pregnancy and maternity leave) and adoption Leave (adoption leave) (art. 7.7.1, d).</t>
+        </is>
+      </c>
+      <c r="AW196" t="inlineStr">
+        <is>
+          <t>Parental Leave: Duration A Maxim or Tweve Months of Leave, 40% of the Salary is Paid for the Hours of Leave Tasks, Up to a Maxim of Half The Contractual Averreage Weekly Working Hours (Art. 7.7.2.3a). This Allowance is Calculated Based On A Minimum Full-time Gross Salary or € 2.181 (art. 7.7.2.4).</t>
+        </is>
+      </c>
+      <c r="AX196" t="inlineStr">
+        <is>
+          <t>An employee can terminate the contract in Connection with Childbirth, Effective the First Day of the Following Calendar Month, If She Notifies The Employer In Writing Within 6 Week After Giving Birth (Art. 2.5.k). Parental Leave Entitlement is 26 Times The Average Weekly Working Hours (art. 7.7.2.1).</t>
+        </is>
+      </c>
+      <c r="AY196" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="AZ196" t="inlineStr">
+        <is>
+          <t>Hours per Calendar Year (144 Statutory and 26 Non-Statutory) for a full-time (36-hour) employee.</t>
+        </is>
+      </c>
+      <c r="BA196" t="inlineStr">
+        <is>
+          <t>The Holiday Year Runs from June 1 to May 31 for the Purpose of the Holiday Allowance Calculation (art 4.7.1). Until December 31, 2012, Employees Receive Extra Vacation Hours Based on Age: 30-39 Years (7.2 Hours), 40-44 Years (14.4 Hours), 45-49 Years (21.6 Hours), 50+ (36 Hours) (Art. 7.1.2). From January 1, 2013, This is replaced by the 'vitality budget' (art. 7.1.3). Full Vacation Entitlement is Accreedaling Illness (art. 7.2.2). Employees Are Entitled to Paid Leave on Public Holidays (New Year's Day, Easter Monday, Queen's Day, May 5th, Ascension Day, Whit Monday, Christmas Day, Boxing Day) That Do Not Fall On A SaturDay or Suntay (Art. 7.4.1).</t>
+        </is>
+      </c>
+      <c r="BB196" t="inlineStr"/>
+      <c r="BC196" t="inlineStr"/>
+      <c r="BD196" t="inlineStr"/>
+      <c r="BE196" t="inlineStr"/>
+      <c r="BF196" t="inlineStr"/>
+      <c r="BG196" t="inlineStr"/>
+      <c r="BH196" t="inlineStr"/>
+      <c r="BI196" t="inlineStr"/>
+      <c r="BJ196" t="inlineStr"/>
+      <c r="BK196" t="inlineStr"/>
+      <c r="BL196" t="inlineStr"/>
+      <c r="BM196" t="inlineStr"/>
+      <c r="BN196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Caowmd1213__270213__Definitief.json</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>301</v>
+      </c>
+      <c r="C197" t="n">
+        <v>301001</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>01-01-2012</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>31-12-2013</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>04-03-2013</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr"/>
+      <c r="Z197" t="inlineStr"/>
+      <c r="AA197" t="inlineStr"/>
+      <c r="AB197" t="inlineStr"/>
+      <c r="AC197" t="inlineStr"/>
+      <c r="AD197" t="inlineStr"/>
+      <c r="AE197" t="inlineStr"/>
+      <c r="AF197" t="inlineStr"/>
+      <c r="AG197" t="inlineStr"/>
+      <c r="AH197" t="inlineStr"/>
+      <c r="AI197" t="inlineStr"/>
+      <c r="AJ197" t="inlineStr"/>
+      <c r="AK197" t="inlineStr"/>
+      <c r="AL197" t="inlineStr"/>
+      <c r="AM197" t="inlineStr"/>
+      <c r="AN197" t="inlineStr"/>
+      <c r="AO197" t="inlineStr"/>
+      <c r="AP197" t="inlineStr"/>
+      <c r="AQ197" t="inlineStr"/>
+      <c r="AR197" t="inlineStr"/>
+      <c r="AS197" t="inlineStr"/>
+      <c r="AT197" t="inlineStr"/>
+      <c r="AU197" t="inlineStr"/>
+      <c r="AV197" t="inlineStr"/>
+      <c r="AW197" t="inlineStr"/>
+      <c r="AX197" t="inlineStr"/>
+      <c r="AY197" t="inlineStr"/>
+      <c r="AZ197" t="inlineStr"/>
+      <c r="BA197" t="inlineStr"/>
+      <c r="BB197" t="inlineStr">
+        <is>
+          <t>At Least Two Months, Unless a Longer Notice Period is Required by Law (art. 7: 672 BW or Art. XXI of the Wet Flexibility and Security).</t>
+        </is>
+      </c>
+      <c r="BC197" t="inlineStr">
+        <is>
+          <t>Notice must be given in Writing and Substantiated. The Notice Period starts on the First Day of the Calendar Month Following the Termination Notice (art. 2.5.2).</t>
+        </is>
+      </c>
+      <c r="BD197" t="inlineStr">
+        <is>
+          <t>At Least Two Months.</t>
+        </is>
+      </c>
+      <c r="BE197" t="inlineStr">
+        <is>
+          <t>Notice must be given in Writing. The Notice Period starts on the First Day of the Calendar Month Following the Termination Notice (art. 2.5.2).</t>
+        </is>
+      </c>
+      <c r="BF197" t="inlineStr">
+        <is>
+          <t>The CAO refers to Articles 7: 652 and 7: 676 of the Dutch Civil Code (BW) for Termination Duration the Trial Period, But Does Not specific to the Duration of the Period Itelf.</t>
+        </is>
+      </c>
+      <c r="BG197" t="inlineStr">
+        <is>
+          <t>The Employment Can Be Unilaterally Terminated Dooring the Probation Period (art. 2.5.1d).</t>
+        </is>
+      </c>
+      <c r="BH197" t="inlineStr"/>
+      <c r="BI197" t="inlineStr"/>
+      <c r="BJ197" t="inlineStr"/>
+      <c r="BK197" t="inlineStr"/>
+      <c r="BL197" t="inlineStr"/>
+      <c r="BM197" t="inlineStr"/>
+      <c r="BN197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Caowmd1213__270213__Definitief.json</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>301</v>
+      </c>
+      <c r="C198" t="n">
+        <v>301001</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>01-01-2012</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>31-12-2013</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>04-03-2013</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="inlineStr"/>
+      <c r="AC198" t="inlineStr"/>
+      <c r="AD198" t="inlineStr"/>
+      <c r="AE198" t="inlineStr"/>
+      <c r="AF198" t="inlineStr"/>
+      <c r="AG198" t="inlineStr"/>
+      <c r="AH198" t="inlineStr"/>
+      <c r="AI198" t="inlineStr"/>
+      <c r="AJ198" t="inlineStr"/>
+      <c r="AK198" t="inlineStr"/>
+      <c r="AL198" t="inlineStr"/>
+      <c r="AM198" t="inlineStr"/>
+      <c r="AN198" t="inlineStr"/>
+      <c r="AO198" t="inlineStr"/>
+      <c r="AP198" t="inlineStr"/>
+      <c r="AQ198" t="inlineStr"/>
+      <c r="AR198" t="inlineStr"/>
+      <c r="AS198" t="inlineStr"/>
+      <c r="AT198" t="inlineStr"/>
+      <c r="AU198" t="inlineStr"/>
+      <c r="AV198" t="inlineStr"/>
+      <c r="AW198" t="inlineStr"/>
+      <c r="AX198" t="inlineStr"/>
+      <c r="AY198" t="inlineStr"/>
+      <c r="AZ198" t="inlineStr"/>
+      <c r="BA198" t="inlineStr"/>
+      <c r="BB198" t="inlineStr"/>
+      <c r="BC198" t="inlineStr"/>
+      <c r="BD198" t="inlineStr"/>
+      <c r="BE198" t="inlineStr"/>
+      <c r="BF198" t="inlineStr"/>
+      <c r="BG198" t="inlineStr"/>
+      <c r="BH198" t="inlineStr">
+        <is>
+          <t>The Cao Does Not Contain Specific Provisions for Overtime Pay. It provides Various Allowances for Working at Irregular Times, On-call Duties, and Sleep-in Shifts.</t>
+        </is>
+      </c>
+      <c r="BI198" t="inlineStr">
+        <is>
+          <t>The Standard Working Year is 1878 Hours, which can be extended to 2086 hours per year by Agreement (art. 3.1.1). For Employees with Sleep-in Shifts, The Average Work Week Can Be Up To 48 Hours, OR 60 Hours with Employee Consent, Averaged over 26 weeks (art. 3.6.4, 3.6.6).</t>
+        </is>
+      </c>
+      <c r="BJ198" t="inlineStr">
+        <is>
+          <t>A minimum-maximum contract can be aged upon, where the differentence between minimum and maximum weekly hours does not excl.</t>
+        </is>
+      </c>
+      <c r="BK198" t="inlineStr">
+        <is>
+          <t>Three Types of Allowances for irregular Hours: 1) For Employees in 24-hour facilities, a percentage of salary (8.5% OR 15.5%) Based on the Proportion of Irregular Hours (art 5.2.1). 2) for specific employers, an Hourly Allowance Ranging from 20% to 45% Depending on the Day and Time (art 5.2.2). 3) For Other Employees, An Hourly Allowance from 20% to 45% Depending on Day and Time (art 5.2.3). On-Call Duty (accessibility service) is compensated with time off (1 hour for a weekday, 2 for a weekend/holiday) or a financial equivalent (art 5.4). Sleep-in Duty (sleeping service) is compensated with 50% of its duration in paid time off or a financial equivalent (art 5.5).</t>
+        </is>
+      </c>
+      <c r="BL198" t="inlineStr">
+        <is>
+          <t>To Qualify for the Irregular Duty Allowance (art 5.2.1), an employee must work at Least 20% of Their Hours at Irregular Times. For the inconsenient Hours Allowance (art 5.2.2), Work Segments Shorter Than One Hour Do Not Count.</t>
+        </is>
+      </c>
+      <c r="BM198" t="inlineStr">
+        <is>
+          <t>Allowances are calculated up to a maximum salary level. For the irregular duty allowance (art 5.2.1) and inconvenient Hours Allowance (art 5.2.2), This is Based on Scale 3, Period 11. For the General Irregularity Allowance (art 5.2.3), It's based on scale 4, Period 10. Not eligoyees fortheese fortheese fortheis fortheis fortheis fortheis fortheis fortheis fortheis fortheis fortheese fortheis fortheis fortheis fortheis fortheese fortheis fortheis fortheese fortheis. Allowances.</t>
+        </is>
+      </c>
+      <c r="BN198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Caowmd1213__270213__Definitief.json</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>301</v>
+      </c>
+      <c r="C199" t="n">
+        <v>301001</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>01-01-2012</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>31-12-2013</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>04-03-2013</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
+      <c r="R199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
+      <c r="Y199" t="inlineStr"/>
+      <c r="Z199" t="inlineStr"/>
+      <c r="AA199" t="inlineStr"/>
+      <c r="AB199" t="inlineStr"/>
+      <c r="AC199" t="inlineStr"/>
+      <c r="AD199" t="inlineStr"/>
+      <c r="AE199" t="inlineStr"/>
+      <c r="AF199" t="inlineStr"/>
+      <c r="AG199" t="inlineStr"/>
+      <c r="AH199" t="inlineStr"/>
+      <c r="AI199" t="inlineStr"/>
+      <c r="AJ199" t="inlineStr"/>
+      <c r="AK199" t="inlineStr"/>
+      <c r="AL199" t="inlineStr"/>
+      <c r="AM199" t="inlineStr"/>
+      <c r="AN199" t="inlineStr"/>
+      <c r="AO199" t="inlineStr"/>
+      <c r="AP199" t="inlineStr"/>
+      <c r="AQ199" t="inlineStr"/>
+      <c r="AR199" t="inlineStr"/>
+      <c r="AS199" t="inlineStr"/>
+      <c r="AT199" t="inlineStr"/>
+      <c r="AU199" t="inlineStr"/>
+      <c r="AV199" t="inlineStr"/>
+      <c r="AW199" t="inlineStr"/>
+      <c r="AX199" t="inlineStr"/>
+      <c r="AY199" t="inlineStr"/>
+      <c r="AZ199" t="inlineStr"/>
+      <c r="BA199" t="inlineStr"/>
+      <c r="BB199" t="inlineStr"/>
+      <c r="BC199" t="inlineStr"/>
+      <c r="BD199" t="inlineStr"/>
+      <c r="BE199" t="inlineStr"/>
+      <c r="BF199" t="inlineStr"/>
+      <c r="BG199" t="inlineStr"/>
+      <c r="BH199" t="inlineStr"/>
+      <c r="BI199" t="inlineStr"/>
+      <c r="BJ199" t="inlineStr"/>
+      <c r="BK199" t="inlineStr"/>
+      <c r="BL199" t="inlineStr"/>
+      <c r="BM199" t="inlineStr"/>
+      <c r="BN199" t="inlineStr">
+        <is>
+          <t>The Employer Must Establish A Training and Career Plan with the Works Council, Covering aspects Like Budget, Study Facilities, and Recognition of Prior Competencies (EVC) (art. 8.1). Employees Are Required to Undertake Training Necessary for Their Role (art. 8.2). From 1 January 2013, a 'vitality budget' is introduced, which can be used for training. The Budget is provid in Hours and Varies by Age (E.G., 36 Hours for Employees Aged 50+) (art. 8.4). An Education budget or € 1,000 (For Contracts&gt; 1 Year) OR € 2,000 (For Contracts&gt; 2 Years) is available for employees on a fixed term contract that is not made permanent for economic reasons (art. 2.7). Interns (trainees) May Receive an Allowance (art. 6.3.2).</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>CAO Facility contact centers 2022-2023 Signed.json</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2070001</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>31-12-2023</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>01-06-2023</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>% of the WML</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr"/>
+      <c r="Z200" t="inlineStr"/>
+      <c r="AA200" t="inlineStr"/>
+      <c r="AB200" t="inlineStr"/>
+      <c r="AC200" t="inlineStr"/>
+      <c r="AD200" t="inlineStr"/>
+      <c r="AE200" t="inlineStr"/>
+      <c r="AF200" t="inlineStr"/>
+      <c r="AG200" t="inlineStr"/>
+      <c r="AH200" t="inlineStr"/>
+      <c r="AI200" t="inlineStr"/>
+      <c r="AJ200" t="inlineStr"/>
+      <c r="AK200" t="inlineStr"/>
+      <c r="AL200" t="inlineStr"/>
+      <c r="AM200" t="inlineStr"/>
+      <c r="AN200" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO200" t="inlineStr">
+        <is>
+          <t>The Salary Structure is based on a Junior-Medior-Senior model. Until 31/12/2022, Salaries Were a percentage of the Statutory Minimum Wage (WML). From 01/01/2023, fixed minimum Hourly Wages are introduced. For Employees Already in Service, A Complex Individual Salary Increase Applies from 01/01/2023, with the increase ranging from a minimum of 7% up to 18.1%, based on their 01/01/2022 Salary level. There is a separate Youth Wage Scale for Employees Up to 20 Years Old, Effective 01/01/2023. Annual Salary Adjustments (EXPECT IN 2023) Are based on performance (on a 5-point scale) and the annual wml increase. Promotion Between Levels also Triggers Specific Salary Increases. The Parties have an Ambition to Reach a Minimum Hourly Wage of € 14 by 2025. The Hourly Wage is defined as 1/173.33 of the Gross Monthly Salary.</t>
+        </is>
+      </c>
+      <c r="AP200" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ200" t="inlineStr"/>
+      <c r="AR200" t="inlineStr"/>
+      <c r="AS200" t="inlineStr"/>
+      <c r="AT200" t="inlineStr"/>
+      <c r="AU200" t="inlineStr"/>
+      <c r="AV200" t="inlineStr"/>
+      <c r="AW200" t="inlineStr"/>
+      <c r="AX200" t="inlineStr"/>
+      <c r="AY200" t="inlineStr"/>
+      <c r="AZ200" t="inlineStr"/>
+      <c r="BA200" t="inlineStr"/>
+      <c r="BB200" t="inlineStr"/>
+      <c r="BC200" t="inlineStr"/>
+      <c r="BD200" t="inlineStr"/>
+      <c r="BE200" t="inlineStr"/>
+      <c r="BF200" t="inlineStr"/>
+      <c r="BG200" t="inlineStr"/>
+      <c r="BH200" t="inlineStr"/>
+      <c r="BI200" t="inlineStr"/>
+      <c r="BJ200" t="inlineStr"/>
+      <c r="BK200" t="inlineStr"/>
+      <c r="BL200" t="inlineStr"/>
+      <c r="BM200" t="inlineStr"/>
+      <c r="BN200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>CAO Facility contact centers 2022-2023 Signed.json</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2070001</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>31-12-2023</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>01-06-2023</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>Medior</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>% of the WML</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr"/>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
+      <c r="Y201" t="inlineStr"/>
+      <c r="Z201" t="inlineStr"/>
+      <c r="AA201" t="inlineStr"/>
+      <c r="AB201" t="inlineStr"/>
+      <c r="AC201" t="inlineStr"/>
+      <c r="AD201" t="inlineStr"/>
+      <c r="AE201" t="inlineStr"/>
+      <c r="AF201" t="inlineStr"/>
+      <c r="AG201" t="inlineStr"/>
+      <c r="AH201" t="inlineStr"/>
+      <c r="AI201" t="inlineStr"/>
+      <c r="AJ201" t="inlineStr"/>
+      <c r="AK201" t="inlineStr"/>
+      <c r="AL201" t="inlineStr"/>
+      <c r="AM201" t="inlineStr"/>
+      <c r="AN201" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO201" t="inlineStr">
+        <is>
+          <t>The Salary Structure is based on a Junior-Medior-Senior model. Until 31/12/2022, Salaries Were a percentage of the Statutory Minimum Wage (WML). From 01/01/2023, fixed minimum Hourly Wages are introduced. For Employees Already in Service, A Complex Individual Salary Increase Applies from 01/01/2023, with the increase ranging from a minimum of 7% up to 18.1%, based on their 01/01/2022 Salary level. There is a separate Youth Wage Scale for Employees Up to 20 Years Old, Effective 01/01/2023. Annual Salary Adjustments (EXPECT IN 2023) Are based on performance (on a 5-point scale) and the annual wml increase. Promotion Between Levels also Triggers Specific Salary Increases. The Parties have an Ambition to Reach a Minimum Hourly Wage of € 14 by 2025. The Hourly Wage is defined as 1/173.33 of the Gross Monthly Salary.</t>
+        </is>
+      </c>
+      <c r="AP201" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ201" t="inlineStr"/>
+      <c r="AR201" t="inlineStr"/>
+      <c r="AS201" t="inlineStr"/>
+      <c r="AT201" t="inlineStr"/>
+      <c r="AU201" t="inlineStr"/>
+      <c r="AV201" t="inlineStr"/>
+      <c r="AW201" t="inlineStr"/>
+      <c r="AX201" t="inlineStr"/>
+      <c r="AY201" t="inlineStr"/>
+      <c r="AZ201" t="inlineStr"/>
+      <c r="BA201" t="inlineStr"/>
+      <c r="BB201" t="inlineStr"/>
+      <c r="BC201" t="inlineStr"/>
+      <c r="BD201" t="inlineStr"/>
+      <c r="BE201" t="inlineStr"/>
+      <c r="BF201" t="inlineStr"/>
+      <c r="BG201" t="inlineStr"/>
+      <c r="BH201" t="inlineStr"/>
+      <c r="BI201" t="inlineStr"/>
+      <c r="BJ201" t="inlineStr"/>
+      <c r="BK201" t="inlineStr"/>
+      <c r="BL201" t="inlineStr"/>
+      <c r="BM201" t="inlineStr"/>
+      <c r="BN201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>CAO Facility contact centers 2022-2023 Signed.json</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2070001</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>31-12-2023</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>01-06-2023</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>Senior</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>% of the WML</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr"/>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr"/>
+      <c r="Y202" t="inlineStr"/>
+      <c r="Z202" t="inlineStr"/>
+      <c r="AA202" t="inlineStr"/>
+      <c r="AB202" t="inlineStr"/>
+      <c r="AC202" t="inlineStr"/>
+      <c r="AD202" t="inlineStr"/>
+      <c r="AE202" t="inlineStr"/>
+      <c r="AF202" t="inlineStr"/>
+      <c r="AG202" t="inlineStr"/>
+      <c r="AH202" t="inlineStr"/>
+      <c r="AI202" t="inlineStr"/>
+      <c r="AJ202" t="inlineStr"/>
+      <c r="AK202" t="inlineStr"/>
+      <c r="AL202" t="inlineStr"/>
+      <c r="AM202" t="inlineStr"/>
+      <c r="AN202" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO202" t="inlineStr">
+        <is>
+          <t>The Salary Structure is based on a Junior-Medior-Senior model. Until 31/12/2022, Salaries Were a percentage of the Statutory Minimum Wage (WML). From 01/01/2023, fixed minimum Hourly Wages are introduced. For Employees Already in Service, A Complex Individual Salary Increase Applies from 01/01/2023, with the increase ranging from a minimum of 7% up to 18.1%, based on their 01/01/2022 Salary level. There is a separate Youth Wage Scale for Employees Up to 20 Years Old, Effective 01/01/2023. Annual Salary Adjustments (EXPECT IN 2023) Are based on performance (on a 5-point scale) and the annual wml increase. Promotion Between Levels also Triggers Specific Salary Increases. The Parties have an Ambition to Reach a Minimum Hourly Wage of € 14 by 2025. The Hourly Wage is defined as 1/173.33 of the Gross Monthly Salary.</t>
+        </is>
+      </c>
+      <c r="AP202" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ202" t="inlineStr"/>
+      <c r="AR202" t="inlineStr"/>
+      <c r="AS202" t="inlineStr"/>
+      <c r="AT202" t="inlineStr"/>
+      <c r="AU202" t="inlineStr"/>
+      <c r="AV202" t="inlineStr"/>
+      <c r="AW202" t="inlineStr"/>
+      <c r="AX202" t="inlineStr"/>
+      <c r="AY202" t="inlineStr"/>
+      <c r="AZ202" t="inlineStr"/>
+      <c r="BA202" t="inlineStr"/>
+      <c r="BB202" t="inlineStr"/>
+      <c r="BC202" t="inlineStr"/>
+      <c r="BD202" t="inlineStr"/>
+      <c r="BE202" t="inlineStr"/>
+      <c r="BF202" t="inlineStr"/>
+      <c r="BG202" t="inlineStr"/>
+      <c r="BH202" t="inlineStr"/>
+      <c r="BI202" t="inlineStr"/>
+      <c r="BJ202" t="inlineStr"/>
+      <c r="BK202" t="inlineStr"/>
+      <c r="BL202" t="inlineStr"/>
+      <c r="BM202" t="inlineStr"/>
+      <c r="BN202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>CAO Facility contact centers 2022-2023 Signed.json</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2070001</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Pension</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>31-12-2023</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>01-06-2023</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
+      <c r="Y203" t="inlineStr"/>
+      <c r="Z203" t="inlineStr"/>
+      <c r="AA203" t="inlineStr"/>
+      <c r="AB203" t="inlineStr"/>
+      <c r="AC203" t="inlineStr"/>
+      <c r="AD203" t="inlineStr"/>
+      <c r="AE203" t="inlineStr"/>
+      <c r="AF203" t="inlineStr"/>
+      <c r="AG203" t="inlineStr"/>
+      <c r="AH203" t="inlineStr"/>
+      <c r="AI203" t="inlineStr"/>
+      <c r="AJ203" t="inlineStr"/>
+      <c r="AK203" t="inlineStr"/>
+      <c r="AL203" t="inlineStr"/>
+      <c r="AM203" t="inlineStr"/>
+      <c r="AN203" t="inlineStr"/>
+      <c r="AO203" t="inlineStr"/>
+      <c r="AP203" t="inlineStr"/>
+      <c r="AQ203" t="inlineStr">
+        <is>
+          <t>From 01/07/2023, A Pension Scheme will be implemented for all employees covered by the Cao. For the first year, employers are obliged to pay a minimum contribution or 5.3% of the pensionable salary. The Pensionable Salary is defined as (Hourly Wage x 173.33 x 12.96) minus the 2023 AOW Franchise. The Administrative Costs are for the employer's account. There is no mandatory contribution for the employee.</t>
+        </is>
+      </c>
+      <c r="AR203" t="inlineStr">
+        <is>
+          <t>Employees have the option to make additional Voluntary Contributions ('Advertising'). Employers are permitted to sacrifice a more favorable guesthouse scheme than the one stipulated.</t>
+        </is>
+      </c>
+      <c r="AS203" t="inlineStr"/>
+      <c r="AT203" t="inlineStr"/>
+      <c r="AU203" t="inlineStr">
+        <is>
+          <t>All Employees Covered by the Cao.</t>
+        </is>
+      </c>
+      <c r="AV203" t="inlineStr"/>
+      <c r="AW203" t="inlineStr"/>
+      <c r="AX203" t="inlineStr"/>
+      <c r="AY203" t="inlineStr"/>
+      <c r="AZ203" t="inlineStr"/>
+      <c r="BA203" t="inlineStr"/>
+      <c r="BB203" t="inlineStr"/>
+      <c r="BC203" t="inlineStr"/>
+      <c r="BD203" t="inlineStr"/>
+      <c r="BE203" t="inlineStr"/>
+      <c r="BF203" t="inlineStr"/>
+      <c r="BG203" t="inlineStr"/>
+      <c r="BH203" t="inlineStr"/>
+      <c r="BI203" t="inlineStr"/>
+      <c r="BJ203" t="inlineStr"/>
+      <c r="BK203" t="inlineStr"/>
+      <c r="BL203" t="inlineStr"/>
+      <c r="BM203" t="inlineStr"/>
+      <c r="BN203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>CAO Facility contact centers 2022-2023 Signed.json</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2070001</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>31-12-2023</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>01-06-2023</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
+      <c r="R204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
+      <c r="Y204" t="inlineStr"/>
+      <c r="Z204" t="inlineStr"/>
+      <c r="AA204" t="inlineStr"/>
+      <c r="AB204" t="inlineStr"/>
+      <c r="AC204" t="inlineStr"/>
+      <c r="AD204" t="inlineStr"/>
+      <c r="AE204" t="inlineStr"/>
+      <c r="AF204" t="inlineStr"/>
+      <c r="AG204" t="inlineStr"/>
+      <c r="AH204" t="inlineStr"/>
+      <c r="AI204" t="inlineStr"/>
+      <c r="AJ204" t="inlineStr"/>
+      <c r="AK204" t="inlineStr"/>
+      <c r="AL204" t="inlineStr"/>
+      <c r="AM204" t="inlineStr"/>
+      <c r="AN204" t="inlineStr"/>
+      <c r="AO204" t="inlineStr"/>
+      <c r="AP204" t="inlineStr"/>
+      <c r="AQ204" t="inlineStr"/>
+      <c r="AR204" t="inlineStr"/>
+      <c r="AS204" t="inlineStr"/>
+      <c r="AT204" t="inlineStr"/>
+      <c r="AU204" t="inlineStr"/>
+      <c r="AV204" t="inlineStr">
+        <is>
+          <t>All Leave Arrangements from the Work and Care Act (Work and Care Act) Apply. This includes Maternity Leave, Birth Leave (and Supplementary Birth Leave), Parental Leave, Adoption or Foster Care Leave, Short-Term and Long-term Care Leave, and Emergency/Short Absence Leave. In Case of Childbirth, The Partner is Entitled to Statutory Emergency Leave With A Minimum of Two Days.</t>
+        </is>
+      </c>
+      <c r="AW204" t="inlineStr">
+        <is>
+          <t>The CAO refers to the Labor and Care Act (Work and Care Act), which Implies Statutory Payment Rules Apply.</t>
+        </is>
+      </c>
+      <c r="AX204" t="inlineStr">
+        <is>
+          <t>All Leave Arrangements Related to Combining Paid Work and Care are Governed by the Labor and Care Act (Work and Care Act), and its Provisions are fully applicable under this Cao.</t>
+        </is>
+      </c>
+      <c r="AY204" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AZ204" t="inlineStr">
+        <is>
+          <t>days per vacation year</t>
+        </is>
+      </c>
+      <c r="BA204" t="inlineStr">
+        <is>
+          <t>A full-time employee is entitled to 22 vacation days (176 hours) per year. The Vacation Year Coincides with the Calendar Year. Employees Can Receive Up to 4 Extra Vacation Days per year through the 'absence Reduction Bonus' (1 Extra Day for Each Full Quarter without Sick Leave), This Bonus is Pro-Rated for Part-Timers. This Bonus Scheme is not applicable if the employer alreaty provides 26 or more vacation days or pays 100% salary killing illness. Holiday Allowance is 8% of the Salary Received from June 1st to May 31st, Paid Annually in June. Employees Are Entitled to At Least 2 Consecutive Weeks of Vacation per year.</t>
+        </is>
+      </c>
+      <c r="BB204" t="inlineStr"/>
+      <c r="BC204" t="inlineStr"/>
+      <c r="BD204" t="inlineStr"/>
+      <c r="BE204" t="inlineStr"/>
+      <c r="BF204" t="inlineStr"/>
+      <c r="BG204" t="inlineStr"/>
+      <c r="BH204" t="inlineStr"/>
+      <c r="BI204" t="inlineStr"/>
+      <c r="BJ204" t="inlineStr"/>
+      <c r="BK204" t="inlineStr"/>
+      <c r="BL204" t="inlineStr"/>
+      <c r="BM204" t="inlineStr"/>
+      <c r="BN204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>CAO Facility contact centers 2022-2023 Signed.json</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2070001</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>31-12-2023</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>01-06-2023</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr"/>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
+      <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr"/>
+      <c r="Z205" t="inlineStr"/>
+      <c r="AA205" t="inlineStr"/>
+      <c r="AB205" t="inlineStr"/>
+      <c r="AC205" t="inlineStr"/>
+      <c r="AD205" t="inlineStr"/>
+      <c r="AE205" t="inlineStr"/>
+      <c r="AF205" t="inlineStr"/>
+      <c r="AG205" t="inlineStr"/>
+      <c r="AH205" t="inlineStr"/>
+      <c r="AI205" t="inlineStr"/>
+      <c r="AJ205" t="inlineStr"/>
+      <c r="AK205" t="inlineStr"/>
+      <c r="AL205" t="inlineStr"/>
+      <c r="AM205" t="inlineStr"/>
+      <c r="AN205" t="inlineStr"/>
+      <c r="AO205" t="inlineStr"/>
+      <c r="AP205" t="inlineStr"/>
+      <c r="AQ205" t="inlineStr"/>
+      <c r="AR205" t="inlineStr"/>
+      <c r="AS205" t="inlineStr"/>
+      <c r="AT205" t="inlineStr"/>
+      <c r="AU205" t="inlineStr"/>
+      <c r="AV205" t="inlineStr"/>
+      <c r="AW205" t="inlineStr"/>
+      <c r="AX205" t="inlineStr"/>
+      <c r="AY205" t="inlineStr"/>
+      <c r="AZ205" t="inlineStr"/>
+      <c r="BA205" t="inlineStr"/>
+      <c r="BB205" t="inlineStr">
+        <is>
+          <t>1 Month</t>
+        </is>
+      </c>
+      <c r="BC205" t="inlineStr">
+        <is>
+          <t>In Deviation of the Law (Art 7: 672 BW), Termination does not have to occur at the end of the months; It can be on any day, respect the notice period.</t>
+        </is>
+      </c>
+      <c r="BD205" t="inlineStr">
+        <is>
+          <t>1 Month</t>
+        </is>
+      </c>
+      <c r="BE205" t="inlineStr">
+        <is>
+          <t>In Deviation of the Law (Art 7: 672 BW), Termination does not have to occur at the end of the months; It can be on any day, respect the notice period.</t>
+        </is>
+      </c>
+      <c r="BF205" t="inlineStr">
+        <is>
+          <t>For a fixed term contract or 6 months or less: no probation period. For a fixed term contract longer than 6 months but shorter than 2 years: 1 month. For a project-based contract without a fixed end date: 1 month. For a fixed term contract or 2 years or longer, or an indefinite contract: 2 months.</t>
+        </is>
+      </c>
+      <c r="BG205" t="inlineStr">
+        <is>
+          <t>The Probation Period is Mutual and Must BE AGREED UPON in Writing. No New Probation Period is Allowed in a Subsequent Contract With The Same Employer, Unless the New Contract Requires Clearly Different Skills Or Responsibilities from the Employee.</t>
+        </is>
+      </c>
+      <c r="BH205" t="inlineStr"/>
+      <c r="BI205" t="inlineStr"/>
+      <c r="BJ205" t="inlineStr"/>
+      <c r="BK205" t="inlineStr"/>
+      <c r="BL205" t="inlineStr"/>
+      <c r="BM205" t="inlineStr"/>
+      <c r="BN205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>CAO Facility contact centers 2022-2023 Signed.json</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2070001</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>31-12-2023</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>01-06-2023</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr"/>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
+      <c r="Y206" t="inlineStr"/>
+      <c r="Z206" t="inlineStr"/>
+      <c r="AA206" t="inlineStr"/>
+      <c r="AB206" t="inlineStr"/>
+      <c r="AC206" t="inlineStr"/>
+      <c r="AD206" t="inlineStr"/>
+      <c r="AE206" t="inlineStr"/>
+      <c r="AF206" t="inlineStr"/>
+      <c r="AG206" t="inlineStr"/>
+      <c r="AH206" t="inlineStr"/>
+      <c r="AI206" t="inlineStr"/>
+      <c r="AJ206" t="inlineStr"/>
+      <c r="AK206" t="inlineStr"/>
+      <c r="AL206" t="inlineStr"/>
+      <c r="AM206" t="inlineStr"/>
+      <c r="AN206" t="inlineStr"/>
+      <c r="AO206" t="inlineStr"/>
+      <c r="AP206" t="inlineStr"/>
+      <c r="AQ206" t="inlineStr"/>
+      <c r="AR206" t="inlineStr"/>
+      <c r="AS206" t="inlineStr"/>
+      <c r="AT206" t="inlineStr"/>
+      <c r="AU206" t="inlineStr"/>
+      <c r="AV206" t="inlineStr"/>
+      <c r="AW206" t="inlineStr"/>
+      <c r="AX206" t="inlineStr"/>
+      <c r="AY206" t="inlineStr"/>
+      <c r="AZ206" t="inlineStr"/>
+      <c r="BA206" t="inlineStr"/>
+      <c r="BB206" t="inlineStr"/>
+      <c r="BC206" t="inlineStr"/>
+      <c r="BD206" t="inlineStr"/>
+      <c r="BE206" t="inlineStr"/>
+      <c r="BF206" t="inlineStr"/>
+      <c r="BG206" t="inlineStr"/>
+      <c r="BH206" t="inlineStr">
+        <is>
+          <t>Extra hours ('additional hours') Worked Above the Contract Hours But Within the Normal Weeking Time Are Paid at the Normal Hourly Rate, With Accrual of Vacation Pay and Vacation Days. Overtime ('overtime') is work Performed Beyond the Standard Annual Working Hours of 2,080. Overtime Hours are compensated in time-off (1 hour for 1 hour). If compensation in time is not Possible Due to business interests, The Remoining Hours are Paid Out at 100% of the Hourly Wage at the End of the Calendar Year.</t>
+        </is>
+      </c>
+      <c r="BI206" t="inlineStr">
+        <is>
+          <t>The Normal Working Hours are a maximum of 12 hours per day and an angerage of 40 hours per week. Overtime is defined as Hours Worked Beyond 2,080 Hours in a Calendar Year.</t>
+        </is>
+      </c>
+      <c r="BJ206" t="inlineStr"/>
+      <c r="BK206" t="inlineStr">
+        <is>
+          <t>A Surcharge on the Hourly Wage Applies for Working At Unusual Times: 50% for Monday-Saturday between 22:00 and 08:00, 50% for All Hours on Sunday, and 100% for all hours on a public holiday. The Standard Day Window (0% Surcharge) is from 08:00 to 22:00 on Monday to Saturday.</t>
+        </is>
+      </c>
+      <c r="BL206" t="inlineStr"/>
+      <c r="BM206" t="inlineStr"/>
+      <c r="BN206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>CAO Facility contact centers 2022-2023 Signed.json</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2070001</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>31-12-2023</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>01-06-2023</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
+      <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
+      <c r="Y207" t="inlineStr"/>
+      <c r="Z207" t="inlineStr"/>
+      <c r="AA207" t="inlineStr"/>
+      <c r="AB207" t="inlineStr"/>
+      <c r="AC207" t="inlineStr"/>
+      <c r="AD207" t="inlineStr"/>
+      <c r="AE207" t="inlineStr"/>
+      <c r="AF207" t="inlineStr"/>
+      <c r="AG207" t="inlineStr"/>
+      <c r="AH207" t="inlineStr"/>
+      <c r="AI207" t="inlineStr"/>
+      <c r="AJ207" t="inlineStr"/>
+      <c r="AK207" t="inlineStr"/>
+      <c r="AL207" t="inlineStr"/>
+      <c r="AM207" t="inlineStr"/>
+      <c r="AN207" t="inlineStr"/>
+      <c r="AO207" t="inlineStr"/>
+      <c r="AP207" t="inlineStr"/>
+      <c r="AQ207" t="inlineStr"/>
+      <c r="AR207" t="inlineStr"/>
+      <c r="AS207" t="inlineStr"/>
+      <c r="AT207" t="inlineStr"/>
+      <c r="AU207" t="inlineStr"/>
+      <c r="AV207" t="inlineStr"/>
+      <c r="AW207" t="inlineStr"/>
+      <c r="AX207" t="inlineStr"/>
+      <c r="AY207" t="inlineStr"/>
+      <c r="AZ207" t="inlineStr"/>
+      <c r="BA207" t="inlineStr"/>
+      <c r="BB207" t="inlineStr"/>
+      <c r="BC207" t="inlineStr"/>
+      <c r="BD207" t="inlineStr"/>
+      <c r="BE207" t="inlineStr"/>
+      <c r="BF207" t="inlineStr"/>
+      <c r="BG207" t="inlineStr"/>
+      <c r="BH207" t="inlineStr"/>
+      <c r="BI207" t="inlineStr"/>
+      <c r="BJ207" t="inlineStr"/>
+      <c r="BK207" t="inlineStr"/>
+      <c r="BL207" t="inlineStr"/>
+      <c r="BM207" t="inlineStr"/>
+      <c r="BN207" t="inlineStr">
+        <is>
+          <t>The Employer is Obliged to Provide Training Necessary for the Employee to Perform Their Duties, Including General Skills and Product Training; Participation is Mandatory for the Employee. The Employer Must Have A Study/Training Regulation, Agreed with the Works Council, to Facilitation Further Development and Broader Employability. Quality monitoring is Used as a Tool for Coaching, Development, and Guidance. Union-appointed Officials are entitled to paid leave for union meetings (one half-day, twice a year for up to 3 members per company). Parties Will Conduct Research to Formally DesCribe and Evaluate the Agent Functions (Junior/Medior/Senior) Using a Recognized Job Evaluation System, With the Aim to Link Pay to These Evaluations in A Future Cao.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>CAOPO2013_Lld_handtek_April2014.json</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1494</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1494001</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>01-01-2013</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>30-06-2014</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>24-04-2014</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
+      <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
+      <c r="Y208" t="inlineStr"/>
+      <c r="Z208" t="inlineStr"/>
+      <c r="AA208" t="inlineStr"/>
+      <c r="AB208" t="inlineStr"/>
+      <c r="AC208" t="inlineStr"/>
+      <c r="AD208" t="inlineStr"/>
+      <c r="AE208" t="inlineStr"/>
+      <c r="AF208" t="inlineStr"/>
+      <c r="AG208" t="inlineStr"/>
+      <c r="AH208" t="inlineStr"/>
+      <c r="AI208" t="inlineStr"/>
+      <c r="AJ208" t="inlineStr"/>
+      <c r="AK208" t="inlineStr"/>
+      <c r="AL208" t="inlineStr"/>
+      <c r="AM208" t="inlineStr"/>
+      <c r="AN208" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO208" t="inlineStr">
+        <is>
+          <t>The Salary Scales and Amounts Are Listed in Appendices A1 to A4, which are not included in the provid text. Salaries are gross and based on a full-time position (art. 6.1.2). For Employees Under 21, The Salary is derived from the adult salary accordance to a table in the CAO, or the statutory minimum Youth Wage If no scale applies (art. 6.9). 
+Allowances:
+- Binding allowance: For Employees at the Maxim of Scales LA, LB, OR LC, An Annual Gross Allowance or € 1585.02 is Provited, Paid Monthly (art. 6.14, Appendix A7.1).
+- Income allowance: An Annual Gross Allowance or € 270.72 for Employees Not Receiving Other Specific Allowances, Paid Monthly (art. 6.14a, Appendix A7.2).
+- Structural end -of -year benefit: 6.0% of the annual salary, paid in December (art. 6.15, appendix A7.3).
+- End -of -year benefit OOP: 3.7% of the Annual Salary, paid in December (Appendix A7.4).
+- Holiday benefit: 8% of the salary earned from June 1 of the Previous Year to May 31 of the Current Year, Paid in May (art. 6.16).
+- Jubilee gratification: for 25, 40, OR 50 Years of Service (art. 6.18).
+- Expenditure surcharge (Teaching Staff): € 219.77 per month (Appendix A8.1).
+- allowance senior teacher SBO/WEC: € 150 gross per month (Appendix A8.3).
+- Minimum promotion increase: € 75 gross per month, excluding director positions (appendix A8.2).
+- Teacher in training (LIO) Salary: 50% or Salary Number 1 or Scale LA (Appendix IV.A).
+- Education assistant in training (OIO) Salary: Statutory Minimum Youth Wage for Their Age (Appendix IV.B).</t>
+        </is>
+      </c>
+      <c r="AP208" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ208" t="inlineStr"/>
+      <c r="AR208" t="inlineStr"/>
+      <c r="AS208" t="inlineStr"/>
+      <c r="AT208" t="inlineStr"/>
+      <c r="AU208" t="inlineStr"/>
+      <c r="AV208" t="inlineStr"/>
+      <c r="AW208" t="inlineStr"/>
+      <c r="AX208" t="inlineStr"/>
+      <c r="AY208" t="inlineStr"/>
+      <c r="AZ208" t="inlineStr"/>
+      <c r="BA208" t="inlineStr"/>
+      <c r="BB208" t="inlineStr"/>
+      <c r="BC208" t="inlineStr"/>
+      <c r="BD208" t="inlineStr"/>
+      <c r="BE208" t="inlineStr"/>
+      <c r="BF208" t="inlineStr"/>
+      <c r="BG208" t="inlineStr"/>
+      <c r="BH208" t="inlineStr"/>
+      <c r="BI208" t="inlineStr"/>
+      <c r="BJ208" t="inlineStr"/>
+      <c r="BK208" t="inlineStr"/>
+      <c r="BL208" t="inlineStr"/>
+      <c r="BM208" t="inlineStr"/>
+      <c r="BN208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>CAOPO2013_Lld_handtek_April2014.json</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1494</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1494001</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Pension</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>01-01-2013</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>30-06-2014</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>24-04-2014</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
+      <c r="Y209" t="inlineStr"/>
+      <c r="Z209" t="inlineStr"/>
+      <c r="AA209" t="inlineStr"/>
+      <c r="AB209" t="inlineStr"/>
+      <c r="AC209" t="inlineStr"/>
+      <c r="AD209" t="inlineStr"/>
+      <c r="AE209" t="inlineStr"/>
+      <c r="AF209" t="inlineStr"/>
+      <c r="AG209" t="inlineStr"/>
+      <c r="AH209" t="inlineStr"/>
+      <c r="AI209" t="inlineStr"/>
+      <c r="AJ209" t="inlineStr"/>
+      <c r="AK209" t="inlineStr"/>
+      <c r="AL209" t="inlineStr"/>
+      <c r="AM209" t="inlineStr"/>
+      <c r="AN209" t="inlineStr"/>
+      <c r="AO209" t="inlineStr"/>
+      <c r="AP209" t="inlineStr"/>
+      <c r="AQ209" t="inlineStr">
+        <is>
+          <t>Termination of Employment Can Occur At The Request of the Employee for a Benefit as intended in the Pension Regulation Regulation of the Stichting Pensioenfonds ABP or FPU Benefit, AS Regulated in the FPU Regulation of the VUT Fund (art. 3.8.6).</t>
+        </is>
+      </c>
+      <c r="AR209" t="inlineStr">
+        <is>
+          <t>Employees aged 52 and Older Are Entitled to Bapo Leave (Leave for Promotion Labor Participation of Old People). This is a maximum of 170 hours per year for ages 52-55, and a maximum of 340 hours per year for ages 56 and older. The Employee Pays a Personal Contribution for This Leave (art. 8.25).</t>
+        </is>
+      </c>
+      <c r="AS209" t="inlineStr">
+        <is>
+          <t>AOW pension entitled Age (AOW Pension Eligimate Age). The Employment Contract Ends On The First Day of the Month Following the Month in which AOW Pension Eligibility Age is Reached (art. 3.7.5).</t>
+        </is>
+      </c>
+      <c r="AT209" t="inlineStr"/>
+      <c r="AU209" t="inlineStr"/>
+      <c r="AV209" t="inlineStr"/>
+      <c r="AW209" t="inlineStr"/>
+      <c r="AX209" t="inlineStr"/>
+      <c r="AY209" t="inlineStr"/>
+      <c r="AZ209" t="inlineStr"/>
+      <c r="BA209" t="inlineStr"/>
+      <c r="BB209" t="inlineStr"/>
+      <c r="BC209" t="inlineStr"/>
+      <c r="BD209" t="inlineStr"/>
+      <c r="BE209" t="inlineStr"/>
+      <c r="BF209" t="inlineStr"/>
+      <c r="BG209" t="inlineStr"/>
+      <c r="BH209" t="inlineStr"/>
+      <c r="BI209" t="inlineStr"/>
+      <c r="BJ209" t="inlineStr"/>
+      <c r="BK209" t="inlineStr"/>
+      <c r="BL209" t="inlineStr"/>
+      <c r="BM209" t="inlineStr"/>
+      <c r="BN209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>CAOPO2013_Lld_handtek_April2014.json</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1494</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1494001</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>01-01-2013</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>30-06-2014</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>24-04-2014</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr"/>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
+      <c r="R210" t="inlineStr"/>
+      <c r="S210" t="inlineStr"/>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr"/>
+      <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr"/>
+      <c r="Y210" t="inlineStr"/>
+      <c r="Z210" t="inlineStr"/>
+      <c r="AA210" t="inlineStr"/>
+      <c r="AB210" t="inlineStr"/>
+      <c r="AC210" t="inlineStr"/>
+      <c r="AD210" t="inlineStr"/>
+      <c r="AE210" t="inlineStr"/>
+      <c r="AF210" t="inlineStr"/>
+      <c r="AG210" t="inlineStr"/>
+      <c r="AH210" t="inlineStr"/>
+      <c r="AI210" t="inlineStr"/>
+      <c r="AJ210" t="inlineStr"/>
+      <c r="AK210" t="inlineStr"/>
+      <c r="AL210" t="inlineStr"/>
+      <c r="AM210" t="inlineStr"/>
+      <c r="AN210" t="inlineStr"/>
+      <c r="AO210" t="inlineStr"/>
+      <c r="AP210" t="inlineStr"/>
+      <c r="AQ210" t="inlineStr"/>
+      <c r="AR210" t="inlineStr"/>
+      <c r="AS210" t="inlineStr"/>
+      <c r="AT210" t="inlineStr"/>
+      <c r="AU210" t="inlineStr"/>
+      <c r="AV210" t="inlineStr">
+        <is>
+          <t>The partner is entitled to 2 days of leave for the birth of a child (art. 8.7.c). Female employees who are breastfeeding are allowed to interrupt work. Parental Leave is 26 Times the Weekly Working Hours (art. 8.19.2). Paid Parental Leave is a maximum of 415 Hours for a full-time position (art. 8.21.2).</t>
+        </is>
+      </c>
+      <c r="AW210" t="inlineStr">
+        <is>
+          <t>The 2 Days of Partner Leave Are With Salary Retention (Art. 8.7). For breastfeeding, interruptions up to one-fourth of the working time by shift are consulting time and are paid (art. 8.17). Duration Paid Parental Leave, The Employee Receives 75% of Their Salary (art. 8.21.3).</t>
+        </is>
+      </c>
+      <c r="AX210" t="inlineStr">
+        <is>
+          <t>Pregnancy and Maternity Leave Suspend Any Planned Vacation Leave, which will be Rescheduled in Consultation (art. 3.34.3). Parental Leave is in Accordance with the Labor and Care Act (Work and Care Act) and must be requested at Least Two Months in Advance (art. 8.19). To be eligible for paid parental leave, the employee must have leg employed by the employer for ate least one year (art. 8.21.1).</t>
+        </is>
+      </c>
+      <c r="AY210" t="inlineStr">
+        <is>
+          <t>For Management and Teaching Staff, Vacation Leave is the time of school Holidays (art. 8.2.1). For Support Staff Without Teaching Tasks, The Entitlement is 428 Clock Hours per Calendar Year (art. 8.5.1, 3.34.1).</t>
+        </is>
+      </c>
+      <c r="AZ210" t="inlineStr">
+        <is>
+          <t>School Holidays or Clock Hours</t>
+        </is>
+      </c>
+      <c r="BA210" t="inlineStr">
+        <is>
+          <t>Teaching Staff May Be Required to Work Up to 10 Days Duration School Holidays, But Not During a Three-Week Consecutive Period in The Summer Holiday (Art. 8.2.2). Support Staff Are Entitled to At Least Three Consecutive Weeks of Vacation Felling the Summer Holiday Period (art. 8.5.2). The Holiday Allowance is 8% of the salary earned from June 1 to May 31, Paid in May (art. 6.16). Short Special Leave With Pay is Granted for Moving (2 Days) Or House Hunting Upon Transfer (1 Day) (art. 8.7). Employees Can Use a Savings Leave Scheme (Savings leave) (art. 8.23).</t>
+        </is>
+      </c>
+      <c r="BB210" t="inlineStr"/>
+      <c r="BC210" t="inlineStr"/>
+      <c r="BD210" t="inlineStr"/>
+      <c r="BE210" t="inlineStr"/>
+      <c r="BF210" t="inlineStr"/>
+      <c r="BG210" t="inlineStr"/>
+      <c r="BH210" t="inlineStr"/>
+      <c r="BI210" t="inlineStr"/>
+      <c r="BJ210" t="inlineStr"/>
+      <c r="BK210" t="inlineStr"/>
+      <c r="BL210" t="inlineStr"/>
+      <c r="BM210" t="inlineStr"/>
+      <c r="BN210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>CAOPO2013_Lld_handtek_April2014.json</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1494</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1494001</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>01-01-2013</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>30-06-2014</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>24-04-2014</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
+      <c r="R211" t="inlineStr"/>
+      <c r="S211" t="inlineStr"/>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" t="inlineStr"/>
+      <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr"/>
+      <c r="Y211" t="inlineStr"/>
+      <c r="Z211" t="inlineStr"/>
+      <c r="AA211" t="inlineStr"/>
+      <c r="AB211" t="inlineStr"/>
+      <c r="AC211" t="inlineStr"/>
+      <c r="AD211" t="inlineStr"/>
+      <c r="AE211" t="inlineStr"/>
+      <c r="AF211" t="inlineStr"/>
+      <c r="AG211" t="inlineStr"/>
+      <c r="AH211" t="inlineStr"/>
+      <c r="AI211" t="inlineStr"/>
+      <c r="AJ211" t="inlineStr"/>
+      <c r="AK211" t="inlineStr"/>
+      <c r="AL211" t="inlineStr"/>
+      <c r="AM211" t="inlineStr"/>
+      <c r="AN211" t="inlineStr"/>
+      <c r="AO211" t="inlineStr"/>
+      <c r="AP211" t="inlineStr"/>
+      <c r="AQ211" t="inlineStr"/>
+      <c r="AR211" t="inlineStr"/>
+      <c r="AS211" t="inlineStr"/>
+      <c r="AT211" t="inlineStr"/>
+      <c r="AU211" t="inlineStr"/>
+      <c r="AV211" t="inlineStr"/>
+      <c r="AW211" t="inlineStr"/>
+      <c r="AX211" t="inlineStr"/>
+      <c r="AY211" t="inlineStr"/>
+      <c r="AZ211" t="inlineStr"/>
+      <c r="BA211" t="inlineStr"/>
+      <c r="BB211" t="inlineStr">
+        <is>
+          <t>At Least One months if the contract last 12 months or less; At Least Two Months if the contract lasted longer than 12 months but less than 5 years; At Least Three Months if the contract lasted 5 years or longer (art. 3.12.1).</t>
+        </is>
+      </c>
+      <c r="BC211" t="inlineStr">
+        <is>
+          <t>Notice must be given by registered letter or letter handed about against a receipt, and must be motivated (art. 3.11.1). Termination is Effective at the End of the Month, Unless Otherwise Agreed (art. 3.11.2). If the notice period required by the Wet Flexibility and Security is Longer, That Longer Period Applies (art. 3.12.2). Deviation from Notice Periods is Possible with Mutual Consent (art. 3.12.4).</t>
+        </is>
+      </c>
+      <c r="BD211" t="inlineStr">
+        <is>
+          <t>At Least One months if the contract lasted less than 12 months; At Least Two Months if the contract last 12 months or longer (art. 3.12.3).</t>
+        </is>
+      </c>
+      <c r="BE211" t="inlineStr">
+        <is>
+          <t>Notice must be given by registered letter or letter handed about against a receipt, and must be motivated (art. 3.11.1). Termination is Effective at the End of the Month, Unless Otherwise Agreed (art. 3.11.2). Deviation from Notice Periods is Possible with Mutual Consent (art. 3.12.4).</t>
+        </is>
+      </c>
+      <c r="BF211" t="inlineStr">
+        <is>
+          <t>If an indefinite contract is concluded at the first employment, a probationary period or a maximum of two months can be agreed upon in Writing (art. 3.1.3). A fixed-term appointment can be made as a trial, with the prospect of an indefinite appointment, for a maximum or twelve months, which can be extended by a maximum or twelve months in very special cases (art. 4.3).</t>
+        </is>
+      </c>
+      <c r="BG211" t="inlineStr">
+        <is>
+          <t>A Probationaly Period is only Possible for an indefinite contract UPON Initial Employment.</t>
+        </is>
+      </c>
+      <c r="BH211" t="inlineStr"/>
+      <c r="BI211" t="inlineStr"/>
+      <c r="BJ211" t="inlineStr"/>
+      <c r="BK211" t="inlineStr"/>
+      <c r="BL211" t="inlineStr"/>
+      <c r="BM211" t="inlineStr"/>
+      <c r="BN211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>CAOPO2013_Lld_handtek_April2014.json</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1494</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1494001</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>01-01-2013</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>30-06-2014</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>24-04-2014</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="inlineStr"/>
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr"/>
+      <c r="R212" t="inlineStr"/>
+      <c r="S212" t="inlineStr"/>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" t="inlineStr"/>
+      <c r="V212" t="inlineStr"/>
+      <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr"/>
+      <c r="Y212" t="inlineStr"/>
+      <c r="Z212" t="inlineStr"/>
+      <c r="AA212" t="inlineStr"/>
+      <c r="AB212" t="inlineStr"/>
+      <c r="AC212" t="inlineStr"/>
+      <c r="AD212" t="inlineStr"/>
+      <c r="AE212" t="inlineStr"/>
+      <c r="AF212" t="inlineStr"/>
+      <c r="AG212" t="inlineStr"/>
+      <c r="AH212" t="inlineStr"/>
+      <c r="AI212" t="inlineStr"/>
+      <c r="AJ212" t="inlineStr"/>
+      <c r="AK212" t="inlineStr"/>
+      <c r="AL212" t="inlineStr"/>
+      <c r="AM212" t="inlineStr"/>
+      <c r="AN212" t="inlineStr"/>
+      <c r="AO212" t="inlineStr"/>
+      <c r="AP212" t="inlineStr"/>
+      <c r="AQ212" t="inlineStr"/>
+      <c r="AR212" t="inlineStr"/>
+      <c r="AS212" t="inlineStr"/>
+      <c r="AT212" t="inlineStr"/>
+      <c r="AU212" t="inlineStr"/>
+      <c r="AV212" t="inlineStr"/>
+      <c r="AW212" t="inlineStr"/>
+      <c r="AX212" t="inlineStr"/>
+      <c r="AY212" t="inlineStr"/>
+      <c r="AZ212" t="inlineStr"/>
+      <c r="BA212" t="inlineStr"/>
+      <c r="BB212" t="inlineStr"/>
+      <c r="BC212" t="inlineStr"/>
+      <c r="BD212" t="inlineStr"/>
+      <c r="BE212" t="inlineStr"/>
+      <c r="BF212" t="inlineStr"/>
+      <c r="BG212" t="inlineStr"/>
+      <c r="BH212" t="inlineStr">
+        <is>
+          <t>For Support Staff, Overtime is compensated with time off Equal to the Hours Worked, Plus A percentage of the Hourly Salary: 25% for Mon-Fri 06: 00-22: 00; 50% for Mon-Fri 00: 00-06: 00 and 22: 00-24: 00; 50% for Saturday; 100% for Sundays and public holidays. Compensation can be paid out in money if the service interest request it. (Art. 6.38).</t>
+        </is>
+      </c>
+      <c r="BI212" t="inlineStr">
+        <is>
+          <t>The Total Employment Size Of An Employee May not Exceed 120% of a Standard Full-time Position on An Annual Basic (Art. 2.3.3). A Full-time Standard Position is 1659 hours per year (art. 2.1.1).</t>
+        </is>
+      </c>
+      <c r="BJ212" t="inlineStr"/>
+      <c r="BK212" t="inlineStr">
+        <is>
+          <t>For Support Staff Working Regularly or Fairly Regularly Outside Mon-Fri 08: 00-18: 00, A Supplement is Paid: 15% for Mon-Fri 06: 00-08: 00 and 18: 002: 00; 35% for Mon-Fri 00: 00-06: 00 and 22: 00-24: 00; 35% for Saturday; 50% for Sundays and public holidays (art. 6.36).</t>
+        </is>
+      </c>
+      <c r="BL212" t="inlineStr"/>
+      <c r="BM212" t="inlineStr">
+        <is>
+          <t>Overtime and irregular Hours Allowances are not granted to employees whose salary eXEDEDS THE MAXIMUM OF SALARY SCALE 8 (art. 6.38.5, 6.36.4).</t>
+        </is>
+      </c>
+      <c r="BN212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>CAOPO2013_Lld_handtek_April2014.json</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1494</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1494001</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>01-01-2013</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>30-06-2014</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>30/06/2014</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>24-04-2014</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="inlineStr"/>
+      <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr"/>
+      <c r="R213" t="inlineStr"/>
+      <c r="S213" t="inlineStr"/>
+      <c r="T213" t="inlineStr"/>
+      <c r="U213" t="inlineStr"/>
+      <c r="V213" t="inlineStr"/>
+      <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr"/>
+      <c r="Y213" t="inlineStr"/>
+      <c r="Z213" t="inlineStr"/>
+      <c r="AA213" t="inlineStr"/>
+      <c r="AB213" t="inlineStr"/>
+      <c r="AC213" t="inlineStr"/>
+      <c r="AD213" t="inlineStr"/>
+      <c r="AE213" t="inlineStr"/>
+      <c r="AF213" t="inlineStr"/>
+      <c r="AG213" t="inlineStr"/>
+      <c r="AH213" t="inlineStr"/>
+      <c r="AI213" t="inlineStr"/>
+      <c r="AJ213" t="inlineStr"/>
+      <c r="AK213" t="inlineStr"/>
+      <c r="AL213" t="inlineStr"/>
+      <c r="AM213" t="inlineStr"/>
+      <c r="AN213" t="inlineStr"/>
+      <c r="AO213" t="inlineStr"/>
+      <c r="AP213" t="inlineStr"/>
+      <c r="AQ213" t="inlineStr"/>
+      <c r="AR213" t="inlineStr"/>
+      <c r="AS213" t="inlineStr"/>
+      <c r="AT213" t="inlineStr"/>
+      <c r="AU213" t="inlineStr"/>
+      <c r="AV213" t="inlineStr"/>
+      <c r="AW213" t="inlineStr"/>
+      <c r="AX213" t="inlineStr"/>
+      <c r="AY213" t="inlineStr"/>
+      <c r="AZ213" t="inlineStr"/>
+      <c r="BA213" t="inlineStr"/>
+      <c r="BB213" t="inlineStr"/>
+      <c r="BC213" t="inlineStr"/>
+      <c r="BD213" t="inlineStr"/>
+      <c r="BE213" t="inlineStr"/>
+      <c r="BF213" t="inlineStr"/>
+      <c r="BG213" t="inlineStr"/>
+      <c r="BH213" t="inlineStr"/>
+      <c r="BI213" t="inlineStr"/>
+      <c r="BJ213" t="inlineStr"/>
+      <c r="BK213" t="inlineStr"/>
+      <c r="BL213" t="inlineStr"/>
+      <c r="BM213" t="inlineStr"/>
+      <c r="BN213" t="inlineStr">
+        <is>
+          <t>Within the annual workload of 1659 Hours, 10% is designated for professional development, which the employee can use for their professional growth and for which they are accountable in Performance reviews. Within this 10%, A maximum of 50% can be used for personal training and development in consultation with the employer (art. 2.1.3, 2.2.4). The Employer Must Establish A Strategic Training Plan, Provide Introduction and Guidance for New Employees, Hold at Least One Annual Performance Review, and Create A Personal Development Plan in Consultation With The Employee (Art. 9.1-9.5). The Employer Enables the Employee to Follow Training Required for the Function, and the Costs Are Borne by the Employer (Art. 9.7). The Director Must Be Registered in The School Leaders' Register (School Leaders Register) (art. 9.6b).</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>CAO_ScHeorshuizen_2017_2019_Finaldef.json</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>156</v>
+      </c>
+      <c r="C214" t="n">
+        <v>156001</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>31-03-2019</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>31/03/2019</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>06-11-2018</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>01/07/2017</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr"/>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr"/>
+      <c r="V214" t="inlineStr"/>
+      <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr"/>
+      <c r="Y214" t="inlineStr"/>
+      <c r="Z214" t="inlineStr"/>
+      <c r="AA214" t="inlineStr"/>
+      <c r="AB214" t="inlineStr"/>
+      <c r="AC214" t="inlineStr"/>
+      <c r="AD214" t="inlineStr"/>
+      <c r="AE214" t="inlineStr"/>
+      <c r="AF214" t="inlineStr"/>
+      <c r="AG214" t="inlineStr"/>
+      <c r="AH214" t="inlineStr"/>
+      <c r="AI214" t="inlineStr"/>
+      <c r="AJ214" t="inlineStr"/>
+      <c r="AK214" t="inlineStr"/>
+      <c r="AL214" t="inlineStr"/>
+      <c r="AM214" t="inlineStr"/>
+      <c r="AN214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO214" t="inlineStr">
+        <is>
+          <t>Classification via FWG® System Into Function Groups 5 to 80. The Hourly Wage is 1/156 of the months Salary Based on a Full-time employment or 36 Hours per week. Amounts Mentioned in The Cao Are Gross Unless Stated Otherwise. The CAO Includes Three One-Time Payments: € 200 Gross in September 2017, € 200 Gross in September 2018, and € 125 Gross in February 2019 for full-time employees. The Holiday Allowance is Increased to 8.33% AS of 2018. A Specific One-Time Compensation is Provited for Incorrectly Unpaid Irregularity Allowance about Holiday Hours for the Year 2012, 2013, and 2014.</t>
+        </is>
+      </c>
+      <c r="AP214" t="inlineStr"/>
+      <c r="AQ214" t="inlineStr"/>
+      <c r="AR214" t="inlineStr"/>
+      <c r="AS214" t="inlineStr"/>
+      <c r="AT214" t="inlineStr"/>
+      <c r="AU214" t="inlineStr"/>
+      <c r="AV214" t="inlineStr"/>
+      <c r="AW214" t="inlineStr"/>
+      <c r="AX214" t="inlineStr"/>
+      <c r="AY214" t="inlineStr"/>
+      <c r="AZ214" t="inlineStr"/>
+      <c r="BA214" t="inlineStr"/>
+      <c r="BB214" t="inlineStr"/>
+      <c r="BC214" t="inlineStr"/>
+      <c r="BD214" t="inlineStr"/>
+      <c r="BE214" t="inlineStr"/>
+      <c r="BF214" t="inlineStr"/>
+      <c r="BG214" t="inlineStr"/>
+      <c r="BH214" t="inlineStr"/>
+      <c r="BI214" t="inlineStr"/>
+      <c r="BJ214" t="inlineStr"/>
+      <c r="BK214" t="inlineStr"/>
+      <c r="BL214" t="inlineStr"/>
+      <c r="BM214" t="inlineStr"/>
+      <c r="BN214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>CAO_ScHeorshuizen_2017_2019_Finaldef.json</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>156</v>
+      </c>
+      <c r="C215" t="n">
+        <v>156001</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Pension</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>31-03-2019</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>31/03/2019</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>06-11-2018</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
+      <c r="S215" t="inlineStr"/>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
+      <c r="Y215" t="inlineStr"/>
+      <c r="Z215" t="inlineStr"/>
+      <c r="AA215" t="inlineStr"/>
+      <c r="AB215" t="inlineStr"/>
+      <c r="AC215" t="inlineStr"/>
+      <c r="AD215" t="inlineStr"/>
+      <c r="AE215" t="inlineStr"/>
+      <c r="AF215" t="inlineStr"/>
+      <c r="AG215" t="inlineStr"/>
+      <c r="AH215" t="inlineStr"/>
+      <c r="AI215" t="inlineStr"/>
+      <c r="AJ215" t="inlineStr"/>
+      <c r="AK215" t="inlineStr"/>
+      <c r="AL215" t="inlineStr"/>
+      <c r="AM215" t="inlineStr"/>
+      <c r="AN215" t="inlineStr"/>
+      <c r="AO215" t="inlineStr"/>
+      <c r="AP215" t="inlineStr"/>
+      <c r="AQ215" t="inlineStr">
+        <is>
+          <t>All Employees Are In principle Mandatorily Insured for Their Pension With The Pension Fund Care and Welfare (PFZW). The Pension Premium is shared 50/50 between the employer and the employee.</t>
+        </is>
+      </c>
+      <c r="AR215" t="inlineStr">
+        <is>
+          <t>A 'Generation Policy' is available from 01/01/2018 to 31/12/2022 for Employees aged 60 and over, Allowing them to work Fewer Hours While Receiving A Higher percentage of Salary and Maintining 100% Pension Accruical (E.G., 80% Work, 90% Work, 90% Work, 90% Work, 90% Work, 90% Work, 90% Work,). For Incomes Above € 101.519 In 2016, a One-time Payment of 11.75% of the Employer's Pension Contribution on the excess Amount was made to compensate for pension capping.</t>
+        </is>
+      </c>
+      <c r="AS215" t="inlineStr">
+        <is>
+          <t>AOW-entitlement age (State Pension Age).</t>
+        </is>
+      </c>
+      <c r="AT215" t="inlineStr"/>
+      <c r="AU215" t="inlineStr">
+        <is>
+          <t>All Employees with an employment contract are eligible. The Generation Policy is open to Employees who are 60 years or older.</t>
+        </is>
+      </c>
+      <c r="AV215" t="inlineStr"/>
+      <c r="AW215" t="inlineStr"/>
+      <c r="AX215" t="inlineStr"/>
+      <c r="AY215" t="inlineStr"/>
+      <c r="AZ215" t="inlineStr"/>
+      <c r="BA215" t="inlineStr"/>
+      <c r="BB215" t="inlineStr"/>
+      <c r="BC215" t="inlineStr"/>
+      <c r="BD215" t="inlineStr"/>
+      <c r="BE215" t="inlineStr"/>
+      <c r="BF215" t="inlineStr"/>
+      <c r="BG215" t="inlineStr"/>
+      <c r="BH215" t="inlineStr"/>
+      <c r="BI215" t="inlineStr"/>
+      <c r="BJ215" t="inlineStr"/>
+      <c r="BK215" t="inlineStr"/>
+      <c r="BL215" t="inlineStr"/>
+      <c r="BM215" t="inlineStr"/>
+      <c r="BN215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>CAO_ScHeorshuizen_2017_2019_Finaldef.json</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>156</v>
+      </c>
+      <c r="C216" t="n">
+        <v>156001</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>31-03-2019</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>31/03/2019</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>06-11-2018</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="inlineStr"/>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
+      <c r="R216" t="inlineStr"/>
+      <c r="S216" t="inlineStr"/>
+      <c r="T216" t="inlineStr"/>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr"/>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr"/>
+      <c r="Y216" t="inlineStr"/>
+      <c r="Z216" t="inlineStr"/>
+      <c r="AA216" t="inlineStr"/>
+      <c r="AB216" t="inlineStr"/>
+      <c r="AC216" t="inlineStr"/>
+      <c r="AD216" t="inlineStr"/>
+      <c r="AE216" t="inlineStr"/>
+      <c r="AF216" t="inlineStr"/>
+      <c r="AG216" t="inlineStr"/>
+      <c r="AH216" t="inlineStr"/>
+      <c r="AI216" t="inlineStr"/>
+      <c r="AJ216" t="inlineStr"/>
+      <c r="AK216" t="inlineStr"/>
+      <c r="AL216" t="inlineStr"/>
+      <c r="AM216" t="inlineStr"/>
+      <c r="AN216" t="inlineStr"/>
+      <c r="AO216" t="inlineStr"/>
+      <c r="AP216" t="inlineStr"/>
+      <c r="AQ216" t="inlineStr"/>
+      <c r="AR216" t="inlineStr"/>
+      <c r="AS216" t="inlineStr"/>
+      <c r="AT216" t="inlineStr"/>
+      <c r="AU216" t="inlineStr"/>
+      <c r="AV216" t="inlineStr">
+        <is>
+          <t>The CAO refers to statutory pregnancy and Maternity Leave (maternity leave) and partner Leave (maternity leave), but does not specific the duration.</t>
+        </is>
+      </c>
+      <c r="AW216" t="inlineStr"/>
+      <c r="AX216" t="inlineStr">
+        <is>
+          <t>An employee can resign without observing the notice period if they do so within ten calendar days after childbirth. An Employee WHO HAS TERMINATED AREMADE IN CONCONTION With Childbirth or Childcare Has The Right to Preferential Treatment in a Job Application Procedure with the Same Employer For Up To Two Years After Dismissal.</t>
+        </is>
+      </c>
+      <c r="AY216" t="inlineStr"/>
+      <c r="AZ216" t="inlineStr"/>
+      <c r="BA216" t="inlineStr">
+        <is>
+          <t>Holiday Allowance is 8.33% from 2018. Public Holidays are New Year's Day, Easter Monday and Tuesday, Ascension Day, Whit Monday and Tuesday, Christmas Day and Boxing Day, King's Day, and Liberation Every year. For Each Public Holiday Not Falling On A Saturday or Sunday, The Annual Working Hours Are Reduced by 7.2 Hours. Employees Can Exchange Public Holidays for Those Relevant to Their Life Conviction. Employees Are Entitled to At Least 22 Work-Free Weekends per year. The CAO Includes A Personal Lifespan Budget (PLB) System.</t>
+        </is>
+      </c>
+      <c r="BB216" t="inlineStr"/>
+      <c r="BC216" t="inlineStr"/>
+      <c r="BD216" t="inlineStr"/>
+      <c r="BE216" t="inlineStr"/>
+      <c r="BF216" t="inlineStr"/>
+      <c r="BG216" t="inlineStr"/>
+      <c r="BH216" t="inlineStr"/>
+      <c r="BI216" t="inlineStr"/>
+      <c r="BJ216" t="inlineStr"/>
+      <c r="BK216" t="inlineStr"/>
+      <c r="BL216" t="inlineStr"/>
+      <c r="BM216" t="inlineStr"/>
+      <c r="BN216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>CAO_ScHeorshuizen_2017_2019_Finaldef.json</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>156</v>
+      </c>
+      <c r="C217" t="n">
+        <v>156001</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>31-03-2019</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>31/03/2019</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>06-11-2018</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
+      <c r="R217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
+      <c r="T217" t="inlineStr"/>
+      <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr"/>
+      <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr"/>
+      <c r="Y217" t="inlineStr"/>
+      <c r="Z217" t="inlineStr"/>
+      <c r="AA217" t="inlineStr"/>
+      <c r="AB217" t="inlineStr"/>
+      <c r="AC217" t="inlineStr"/>
+      <c r="AD217" t="inlineStr"/>
+      <c r="AE217" t="inlineStr"/>
+      <c r="AF217" t="inlineStr"/>
+      <c r="AG217" t="inlineStr"/>
+      <c r="AH217" t="inlineStr"/>
+      <c r="AI217" t="inlineStr"/>
+      <c r="AJ217" t="inlineStr"/>
+      <c r="AK217" t="inlineStr"/>
+      <c r="AL217" t="inlineStr"/>
+      <c r="AM217" t="inlineStr"/>
+      <c r="AN217" t="inlineStr"/>
+      <c r="AO217" t="inlineStr"/>
+      <c r="AP217" t="inlineStr"/>
+      <c r="AQ217" t="inlineStr"/>
+      <c r="AR217" t="inlineStr"/>
+      <c r="AS217" t="inlineStr"/>
+      <c r="AT217" t="inlineStr"/>
+      <c r="AU217" t="inlineStr"/>
+      <c r="AV217" t="inlineStr"/>
+      <c r="AW217" t="inlineStr"/>
+      <c r="AX217" t="inlineStr"/>
+      <c r="AY217" t="inlineStr"/>
+      <c r="AZ217" t="inlineStr"/>
+      <c r="BA217" t="inlineStr"/>
+      <c r="BB217" t="inlineStr">
+        <is>
+          <t>The Statutory Notice Period Applies If It is Longer than the contractual agree term. For an employee notice periods or 4, 5, or 6 months, The Employer's Notice Period is Doubled. For employees who were 45 or older on 01/01/1999, any longer-standing notice period continues to apply.</t>
+        </is>
+      </c>
+      <c r="BC217" t="inlineStr">
+        <is>
+          <t>Termination must be in Writing. The Employer Requires a Dismissal Permit from the UWV, EXPET in specific cases. Termination is not permitted the first two years of an employee's illness. The Employment Contract Automatically Ends On The Day Before the Employee Reaches The State Pension (AOW) Age.</t>
+        </is>
+      </c>
+      <c r="BD217" t="inlineStr">
+        <is>
+          <t>The Statutory Notice Period is The Default, But Can Be Extended in the Employment Contract Up To A Maximum of Six Months. If the worker's Notice Period is Extended Up to 3 months, The Employer's Notice Period Can Be The Same.</t>
+        </is>
+      </c>
+      <c r="BE217" t="inlineStr">
+        <is>
+          <t>Termination must be in Writing. The Effective Date of Termination is the First of the Calendar Month. An Employee May Resign Without A Notice Period If Done Within 10 Days Of Giving Birth.</t>
+        </is>
+      </c>
+      <c r="BF217" t="inlineStr">
+        <is>
+          <t>A Probationaly Period can be agreed Upon in Writing, Following the Rules of article 7: 652 of the Dutch Civil Code.</t>
+        </is>
+      </c>
+      <c r="BG217" t="inlineStr">
+        <is>
+          <t>A Reason for Termination must be provid in Writing Upon Request, just the probationary period.</t>
+        </is>
+      </c>
+      <c r="BH217" t="inlineStr"/>
+      <c r="BI217" t="inlineStr"/>
+      <c r="BJ217" t="inlineStr"/>
+      <c r="BK217" t="inlineStr"/>
+      <c r="BL217" t="inlineStr"/>
+      <c r="BM217" t="inlineStr"/>
+      <c r="BN217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>CAO_ScHeorshuizen_2017_2019_Finaldef.json</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>156</v>
+      </c>
+      <c r="C218" t="n">
+        <v>156001</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>31-03-2019</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>31/03/2019</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>06-11-2018</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
+      <c r="Y218" t="inlineStr"/>
+      <c r="Z218" t="inlineStr"/>
+      <c r="AA218" t="inlineStr"/>
+      <c r="AB218" t="inlineStr"/>
+      <c r="AC218" t="inlineStr"/>
+      <c r="AD218" t="inlineStr"/>
+      <c r="AE218" t="inlineStr"/>
+      <c r="AF218" t="inlineStr"/>
+      <c r="AG218" t="inlineStr"/>
+      <c r="AH218" t="inlineStr"/>
+      <c r="AI218" t="inlineStr"/>
+      <c r="AJ218" t="inlineStr"/>
+      <c r="AK218" t="inlineStr"/>
+      <c r="AL218" t="inlineStr"/>
+      <c r="AM218" t="inlineStr"/>
+      <c r="AN218" t="inlineStr"/>
+      <c r="AO218" t="inlineStr"/>
+      <c r="AP218" t="inlineStr"/>
+      <c r="AQ218" t="inlineStr"/>
+      <c r="AR218" t="inlineStr"/>
+      <c r="AS218" t="inlineStr"/>
+      <c r="AT218" t="inlineStr"/>
+      <c r="AU218" t="inlineStr"/>
+      <c r="AV218" t="inlineStr"/>
+      <c r="AW218" t="inlineStr"/>
+      <c r="AX218" t="inlineStr"/>
+      <c r="AY218" t="inlineStr"/>
+      <c r="AZ218" t="inlineStr"/>
+      <c r="BA218" t="inlineStr"/>
+      <c r="BB218" t="inlineStr"/>
+      <c r="BC218" t="inlineStr"/>
+      <c r="BD218" t="inlineStr"/>
+      <c r="BE218" t="inlineStr"/>
+      <c r="BF218" t="inlineStr"/>
+      <c r="BG218" t="inlineStr"/>
+      <c r="BH218" t="inlineStr">
+        <is>
+          <t>Overtime is compensated with a percentage of surcharge on the hourly wage, as per article 8.4 paragraph 2. The specific percentages are not detailed in the provid text. A Shifted Duty (Within 24 Hours' Notice) is also compensated with an Overtime Surcharge.</t>
+        </is>
+      </c>
+      <c r="BI218" t="inlineStr">
+        <is>
+          <t>Max Working Hours: 12 per shift (incl. Overtime), 10 per night shift (incl. Overtime), 60 a week. The Weekly Average is max 55 hours in 4 weeks and max 48 hours in 16 weeks. If an employee works 16 or more night shifts in 16 weeks, The Average Working Time is reduced to 40 hours per week (48 Hours for Doctors over 13 weeks).</t>
+        </is>
+      </c>
+      <c r="BJ218" t="inlineStr"/>
+      <c r="BK218" t="inlineStr">
+        <is>
+          <t>A Compensation Scheme for Irregular Service (irregular service) Exists (Chapter 9). Compensation also exists for on-call duties (accessibility, attendance and consignment service).</t>
+        </is>
+      </c>
+      <c r="BL218" t="inlineStr"/>
+      <c r="BM218" t="inlineStr">
+        <is>
+          <t>The maximum working time per week is 60 hours. Per 16 week, no more than An Average or 48 hours per week can be worked.</t>
+        </is>
+      </c>
+      <c r="BN218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>CAO_ScHeorshuizen_2017_2019_Finaldef.json</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>156</v>
+      </c>
+      <c r="C219" t="n">
+        <v>156001</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>31-03-2019</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>31/03/2019</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>06-11-2018</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="inlineStr"/>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
+      <c r="R219" t="inlineStr"/>
+      <c r="S219" t="inlineStr"/>
+      <c r="T219" t="inlineStr"/>
+      <c r="U219" t="inlineStr"/>
+      <c r="V219" t="inlineStr"/>
+      <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr"/>
+      <c r="Y219" t="inlineStr"/>
+      <c r="Z219" t="inlineStr"/>
+      <c r="AA219" t="inlineStr"/>
+      <c r="AB219" t="inlineStr"/>
+      <c r="AC219" t="inlineStr"/>
+      <c r="AD219" t="inlineStr"/>
+      <c r="AE219" t="inlineStr"/>
+      <c r="AF219" t="inlineStr"/>
+      <c r="AG219" t="inlineStr"/>
+      <c r="AH219" t="inlineStr"/>
+      <c r="AI219" t="inlineStr"/>
+      <c r="AJ219" t="inlineStr"/>
+      <c r="AK219" t="inlineStr"/>
+      <c r="AL219" t="inlineStr"/>
+      <c r="AM219" t="inlineStr"/>
+      <c r="AN219" t="inlineStr"/>
+      <c r="AO219" t="inlineStr"/>
+      <c r="AP219" t="inlineStr"/>
+      <c r="AQ219" t="inlineStr"/>
+      <c r="AR219" t="inlineStr"/>
+      <c r="AS219" t="inlineStr"/>
+      <c r="AT219" t="inlineStr"/>
+      <c r="AU219" t="inlineStr"/>
+      <c r="AV219" t="inlineStr"/>
+      <c r="AW219" t="inlineStr"/>
+      <c r="AX219" t="inlineStr"/>
+      <c r="AY219" t="inlineStr"/>
+      <c r="AZ219" t="inlineStr"/>
+      <c r="BA219" t="inlineStr"/>
+      <c r="BB219" t="inlineStr"/>
+      <c r="BC219" t="inlineStr"/>
+      <c r="BD219" t="inlineStr"/>
+      <c r="BE219" t="inlineStr"/>
+      <c r="BF219" t="inlineStr"/>
+      <c r="BG219" t="inlineStr"/>
+      <c r="BH219" t="inlineStr"/>
+      <c r="BI219" t="inlineStr"/>
+      <c r="BJ219" t="inlineStr"/>
+      <c r="BK219" t="inlineStr"/>
+      <c r="BL219" t="inlineStr"/>
+      <c r="BM219" t="inlineStr"/>
+      <c r="BN219" t="inlineStr">
+        <is>
+          <t>The Employer Allocates 3% of the Payroll for Training Annually. JOB-RELATED Training and training ordered by the employer are full-reimbursed, and the time spent is a consulting working time. Employees have a right and an obligation to follow training, and a personal development plan is created. From 01/09/2017, BBL and HBO-Dual Students Receive An Average of 208 Hours of Paid Study Time Over Their Entire Training Period. Costs for Mandatory Big Registration and Specific Quality Registers Are Reimbursed by the Employer. The CAO Covers Various Training Types Including In-Service, BBL, HBO-Dual, and Follow-Up Training.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/extracted_data.xlsx
+++ b/results/extracted_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN219"/>
+  <dimension ref="A1:BN234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31607,6 +31607,2094 @@
         </is>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Integral text CAO Open Cultivation incl. 6th TTW as of January 1, 2023 - 2302-0811 V0..JSon</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1944001</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>01-03-2021</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>21-02-2023</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>B Employee i</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr"/>
+      <c r="U220" t="inlineStr"/>
+      <c r="V220" t="inlineStr"/>
+      <c r="W220" t="inlineStr"/>
+      <c r="X220" t="inlineStr"/>
+      <c r="Y220" t="inlineStr"/>
+      <c r="Z220" t="inlineStr"/>
+      <c r="AA220" t="inlineStr"/>
+      <c r="AB220" t="inlineStr"/>
+      <c r="AC220" t="inlineStr"/>
+      <c r="AD220" t="inlineStr"/>
+      <c r="AE220" t="inlineStr"/>
+      <c r="AF220" t="inlineStr"/>
+      <c r="AG220" t="inlineStr"/>
+      <c r="AH220" t="inlineStr"/>
+      <c r="AI220" t="inlineStr"/>
+      <c r="AJ220" t="inlineStr"/>
+      <c r="AK220" t="inlineStr"/>
+      <c r="AL220" t="inlineStr"/>
+      <c r="AM220" t="inlineStr"/>
+      <c r="AN220" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO220" t="inlineStr">
+        <is>
+          <t>The Functions of the Employees Are Classified Into Function Group Based on the Orba System of Function Evaluation. The Hourly Wage in the Wage Tables is Calculated Based on a Working Week of 38 Hours. If a different working duration is agreed Upon (with a maximum of 42 hours per week), The Hourly Wage must be recalculated by multiplination the Hourly Wage from the Wage Tables by the Factor 'X/38', Where 'X' Is The Agreed Working Duration. For Youth Wages, This Factor Does Not Apply. Employees are promoted one function year annually unless they have bone absent for more than 6 consecutive months due to incapacity for work or unpaid leave, or if they are underperforming.</t>
+        </is>
+      </c>
+      <c r="AP220" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ220" t="inlineStr"/>
+      <c r="AR220" t="inlineStr"/>
+      <c r="AS220" t="inlineStr"/>
+      <c r="AT220" t="inlineStr"/>
+      <c r="AU220" t="inlineStr"/>
+      <c r="AV220" t="inlineStr"/>
+      <c r="AW220" t="inlineStr"/>
+      <c r="AX220" t="inlineStr"/>
+      <c r="AY220" t="inlineStr"/>
+      <c r="AZ220" t="inlineStr"/>
+      <c r="BA220" t="inlineStr"/>
+      <c r="BB220" t="inlineStr"/>
+      <c r="BC220" t="inlineStr"/>
+      <c r="BD220" t="inlineStr"/>
+      <c r="BE220" t="inlineStr"/>
+      <c r="BF220" t="inlineStr"/>
+      <c r="BG220" t="inlineStr"/>
+      <c r="BH220" t="inlineStr"/>
+      <c r="BI220" t="inlineStr"/>
+      <c r="BJ220" t="inlineStr"/>
+      <c r="BK220" t="inlineStr"/>
+      <c r="BL220" t="inlineStr"/>
+      <c r="BM220" t="inlineStr"/>
+      <c r="BN220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Integral text CAO Open Cultivation incl. 6th TTW as of January 1, 2023 - 2302-0811 V0..JSon</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1944001</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>01-03-2021</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>21-02-2023</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>C Employee II</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr"/>
+      <c r="U221" t="inlineStr"/>
+      <c r="V221" t="inlineStr"/>
+      <c r="W221" t="inlineStr"/>
+      <c r="X221" t="inlineStr"/>
+      <c r="Y221" t="inlineStr"/>
+      <c r="Z221" t="inlineStr"/>
+      <c r="AA221" t="inlineStr"/>
+      <c r="AB221" t="inlineStr"/>
+      <c r="AC221" t="inlineStr"/>
+      <c r="AD221" t="inlineStr"/>
+      <c r="AE221" t="inlineStr"/>
+      <c r="AF221" t="inlineStr"/>
+      <c r="AG221" t="inlineStr"/>
+      <c r="AH221" t="inlineStr"/>
+      <c r="AI221" t="inlineStr"/>
+      <c r="AJ221" t="inlineStr"/>
+      <c r="AK221" t="inlineStr"/>
+      <c r="AL221" t="inlineStr"/>
+      <c r="AM221" t="inlineStr"/>
+      <c r="AN221" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO221" t="inlineStr">
+        <is>
+          <t>The Functions of the Employees Are Classified Into Function Group Based on the Orba System of Function Evaluation. The Hourly Wage in the Wage Tables is Calculated Based on a Working Week of 38 Hours. If a different working duration is agreed Upon (with a maximum of 42 hours per week), The Hourly Wage must be recalculated by multiplination the Hourly Wage from the Wage Tables by the Factor 'X/38', Where 'X' Is The Agreed Working Duration. For Youth Wages, This Factor Does Not Apply. Employees are promoted one function year annually unless they have bone absent for more than 6 consecutive months due to incapacity for work or unpaid leave, or if they are underperforming.</t>
+        </is>
+      </c>
+      <c r="AP221" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ221" t="inlineStr"/>
+      <c r="AR221" t="inlineStr"/>
+      <c r="AS221" t="inlineStr"/>
+      <c r="AT221" t="inlineStr"/>
+      <c r="AU221" t="inlineStr"/>
+      <c r="AV221" t="inlineStr"/>
+      <c r="AW221" t="inlineStr"/>
+      <c r="AX221" t="inlineStr"/>
+      <c r="AY221" t="inlineStr"/>
+      <c r="AZ221" t="inlineStr"/>
+      <c r="BA221" t="inlineStr"/>
+      <c r="BB221" t="inlineStr"/>
+      <c r="BC221" t="inlineStr"/>
+      <c r="BD221" t="inlineStr"/>
+      <c r="BE221" t="inlineStr"/>
+      <c r="BF221" t="inlineStr"/>
+      <c r="BG221" t="inlineStr"/>
+      <c r="BH221" t="inlineStr"/>
+      <c r="BI221" t="inlineStr"/>
+      <c r="BJ221" t="inlineStr"/>
+      <c r="BK221" t="inlineStr"/>
+      <c r="BL221" t="inlineStr"/>
+      <c r="BM221" t="inlineStr"/>
+      <c r="BN221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Integral text CAO Open Cultivation incl. 6th TTW as of January 1, 2023 - 2302-0811 V0..JSon</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1944001</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>01-03-2021</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>21-02-2023</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>D Professional employee i</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr"/>
+      <c r="U222" t="inlineStr"/>
+      <c r="V222" t="inlineStr"/>
+      <c r="W222" t="inlineStr"/>
+      <c r="X222" t="inlineStr"/>
+      <c r="Y222" t="inlineStr"/>
+      <c r="Z222" t="inlineStr"/>
+      <c r="AA222" t="inlineStr"/>
+      <c r="AB222" t="inlineStr"/>
+      <c r="AC222" t="inlineStr"/>
+      <c r="AD222" t="inlineStr"/>
+      <c r="AE222" t="inlineStr"/>
+      <c r="AF222" t="inlineStr"/>
+      <c r="AG222" t="inlineStr"/>
+      <c r="AH222" t="inlineStr"/>
+      <c r="AI222" t="inlineStr"/>
+      <c r="AJ222" t="inlineStr"/>
+      <c r="AK222" t="inlineStr"/>
+      <c r="AL222" t="inlineStr"/>
+      <c r="AM222" t="inlineStr"/>
+      <c r="AN222" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO222" t="inlineStr">
+        <is>
+          <t>The Functions of the Employees Are Classified Into Function Group Based on the Orba System of Function Evaluation. The Hourly Wage in the Wage Tables is Calculated Based on a Working Week of 38 Hours. If a different working duration is agreed Upon (with a maximum of 42 hours per week), The Hourly Wage must be recalculated by multiplination the Hourly Wage from the Wage Tables by the Factor 'X/38', Where 'X' Is The Agreed Working Duration. For Youth Wages, This Factor Does Not Apply. Employees are promoted one function year annually unless they have bone absent for more than 6 consecutive months due to incapacity for work or unpaid leave, or if they are underperforming.</t>
+        </is>
+      </c>
+      <c r="AP222" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ222" t="inlineStr"/>
+      <c r="AR222" t="inlineStr"/>
+      <c r="AS222" t="inlineStr"/>
+      <c r="AT222" t="inlineStr"/>
+      <c r="AU222" t="inlineStr"/>
+      <c r="AV222" t="inlineStr"/>
+      <c r="AW222" t="inlineStr"/>
+      <c r="AX222" t="inlineStr"/>
+      <c r="AY222" t="inlineStr"/>
+      <c r="AZ222" t="inlineStr"/>
+      <c r="BA222" t="inlineStr"/>
+      <c r="BB222" t="inlineStr"/>
+      <c r="BC222" t="inlineStr"/>
+      <c r="BD222" t="inlineStr"/>
+      <c r="BE222" t="inlineStr"/>
+      <c r="BF222" t="inlineStr"/>
+      <c r="BG222" t="inlineStr"/>
+      <c r="BH222" t="inlineStr"/>
+      <c r="BI222" t="inlineStr"/>
+      <c r="BJ222" t="inlineStr"/>
+      <c r="BK222" t="inlineStr"/>
+      <c r="BL222" t="inlineStr"/>
+      <c r="BM222" t="inlineStr"/>
+      <c r="BN222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Integral text CAO Open Cultivation incl. 6th TTW as of January 1, 2023 - 2302-0811 V0..JSon</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1944001</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>01-03-2021</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>21-02-2023</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>E professional employee II</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr"/>
+      <c r="V223" t="inlineStr"/>
+      <c r="W223" t="inlineStr"/>
+      <c r="X223" t="inlineStr"/>
+      <c r="Y223" t="inlineStr"/>
+      <c r="Z223" t="inlineStr"/>
+      <c r="AA223" t="inlineStr"/>
+      <c r="AB223" t="inlineStr"/>
+      <c r="AC223" t="inlineStr"/>
+      <c r="AD223" t="inlineStr"/>
+      <c r="AE223" t="inlineStr"/>
+      <c r="AF223" t="inlineStr"/>
+      <c r="AG223" t="inlineStr"/>
+      <c r="AH223" t="inlineStr"/>
+      <c r="AI223" t="inlineStr"/>
+      <c r="AJ223" t="inlineStr"/>
+      <c r="AK223" t="inlineStr"/>
+      <c r="AL223" t="inlineStr"/>
+      <c r="AM223" t="inlineStr"/>
+      <c r="AN223" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO223" t="inlineStr">
+        <is>
+          <t>The Functions of the Employees Are Classified Into Function Group Based on the Orba System of Function Evaluation. The Hourly Wage in the Wage Tables is Calculated Based on a Working Week of 38 Hours. If a different working duration is agreed Upon (with a maximum of 42 hours per week), The Hourly Wage must be recalculated by multiplination the Hourly Wage from the Wage Tables by the Factor 'X/38', Where 'X' Is The Agreed Working Duration. For Youth Wages, This Factor Does Not Apply. Employees are promoted one function year annually unless they have bone absent for more than 6 consecutive months due to incapacity for work or unpaid leave, or if they are underperforming.</t>
+        </is>
+      </c>
+      <c r="AP223" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ223" t="inlineStr"/>
+      <c r="AR223" t="inlineStr"/>
+      <c r="AS223" t="inlineStr"/>
+      <c r="AT223" t="inlineStr"/>
+      <c r="AU223" t="inlineStr"/>
+      <c r="AV223" t="inlineStr"/>
+      <c r="AW223" t="inlineStr"/>
+      <c r="AX223" t="inlineStr"/>
+      <c r="AY223" t="inlineStr"/>
+      <c r="AZ223" t="inlineStr"/>
+      <c r="BA223" t="inlineStr"/>
+      <c r="BB223" t="inlineStr"/>
+      <c r="BC223" t="inlineStr"/>
+      <c r="BD223" t="inlineStr"/>
+      <c r="BE223" t="inlineStr"/>
+      <c r="BF223" t="inlineStr"/>
+      <c r="BG223" t="inlineStr"/>
+      <c r="BH223" t="inlineStr"/>
+      <c r="BI223" t="inlineStr"/>
+      <c r="BJ223" t="inlineStr"/>
+      <c r="BK223" t="inlineStr"/>
+      <c r="BL223" t="inlineStr"/>
+      <c r="BM223" t="inlineStr"/>
+      <c r="BN223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Integral text CAO Open Cultivation incl. 6th TTW as of January 1, 2023 - 2302-0811 V0..JSon</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1944001</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>01-03-2021</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>21-02-2023</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>F Self -employed employee</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr"/>
+      <c r="V224" t="inlineStr"/>
+      <c r="W224" t="inlineStr"/>
+      <c r="X224" t="inlineStr"/>
+      <c r="Y224" t="inlineStr"/>
+      <c r="Z224" t="inlineStr"/>
+      <c r="AA224" t="inlineStr"/>
+      <c r="AB224" t="inlineStr"/>
+      <c r="AC224" t="inlineStr"/>
+      <c r="AD224" t="inlineStr"/>
+      <c r="AE224" t="inlineStr"/>
+      <c r="AF224" t="inlineStr"/>
+      <c r="AG224" t="inlineStr"/>
+      <c r="AH224" t="inlineStr"/>
+      <c r="AI224" t="inlineStr"/>
+      <c r="AJ224" t="inlineStr"/>
+      <c r="AK224" t="inlineStr"/>
+      <c r="AL224" t="inlineStr"/>
+      <c r="AM224" t="inlineStr"/>
+      <c r="AN224" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO224" t="inlineStr">
+        <is>
+          <t>The Functions of the Employees Are Classified Into Function Group Based on the Orba System of Function Evaluation. The Hourly Wage in the Wage Tables is Calculated Based on a Working Week of 38 Hours. If a different working duration is agreed Upon (with a maximum of 42 hours per week), The Hourly Wage must be recalculated by multiplination the Hourly Wage from the Wage Tables by the Factor 'X/38', Where 'X' Is The Agreed Working Duration. For Youth Wages, This Factor Does Not Apply. Employees are promoted one function year annually unless they have bone absent for more than 6 consecutive months due to incapacity for work or unpaid leave, or if they are underperforming.</t>
+        </is>
+      </c>
+      <c r="AP224" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ224" t="inlineStr"/>
+      <c r="AR224" t="inlineStr"/>
+      <c r="AS224" t="inlineStr"/>
+      <c r="AT224" t="inlineStr"/>
+      <c r="AU224" t="inlineStr"/>
+      <c r="AV224" t="inlineStr"/>
+      <c r="AW224" t="inlineStr"/>
+      <c r="AX224" t="inlineStr"/>
+      <c r="AY224" t="inlineStr"/>
+      <c r="AZ224" t="inlineStr"/>
+      <c r="BA224" t="inlineStr"/>
+      <c r="BB224" t="inlineStr"/>
+      <c r="BC224" t="inlineStr"/>
+      <c r="BD224" t="inlineStr"/>
+      <c r="BE224" t="inlineStr"/>
+      <c r="BF224" t="inlineStr"/>
+      <c r="BG224" t="inlineStr"/>
+      <c r="BH224" t="inlineStr"/>
+      <c r="BI224" t="inlineStr"/>
+      <c r="BJ224" t="inlineStr"/>
+      <c r="BK224" t="inlineStr"/>
+      <c r="BL224" t="inlineStr"/>
+      <c r="BM224" t="inlineStr"/>
+      <c r="BN224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Integral text CAO Open Cultivation incl. 6th TTW as of January 1, 2023 - 2302-0811 V0..JSon</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1944001</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>01-03-2021</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>21-02-2023</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>G Allround employee</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr"/>
+      <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr"/>
+      <c r="Y225" t="inlineStr"/>
+      <c r="Z225" t="inlineStr"/>
+      <c r="AA225" t="inlineStr"/>
+      <c r="AB225" t="inlineStr"/>
+      <c r="AC225" t="inlineStr"/>
+      <c r="AD225" t="inlineStr"/>
+      <c r="AE225" t="inlineStr"/>
+      <c r="AF225" t="inlineStr"/>
+      <c r="AG225" t="inlineStr"/>
+      <c r="AH225" t="inlineStr"/>
+      <c r="AI225" t="inlineStr"/>
+      <c r="AJ225" t="inlineStr"/>
+      <c r="AK225" t="inlineStr"/>
+      <c r="AL225" t="inlineStr"/>
+      <c r="AM225" t="inlineStr"/>
+      <c r="AN225" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO225" t="inlineStr">
+        <is>
+          <t>The Functions of the Employees Are Classified Into Function Group Based on the Orba System of Function Evaluation. The Hourly Wage in the Wage Tables is Calculated Based on a Working Week of 38 Hours. If a different working duration is agreed Upon (with a maximum of 42 hours per week), The Hourly Wage must be recalculated by multiplination the Hourly Wage from the Wage Tables by the Factor 'X/38', Where 'X' Is The Agreed Working Duration. For Youth Wages, This Factor Does Not Apply. Employees are promoted one function year annually unless they have bone absent for more than 6 consecutive months due to incapacity for work or unpaid leave, or if they are underperforming.</t>
+        </is>
+      </c>
+      <c r="AP225" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ225" t="inlineStr"/>
+      <c r="AR225" t="inlineStr"/>
+      <c r="AS225" t="inlineStr"/>
+      <c r="AT225" t="inlineStr"/>
+      <c r="AU225" t="inlineStr"/>
+      <c r="AV225" t="inlineStr"/>
+      <c r="AW225" t="inlineStr"/>
+      <c r="AX225" t="inlineStr"/>
+      <c r="AY225" t="inlineStr"/>
+      <c r="AZ225" t="inlineStr"/>
+      <c r="BA225" t="inlineStr"/>
+      <c r="BB225" t="inlineStr"/>
+      <c r="BC225" t="inlineStr"/>
+      <c r="BD225" t="inlineStr"/>
+      <c r="BE225" t="inlineStr"/>
+      <c r="BF225" t="inlineStr"/>
+      <c r="BG225" t="inlineStr"/>
+      <c r="BH225" t="inlineStr"/>
+      <c r="BI225" t="inlineStr"/>
+      <c r="BJ225" t="inlineStr"/>
+      <c r="BK225" t="inlineStr"/>
+      <c r="BL225" t="inlineStr"/>
+      <c r="BM225" t="inlineStr"/>
+      <c r="BN225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Integral text CAO Open Cultivation incl. 6th TTW as of January 1, 2023 - 2302-0811 V0..JSon</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1944001</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>01-03-2021</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>21-02-2023</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>H Specialist I.</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr"/>
+      <c r="V226" t="inlineStr"/>
+      <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr"/>
+      <c r="Y226" t="inlineStr"/>
+      <c r="Z226" t="inlineStr"/>
+      <c r="AA226" t="inlineStr"/>
+      <c r="AB226" t="inlineStr"/>
+      <c r="AC226" t="inlineStr"/>
+      <c r="AD226" t="inlineStr"/>
+      <c r="AE226" t="inlineStr"/>
+      <c r="AF226" t="inlineStr"/>
+      <c r="AG226" t="inlineStr"/>
+      <c r="AH226" t="inlineStr"/>
+      <c r="AI226" t="inlineStr"/>
+      <c r="AJ226" t="inlineStr"/>
+      <c r="AK226" t="inlineStr"/>
+      <c r="AL226" t="inlineStr"/>
+      <c r="AM226" t="inlineStr"/>
+      <c r="AN226" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO226" t="inlineStr">
+        <is>
+          <t>The Functions of the Employees Are Classified Into Function Group Based on the Orba System of Function Evaluation. The Hourly Wage in the Wage Tables is Calculated Based on a Working Week of 38 Hours. If a different working duration is agreed Upon (with a maximum of 42 hours per week), The Hourly Wage must be recalculated by multiplination the Hourly Wage from the Wage Tables by the Factor 'X/38', Where 'X' Is The Agreed Working Duration. For Youth Wages, This Factor Does Not Apply. Employees are promoted one function year annually unless they have bone absent for more than 6 consecutive months due to incapacity for work or unpaid leave, or if they are underperforming.</t>
+        </is>
+      </c>
+      <c r="AP226" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ226" t="inlineStr"/>
+      <c r="AR226" t="inlineStr"/>
+      <c r="AS226" t="inlineStr"/>
+      <c r="AT226" t="inlineStr"/>
+      <c r="AU226" t="inlineStr"/>
+      <c r="AV226" t="inlineStr"/>
+      <c r="AW226" t="inlineStr"/>
+      <c r="AX226" t="inlineStr"/>
+      <c r="AY226" t="inlineStr"/>
+      <c r="AZ226" t="inlineStr"/>
+      <c r="BA226" t="inlineStr"/>
+      <c r="BB226" t="inlineStr"/>
+      <c r="BC226" t="inlineStr"/>
+      <c r="BD226" t="inlineStr"/>
+      <c r="BE226" t="inlineStr"/>
+      <c r="BF226" t="inlineStr"/>
+      <c r="BG226" t="inlineStr"/>
+      <c r="BH226" t="inlineStr"/>
+      <c r="BI226" t="inlineStr"/>
+      <c r="BJ226" t="inlineStr"/>
+      <c r="BK226" t="inlineStr"/>
+      <c r="BL226" t="inlineStr"/>
+      <c r="BM226" t="inlineStr"/>
+      <c r="BN226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Integral text CAO Open Cultivation incl. 6th TTW as of January 1, 2023 - 2302-0811 V0..JSon</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1944001</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>01-03-2021</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>21-02-2023</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>I Specialist II</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>17.13</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr"/>
+      <c r="W227" t="inlineStr"/>
+      <c r="X227" t="inlineStr"/>
+      <c r="Y227" t="inlineStr"/>
+      <c r="Z227" t="inlineStr"/>
+      <c r="AA227" t="inlineStr"/>
+      <c r="AB227" t="inlineStr"/>
+      <c r="AC227" t="inlineStr"/>
+      <c r="AD227" t="inlineStr"/>
+      <c r="AE227" t="inlineStr"/>
+      <c r="AF227" t="inlineStr"/>
+      <c r="AG227" t="inlineStr"/>
+      <c r="AH227" t="inlineStr"/>
+      <c r="AI227" t="inlineStr"/>
+      <c r="AJ227" t="inlineStr"/>
+      <c r="AK227" t="inlineStr"/>
+      <c r="AL227" t="inlineStr"/>
+      <c r="AM227" t="inlineStr"/>
+      <c r="AN227" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO227" t="inlineStr">
+        <is>
+          <t>The Functions of the Employees Are Classified Into Function Group Based on the Orba System of Function Evaluation. The Hourly Wage in the Wage Tables is Calculated Based on a Working Week of 38 Hours. If a different working duration is agreed Upon (with a maximum of 42 hours per week), The Hourly Wage must be recalculated by multiplination the Hourly Wage from the Wage Tables by the Factor 'X/38', Where 'X' Is The Agreed Working Duration. For Youth Wages, This Factor Does Not Apply. Employees are promoted one function year annually unless they have bone absent for more than 6 consecutive months due to incapacity for work or unpaid leave, or if they are underperforming.</t>
+        </is>
+      </c>
+      <c r="AP227" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ227" t="inlineStr"/>
+      <c r="AR227" t="inlineStr"/>
+      <c r="AS227" t="inlineStr"/>
+      <c r="AT227" t="inlineStr"/>
+      <c r="AU227" t="inlineStr"/>
+      <c r="AV227" t="inlineStr"/>
+      <c r="AW227" t="inlineStr"/>
+      <c r="AX227" t="inlineStr"/>
+      <c r="AY227" t="inlineStr"/>
+      <c r="AZ227" t="inlineStr"/>
+      <c r="BA227" t="inlineStr"/>
+      <c r="BB227" t="inlineStr"/>
+      <c r="BC227" t="inlineStr"/>
+      <c r="BD227" t="inlineStr"/>
+      <c r="BE227" t="inlineStr"/>
+      <c r="BF227" t="inlineStr"/>
+      <c r="BG227" t="inlineStr"/>
+      <c r="BH227" t="inlineStr"/>
+      <c r="BI227" t="inlineStr"/>
+      <c r="BJ227" t="inlineStr"/>
+      <c r="BK227" t="inlineStr"/>
+      <c r="BL227" t="inlineStr"/>
+      <c r="BM227" t="inlineStr"/>
+      <c r="BN227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Integral text CAO Open Cultivation incl. 6th TTW as of January 1, 2023 - 2302-0811 V0..JSon</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1944001</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>01-03-2021</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>21-02-2023</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>J Assistant-Company Leader/foreman</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr"/>
+      <c r="Y228" t="inlineStr"/>
+      <c r="Z228" t="inlineStr"/>
+      <c r="AA228" t="inlineStr"/>
+      <c r="AB228" t="inlineStr"/>
+      <c r="AC228" t="inlineStr"/>
+      <c r="AD228" t="inlineStr"/>
+      <c r="AE228" t="inlineStr"/>
+      <c r="AF228" t="inlineStr"/>
+      <c r="AG228" t="inlineStr"/>
+      <c r="AH228" t="inlineStr"/>
+      <c r="AI228" t="inlineStr"/>
+      <c r="AJ228" t="inlineStr"/>
+      <c r="AK228" t="inlineStr"/>
+      <c r="AL228" t="inlineStr"/>
+      <c r="AM228" t="inlineStr"/>
+      <c r="AN228" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO228" t="inlineStr">
+        <is>
+          <t>The Functions of the Employees Are Classified Into Function Group Based on the Orba System of Function Evaluation. The Hourly Wage in the Wage Tables is Calculated Based on a Working Week of 38 Hours. If a different working duration is agreed Upon (with a maximum of 42 hours per week), The Hourly Wage must be recalculated by multiplination the Hourly Wage from the Wage Tables by the Factor 'X/38', Where 'X' Is The Agreed Working Duration. For Youth Wages, This Factor Does Not Apply. Employees are promoted one function year annually unless they have bone absent for more than 6 consecutive months due to incapacity for work or unpaid leave, or if they are underperforming.</t>
+        </is>
+      </c>
+      <c r="AP228" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ228" t="inlineStr"/>
+      <c r="AR228" t="inlineStr"/>
+      <c r="AS228" t="inlineStr"/>
+      <c r="AT228" t="inlineStr"/>
+      <c r="AU228" t="inlineStr"/>
+      <c r="AV228" t="inlineStr"/>
+      <c r="AW228" t="inlineStr"/>
+      <c r="AX228" t="inlineStr"/>
+      <c r="AY228" t="inlineStr"/>
+      <c r="AZ228" t="inlineStr"/>
+      <c r="BA228" t="inlineStr"/>
+      <c r="BB228" t="inlineStr"/>
+      <c r="BC228" t="inlineStr"/>
+      <c r="BD228" t="inlineStr"/>
+      <c r="BE228" t="inlineStr"/>
+      <c r="BF228" t="inlineStr"/>
+      <c r="BG228" t="inlineStr"/>
+      <c r="BH228" t="inlineStr"/>
+      <c r="BI228" t="inlineStr"/>
+      <c r="BJ228" t="inlineStr"/>
+      <c r="BK228" t="inlineStr"/>
+      <c r="BL228" t="inlineStr"/>
+      <c r="BM228" t="inlineStr"/>
+      <c r="BN228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Integral text CAO Open Cultivation incl. 6th TTW as of January 1, 2023 - 2302-0811 V0..JSon</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1944001</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>01-03-2021</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>21-02-2023</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>K manager</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr"/>
+      <c r="V229" t="inlineStr"/>
+      <c r="W229" t="inlineStr"/>
+      <c r="X229" t="inlineStr"/>
+      <c r="Y229" t="inlineStr"/>
+      <c r="Z229" t="inlineStr"/>
+      <c r="AA229" t="inlineStr"/>
+      <c r="AB229" t="inlineStr"/>
+      <c r="AC229" t="inlineStr"/>
+      <c r="AD229" t="inlineStr"/>
+      <c r="AE229" t="inlineStr"/>
+      <c r="AF229" t="inlineStr"/>
+      <c r="AG229" t="inlineStr"/>
+      <c r="AH229" t="inlineStr"/>
+      <c r="AI229" t="inlineStr"/>
+      <c r="AJ229" t="inlineStr"/>
+      <c r="AK229" t="inlineStr"/>
+      <c r="AL229" t="inlineStr"/>
+      <c r="AM229" t="inlineStr"/>
+      <c r="AN229" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO229" t="inlineStr">
+        <is>
+          <t>The Functions of the Employees Are Classified Into Function Group Based on the Orba System of Function Evaluation. The Hourly Wage in the Wage Tables is Calculated Based on a Working Week of 38 Hours. If a different working duration is agreed Upon (with a maximum of 42 hours per week), The Hourly Wage must be recalculated by multiplination the Hourly Wage from the Wage Tables by the Factor 'X/38', Where 'X' Is The Agreed Working Duration. For Youth Wages, This Factor Does Not Apply. Employees are promoted one function year annually unless they have bone absent for more than 6 consecutive months due to incapacity for work or unpaid leave, or if they are underperforming.</t>
+        </is>
+      </c>
+      <c r="AP229" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ229" t="inlineStr"/>
+      <c r="AR229" t="inlineStr"/>
+      <c r="AS229" t="inlineStr"/>
+      <c r="AT229" t="inlineStr"/>
+      <c r="AU229" t="inlineStr"/>
+      <c r="AV229" t="inlineStr"/>
+      <c r="AW229" t="inlineStr"/>
+      <c r="AX229" t="inlineStr"/>
+      <c r="AY229" t="inlineStr"/>
+      <c r="AZ229" t="inlineStr"/>
+      <c r="BA229" t="inlineStr"/>
+      <c r="BB229" t="inlineStr"/>
+      <c r="BC229" t="inlineStr"/>
+      <c r="BD229" t="inlineStr"/>
+      <c r="BE229" t="inlineStr"/>
+      <c r="BF229" t="inlineStr"/>
+      <c r="BG229" t="inlineStr"/>
+      <c r="BH229" t="inlineStr"/>
+      <c r="BI229" t="inlineStr"/>
+      <c r="BJ229" t="inlineStr"/>
+      <c r="BK229" t="inlineStr"/>
+      <c r="BL229" t="inlineStr"/>
+      <c r="BM229" t="inlineStr"/>
+      <c r="BN229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Integral text CAO Open Cultivation incl. 6th TTW as of January 1, 2023 - 2302-0811 V0..JSon</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1944001</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Pension</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>01-03-2021</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>21-02-2023</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="inlineStr"/>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr"/>
+      <c r="R230" t="inlineStr"/>
+      <c r="S230" t="inlineStr"/>
+      <c r="T230" t="inlineStr"/>
+      <c r="U230" t="inlineStr"/>
+      <c r="V230" t="inlineStr"/>
+      <c r="W230" t="inlineStr"/>
+      <c r="X230" t="inlineStr"/>
+      <c r="Y230" t="inlineStr"/>
+      <c r="Z230" t="inlineStr"/>
+      <c r="AA230" t="inlineStr"/>
+      <c r="AB230" t="inlineStr"/>
+      <c r="AC230" t="inlineStr"/>
+      <c r="AD230" t="inlineStr"/>
+      <c r="AE230" t="inlineStr"/>
+      <c r="AF230" t="inlineStr"/>
+      <c r="AG230" t="inlineStr"/>
+      <c r="AH230" t="inlineStr"/>
+      <c r="AI230" t="inlineStr"/>
+      <c r="AJ230" t="inlineStr"/>
+      <c r="AK230" t="inlineStr"/>
+      <c r="AL230" t="inlineStr"/>
+      <c r="AM230" t="inlineStr"/>
+      <c r="AN230" t="inlineStr"/>
+      <c r="AO230" t="inlineStr"/>
+      <c r="AP230" t="inlineStr"/>
+      <c r="AQ230" t="inlineStr">
+        <is>
+          <t>The Pension Scheme is managed by Stichting Bedrijfslaktioenfonds for Agriculture (BPL). IT Covers Old-Aage Pension, Partner Pension, Orphan's Pension, Supplementary Disability Pension, and Premium-Free Continuation of Pension Accrual in Case of Disability. The Pension Premium is a paid 50% by the employer and 50% by the employee. The Premium is calculated over the pension base (salary minus franchise). The Scheme is collective, meaning it is the same for all employees. Peak Workers (peak workers) Are not covered by the industry guesthouse funds and Accrue No Rights.</t>
+        </is>
+      </c>
+      <c r="AR230" t="inlineStr">
+        <is>
+          <t>A 'Senior arrangement' (senior scheme) Allows Employees From the Age of 60 to Reduce Their Average Working Hours to 80% While Receiving 90% Of Their Last Earned Gross Weekly Wage. Pension Accrual Continues Based on this 90% Wage. This is Possible for a Maximum of Five Years Until the Individual AOW AGE. Peak Workers (peak workers) Receive a compensation or 0.7% of their Wage for the Lack of Survivor's Pension.</t>
+        </is>
+      </c>
+      <c r="AS230" t="inlineStr">
+        <is>
+          <t>The Employment Contract Ends Automatically on the Last Day of the Month in which the Aow-Eligible Age is reached.</t>
+        </is>
+      </c>
+      <c r="AT230" t="inlineStr">
+        <is>
+          <t>The 'senior arrangement' can be used from the age of 60 Until the Individual Aow-Eligible Age.</t>
+        </is>
+      </c>
+      <c r="AU230" t="inlineStr">
+        <is>
+          <t>All Employees, Except for Peak Workers, are covered by the pension scheme. No Specific Starting Age for Accrual is Mentioned in the Provised Text, Other Than Deferring to the Rules of the BPL Pension Foundation.</t>
+        </is>
+      </c>
+      <c r="AV230" t="inlineStr"/>
+      <c r="AW230" t="inlineStr"/>
+      <c r="AX230" t="inlineStr"/>
+      <c r="AY230" t="inlineStr"/>
+      <c r="AZ230" t="inlineStr"/>
+      <c r="BA230" t="inlineStr"/>
+      <c r="BB230" t="inlineStr"/>
+      <c r="BC230" t="inlineStr"/>
+      <c r="BD230" t="inlineStr"/>
+      <c r="BE230" t="inlineStr"/>
+      <c r="BF230" t="inlineStr"/>
+      <c r="BG230" t="inlineStr"/>
+      <c r="BH230" t="inlineStr"/>
+      <c r="BI230" t="inlineStr"/>
+      <c r="BJ230" t="inlineStr"/>
+      <c r="BK230" t="inlineStr"/>
+      <c r="BL230" t="inlineStr"/>
+      <c r="BM230" t="inlineStr"/>
+      <c r="BN230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Integral text CAO Open Cultivation incl. 6th TTW as of January 1, 2023 - 2302-0811 V0..JSon</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1944001</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>01-03-2021</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>21-02-2023</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr"/>
+      <c r="S231" t="inlineStr"/>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr"/>
+      <c r="V231" t="inlineStr"/>
+      <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr"/>
+      <c r="Y231" t="inlineStr"/>
+      <c r="Z231" t="inlineStr"/>
+      <c r="AA231" t="inlineStr"/>
+      <c r="AB231" t="inlineStr"/>
+      <c r="AC231" t="inlineStr"/>
+      <c r="AD231" t="inlineStr"/>
+      <c r="AE231" t="inlineStr"/>
+      <c r="AF231" t="inlineStr"/>
+      <c r="AG231" t="inlineStr"/>
+      <c r="AH231" t="inlineStr"/>
+      <c r="AI231" t="inlineStr"/>
+      <c r="AJ231" t="inlineStr"/>
+      <c r="AK231" t="inlineStr"/>
+      <c r="AL231" t="inlineStr"/>
+      <c r="AM231" t="inlineStr"/>
+      <c r="AN231" t="inlineStr"/>
+      <c r="AO231" t="inlineStr"/>
+      <c r="AP231" t="inlineStr"/>
+      <c r="AQ231" t="inlineStr"/>
+      <c r="AR231" t="inlineStr"/>
+      <c r="AS231" t="inlineStr"/>
+      <c r="AT231" t="inlineStr"/>
+      <c r="AU231" t="inlineStr"/>
+      <c r="AV231" t="inlineStr">
+        <is>
+          <t>The Employee has the right to pay Leave Leave for One Workweek after the birth of their partner's child (birth leave), to be tasks within 4 weeks of the birth. Afterwards, The Employee Can Take Up to 5 Week of Supplementary Birth Leave (supplementary birth leave) Within Six Months of the Birth. For Adoption, The Employee is Entitled to 2 Days of Leave.</t>
+        </is>
+      </c>
+      <c r="AW231" t="inlineStr">
+        <is>
+          <t>The One-Week Birth Leave is with full pay. Duration the Supplementary 5 Weeks of Birth Leave, The Employee Receives A Benefit (Benefit) From the UWV, Not A Salary.</t>
+        </is>
+      </c>
+      <c r="AX231" t="inlineStr">
+        <is>
+          <t>Special Leave is also Granted for: Marriage (2 days), partner's childbirth (1 day and the following workday), adoption (2 days), Marriage of Family Members (1 day), Anniversaries (1 day), moving for the job), and family, and family, and family, and family, and family, and family, and family, and family, and family, and family, and family, and family, and family.</t>
+        </is>
+      </c>
+      <c r="AY231" t="inlineStr">
+        <is>
+          <t>A full-time employee is entitled to 25 vacation days per year. Employees Under 18 Receive 28 Days. Employees aged 50 and Older Receive Extra Vacation Hours as a percentage of their annual working hours: 0.4% AT 50, 0.8% AT 55, 1.2% AT 58, and 2.0% AT 60.</t>
+        </is>
+      </c>
+      <c r="AZ231" t="inlineStr">
+        <is>
+          <t>days per year</t>
+        </is>
+      </c>
+      <c r="BA231" t="inlineStr">
+        <is>
+          <t>The Holiday Year Runs from January 1 to December 31. Part-time Employees Receive Vacation Days Pro-Rata. The Holiday Allowance is 8.25% of the Actual Wage. Statutory Vacation Days Expire on July 1 of the Year Following Their Accrual. Non-Statutory Days Have a Longer Expiration Period. Peak Workers (peak workers) and Saturday Helpers (Saturday help) Receive A 20% Surcharge On Their Hourly Wage to Compensate for Accrured Vacation Days and Holiday Allowance. Vacation Days Are Acraud Dooring Illness.</t>
+        </is>
+      </c>
+      <c r="BB231" t="inlineStr"/>
+      <c r="BC231" t="inlineStr"/>
+      <c r="BD231" t="inlineStr"/>
+      <c r="BE231" t="inlineStr"/>
+      <c r="BF231" t="inlineStr"/>
+      <c r="BG231" t="inlineStr"/>
+      <c r="BH231" t="inlineStr"/>
+      <c r="BI231" t="inlineStr"/>
+      <c r="BJ231" t="inlineStr"/>
+      <c r="BK231" t="inlineStr"/>
+      <c r="BL231" t="inlineStr"/>
+      <c r="BM231" t="inlineStr"/>
+      <c r="BN231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Integral text CAO Open Cultivation incl. 6th TTW as of January 1, 2023 - 2302-0811 V0..JSon</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1944001</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>01-03-2021</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>21-02-2023</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="inlineStr"/>
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
+      <c r="R232" t="inlineStr"/>
+      <c r="S232" t="inlineStr"/>
+      <c r="T232" t="inlineStr"/>
+      <c r="U232" t="inlineStr"/>
+      <c r="V232" t="inlineStr"/>
+      <c r="W232" t="inlineStr"/>
+      <c r="X232" t="inlineStr"/>
+      <c r="Y232" t="inlineStr"/>
+      <c r="Z232" t="inlineStr"/>
+      <c r="AA232" t="inlineStr"/>
+      <c r="AB232" t="inlineStr"/>
+      <c r="AC232" t="inlineStr"/>
+      <c r="AD232" t="inlineStr"/>
+      <c r="AE232" t="inlineStr"/>
+      <c r="AF232" t="inlineStr"/>
+      <c r="AG232" t="inlineStr"/>
+      <c r="AH232" t="inlineStr"/>
+      <c r="AI232" t="inlineStr"/>
+      <c r="AJ232" t="inlineStr"/>
+      <c r="AK232" t="inlineStr"/>
+      <c r="AL232" t="inlineStr"/>
+      <c r="AM232" t="inlineStr"/>
+      <c r="AN232" t="inlineStr"/>
+      <c r="AO232" t="inlineStr"/>
+      <c r="AP232" t="inlineStr"/>
+      <c r="AQ232" t="inlineStr"/>
+      <c r="AR232" t="inlineStr"/>
+      <c r="AS232" t="inlineStr"/>
+      <c r="AT232" t="inlineStr"/>
+      <c r="AU232" t="inlineStr"/>
+      <c r="AV232" t="inlineStr"/>
+      <c r="AW232" t="inlineStr"/>
+      <c r="AX232" t="inlineStr"/>
+      <c r="AY232" t="inlineStr"/>
+      <c r="AZ232" t="inlineStr"/>
+      <c r="BA232" t="inlineStr"/>
+      <c r="BB232" t="inlineStr">
+        <is>
+          <t>For an indefinite contract, the notice period for the employer is: 1 month for service less than 5 years; 2 months for 5 to 10 years; 3 months for 10 to 15 years; 4 months for 15 years or longer. For employees aged 50 or older, the minimum notice period is 3 months. For An AOW-Enitled Employee, The Notice Period is 1 Month.</t>
+        </is>
+      </c>
+      <c r="BC232" t="inlineStr">
+        <is>
+          <t>Termination by the Employer Requires Permission from the UWV. The Notice Period is Shortened by the UWV Procedure Time, But A Minimum of One Month's Notice Must Remain. Termination must be effective at the end of a calendar month. For fixed-term contracts of 6 months or longer, the employer must-provide a written notice (notification) at Least one months the end date about Whether the contract will be continued.</t>
+        </is>
+      </c>
+      <c r="BD232" t="inlineStr">
+        <is>
+          <t>1 Month.</t>
+        </is>
+      </c>
+      <c r="BE232" t="inlineStr">
+        <is>
+          <t>The Employee Must Observe A Notice Period of One Month.</t>
+        </is>
+      </c>
+      <c r="BF232" t="inlineStr">
+        <is>
+          <t>For an indefinite contract, a probation period or up to 2 months may be agreed. For fixed term contracts: max 2 months if the contract is for 2 years or longer; Max 1 months if the contract is longer than 6 months up to 12 months. No Probation Period is Allowed for Contracts of 6 Months or Less.</t>
+        </is>
+      </c>
+      <c r="BG232" t="inlineStr">
+        <is>
+          <t>The Probation Period Must Be Agreed Upon in Writing.</t>
+        </is>
+      </c>
+      <c r="BH232" t="inlineStr"/>
+      <c r="BI232" t="inlineStr"/>
+      <c r="BJ232" t="inlineStr"/>
+      <c r="BK232" t="inlineStr"/>
+      <c r="BL232" t="inlineStr"/>
+      <c r="BM232" t="inlineStr"/>
+      <c r="BN232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Integral text CAO Open Cultivation incl. 6th TTW as of January 1, 2023 - 2302-0811 V0..JSon</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1944001</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>01-03-2021</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>21-02-2023</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="inlineStr"/>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
+      <c r="R233" t="inlineStr"/>
+      <c r="S233" t="inlineStr"/>
+      <c r="T233" t="inlineStr"/>
+      <c r="U233" t="inlineStr"/>
+      <c r="V233" t="inlineStr"/>
+      <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr"/>
+      <c r="Y233" t="inlineStr"/>
+      <c r="Z233" t="inlineStr"/>
+      <c r="AA233" t="inlineStr"/>
+      <c r="AB233" t="inlineStr"/>
+      <c r="AC233" t="inlineStr"/>
+      <c r="AD233" t="inlineStr"/>
+      <c r="AE233" t="inlineStr"/>
+      <c r="AF233" t="inlineStr"/>
+      <c r="AG233" t="inlineStr"/>
+      <c r="AH233" t="inlineStr"/>
+      <c r="AI233" t="inlineStr"/>
+      <c r="AJ233" t="inlineStr"/>
+      <c r="AK233" t="inlineStr"/>
+      <c r="AL233" t="inlineStr"/>
+      <c r="AM233" t="inlineStr"/>
+      <c r="AN233" t="inlineStr"/>
+      <c r="AO233" t="inlineStr"/>
+      <c r="AP233" t="inlineStr"/>
+      <c r="AQ233" t="inlineStr"/>
+      <c r="AR233" t="inlineStr"/>
+      <c r="AS233" t="inlineStr"/>
+      <c r="AT233" t="inlineStr"/>
+      <c r="AU233" t="inlineStr"/>
+      <c r="AV233" t="inlineStr"/>
+      <c r="AW233" t="inlineStr"/>
+      <c r="AX233" t="inlineStr"/>
+      <c r="AY233" t="inlineStr"/>
+      <c r="AZ233" t="inlineStr"/>
+      <c r="BA233" t="inlineStr"/>
+      <c r="BB233" t="inlineStr"/>
+      <c r="BC233" t="inlineStr"/>
+      <c r="BD233" t="inlineStr"/>
+      <c r="BE233" t="inlineStr"/>
+      <c r="BF233" t="inlineStr"/>
+      <c r="BG233" t="inlineStr"/>
+      <c r="BH233" t="inlineStr">
+        <is>
+          <t>Overtime Hours (Hours Worked Beyond The Agreed Contract Hours) Are compensated with a 35% Surcharge. This can be paid in Money or Compensated in Time, by Agreement. Under the Year-Hours Model, Hours Worked Beyond the Annual Norm are paid with a 35% Surcharge, or the First 80 Hours can be converted to leave. For Seasonal Workers, A Tiered Surcharge Applies: 8.25% for Hours 38-48, 25% for Hours 49-55, and 100% for Hours 56-60. These surcharges include Holiday Allowance.</t>
+        </is>
+      </c>
+      <c r="BI233" t="inlineStr">
+        <is>
+          <t>The Working Day is a maximum of 10 hours. Under the basic scheme, The Work Week is 38-42 HORS. Under the year -hour model, The Work Week is a maximum of 50 hours.</t>
+        </is>
+      </c>
+      <c r="BJ233" t="inlineStr">
+        <is>
+          <t>A minimum of 3 hours of work applies per shift (turnout).</t>
+        </is>
+      </c>
+      <c r="BK233" t="inlineStr">
+        <is>
+          <t>A 'Window allowance' (Window Surcharge) or 35% Applies for Work Before 6:00 and After 19:00 on Monday to Friday, and on Saturday. Work on Sunday's has a 100% surcharge (OR 50% If It's the 5th Workday in a pre-aged Roster). Work on public holidays has a 150% surcharge (Hourly Wage + 50%). Surcharges for overtime, Window Hours, and Holiday Work Are Not Cumulative; The Highest Applica Surcharge is paid.</t>
+        </is>
+      </c>
+      <c r="BL233" t="inlineStr"/>
+      <c r="BM233" t="inlineStr"/>
+      <c r="BN233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Integral text CAO Open Cultivation incl. 6th TTW as of January 1, 2023 - 2302-0811 V0..JSon</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1944001</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>01-03-2021</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>21-02-2023</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="inlineStr"/>
+      <c r="S234" t="inlineStr"/>
+      <c r="T234" t="inlineStr"/>
+      <c r="U234" t="inlineStr"/>
+      <c r="V234" t="inlineStr"/>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr"/>
+      <c r="Y234" t="inlineStr"/>
+      <c r="Z234" t="inlineStr"/>
+      <c r="AA234" t="inlineStr"/>
+      <c r="AB234" t="inlineStr"/>
+      <c r="AC234" t="inlineStr"/>
+      <c r="AD234" t="inlineStr"/>
+      <c r="AE234" t="inlineStr"/>
+      <c r="AF234" t="inlineStr"/>
+      <c r="AG234" t="inlineStr"/>
+      <c r="AH234" t="inlineStr"/>
+      <c r="AI234" t="inlineStr"/>
+      <c r="AJ234" t="inlineStr"/>
+      <c r="AK234" t="inlineStr"/>
+      <c r="AL234" t="inlineStr"/>
+      <c r="AM234" t="inlineStr"/>
+      <c r="AN234" t="inlineStr"/>
+      <c r="AO234" t="inlineStr"/>
+      <c r="AP234" t="inlineStr"/>
+      <c r="AQ234" t="inlineStr"/>
+      <c r="AR234" t="inlineStr"/>
+      <c r="AS234" t="inlineStr"/>
+      <c r="AT234" t="inlineStr"/>
+      <c r="AU234" t="inlineStr"/>
+      <c r="AV234" t="inlineStr"/>
+      <c r="AW234" t="inlineStr"/>
+      <c r="AX234" t="inlineStr"/>
+      <c r="AY234" t="inlineStr"/>
+      <c r="AZ234" t="inlineStr"/>
+      <c r="BA234" t="inlineStr"/>
+      <c r="BB234" t="inlineStr"/>
+      <c r="BC234" t="inlineStr"/>
+      <c r="BD234" t="inlineStr"/>
+      <c r="BE234" t="inlineStr"/>
+      <c r="BF234" t="inlineStr"/>
+      <c r="BG234" t="inlineStr"/>
+      <c r="BH234" t="inlineStr"/>
+      <c r="BI234" t="inlineStr"/>
+      <c r="BJ234" t="inlineStr"/>
+      <c r="BK234" t="inlineStr"/>
+      <c r="BL234" t="inlineStr"/>
+      <c r="BM234" t="inlineStr"/>
+      <c r="BN234" t="inlineStr">
+        <is>
+          <t>An Employee is Obliged to Undergo (Re) Training If the Business Interest or the Function Requires IT. For Employees Starting in Function Group B Without the Required Specific Professional Knowledge, The Employer Must Provide the Necessary Training. A Separate Collective Agreement, 'CAO Colland', Governs Labor Market and Training Funds for the Agricultural and Green Sectors, Aiming to Promote Inflow and Retention of Employees Through Training and Skill Development. Union Members Can Receive Unpaid Leave to Attend Union Courses, ProVeded Business Conditions Allow.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/extracted_data.xlsx
+++ b/results/extracted_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN234"/>
+  <dimension ref="A1:BN260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33695,6 +33695,4074 @@
         </is>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Cao_iso_ttw_juli.json</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>826</v>
+      </c>
+      <c r="C235" t="n">
+        <v>826001</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>01-03-2015</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>30-04-2017</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>30/04/2017</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>12-07-2016</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>A / 2</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1501.8</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="n">
+        <v>1507.8</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>01/12/2015</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="T235" t="n">
+        <v>1524.6</v>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="W235" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="X235" t="n">
+        <v>1524.6</v>
+      </c>
+      <c r="Y235" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z235" t="inlineStr">
+        <is>
+          <t>01/09/2016</t>
+        </is>
+      </c>
+      <c r="AA235" t="inlineStr"/>
+      <c r="AB235" t="n">
+        <v>1524.6</v>
+      </c>
+      <c r="AC235" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD235" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="AE235" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="AF235" t="inlineStr"/>
+      <c r="AG235" t="inlineStr"/>
+      <c r="AH235" t="inlineStr"/>
+      <c r="AI235" t="inlineStr"/>
+      <c r="AJ235" t="inlineStr"/>
+      <c r="AK235" t="inlineStr"/>
+      <c r="AL235" t="inlineStr"/>
+      <c r="AM235" t="inlineStr"/>
+      <c r="AN235" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO235" t="inlineStr">
+        <is>
+          <t>Salaries are based on a 38-hour work week. Salary Increases Based on Age Are Granted in the Pay Period of the Birthday. Salary Increases Based On Function Years Are Granted Once A Year. The Increase on 01/09/2016 was a nominal amount of € 38 for specific diploma Groups, not a percentage of increase for the main Salary Groups A-J. Salary for Group A, 0 function years, is based on the statutory minimum wage (WML). For Employees Aged 23+ with over 1 year or unempleoyent who are unable to performance at level A, the statutory minimum wage applies for a maximum introductory period or one year. The Wage Tables Apply to Employees Who Have Not Yet Reached the Aow-Eligible Age.</t>
+        </is>
+      </c>
+      <c r="AP235" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ235" t="inlineStr"/>
+      <c r="AR235" t="inlineStr"/>
+      <c r="AS235" t="inlineStr"/>
+      <c r="AT235" t="inlineStr"/>
+      <c r="AU235" t="inlineStr"/>
+      <c r="AV235" t="inlineStr"/>
+      <c r="AW235" t="inlineStr"/>
+      <c r="AX235" t="inlineStr"/>
+      <c r="AY235" t="inlineStr"/>
+      <c r="AZ235" t="inlineStr"/>
+      <c r="BA235" t="inlineStr"/>
+      <c r="BB235" t="inlineStr"/>
+      <c r="BC235" t="inlineStr"/>
+      <c r="BD235" t="inlineStr"/>
+      <c r="BE235" t="inlineStr"/>
+      <c r="BF235" t="inlineStr"/>
+      <c r="BG235" t="inlineStr"/>
+      <c r="BH235" t="inlineStr"/>
+      <c r="BI235" t="inlineStr"/>
+      <c r="BJ235" t="inlineStr"/>
+      <c r="BK235" t="inlineStr"/>
+      <c r="BL235" t="inlineStr"/>
+      <c r="BM235" t="inlineStr"/>
+      <c r="BN235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Cao_iso_ttw_juli.json</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>826</v>
+      </c>
+      <c r="C236" t="n">
+        <v>826001</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>01-03-2015</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>30-04-2017</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>30/04/2017</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>12-07-2016</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>B / 3</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1824</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="n">
+        <v>1856</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>01/12/2015</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="T236" t="n">
+        <v>1888</v>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="W236" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="X236" t="n">
+        <v>1888</v>
+      </c>
+      <c r="Y236" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z236" t="inlineStr">
+        <is>
+          <t>01/09/2016</t>
+        </is>
+      </c>
+      <c r="AA236" t="inlineStr"/>
+      <c r="AB236" t="n">
+        <v>1898</v>
+      </c>
+      <c r="AC236" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD236" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="AE236" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="AF236" t="inlineStr"/>
+      <c r="AG236" t="inlineStr"/>
+      <c r="AH236" t="inlineStr"/>
+      <c r="AI236" t="inlineStr"/>
+      <c r="AJ236" t="inlineStr"/>
+      <c r="AK236" t="inlineStr"/>
+      <c r="AL236" t="inlineStr"/>
+      <c r="AM236" t="inlineStr"/>
+      <c r="AN236" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO236" t="inlineStr">
+        <is>
+          <t>Salaries are based on a 38-hour work week. Salary Increases Based on Age Are Granted in the Pay Period of the Birthday. Salary Increases Based On Function Years Are Granted Once A Year. The Increase on 01/09/2016 was a nominal amount of € 38 for specific diploma Groups, not a percentage of increase for the main Salary Groups A-J. Salary for Group A, 0 function years, is based on the statutory minimum wage (WML). For Employees Aged 23+ with over 1 year or unempleoyent who are unable to performance at level A, the statutory minimum wage applies for a maximum introductory period or one year. The Wage Tables Apply to Employees Who Have Not Yet Reached the Aow-Eligible Age.</t>
+        </is>
+      </c>
+      <c r="AP236" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ236" t="inlineStr"/>
+      <c r="AR236" t="inlineStr"/>
+      <c r="AS236" t="inlineStr"/>
+      <c r="AT236" t="inlineStr"/>
+      <c r="AU236" t="inlineStr"/>
+      <c r="AV236" t="inlineStr"/>
+      <c r="AW236" t="inlineStr"/>
+      <c r="AX236" t="inlineStr"/>
+      <c r="AY236" t="inlineStr"/>
+      <c r="AZ236" t="inlineStr"/>
+      <c r="BA236" t="inlineStr"/>
+      <c r="BB236" t="inlineStr"/>
+      <c r="BC236" t="inlineStr"/>
+      <c r="BD236" t="inlineStr"/>
+      <c r="BE236" t="inlineStr"/>
+      <c r="BF236" t="inlineStr"/>
+      <c r="BG236" t="inlineStr"/>
+      <c r="BH236" t="inlineStr"/>
+      <c r="BI236" t="inlineStr"/>
+      <c r="BJ236" t="inlineStr"/>
+      <c r="BK236" t="inlineStr"/>
+      <c r="BL236" t="inlineStr"/>
+      <c r="BM236" t="inlineStr"/>
+      <c r="BN236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Cao_iso_ttw_juli.json</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>826</v>
+      </c>
+      <c r="C237" t="n">
+        <v>826001</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>01-03-2015</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>30-04-2017</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>30/04/2017</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>12-07-2016</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>C / 4</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1899</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="n">
+        <v>1932</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>01/12/2015</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="T237" t="n">
+        <v>1966</v>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="W237" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="X237" t="n">
+        <v>1966</v>
+      </c>
+      <c r="Y237" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z237" t="inlineStr">
+        <is>
+          <t>01/09/2016</t>
+        </is>
+      </c>
+      <c r="AA237" t="inlineStr"/>
+      <c r="AB237" t="n">
+        <v>1977</v>
+      </c>
+      <c r="AC237" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD237" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="AE237" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="AF237" t="inlineStr"/>
+      <c r="AG237" t="inlineStr"/>
+      <c r="AH237" t="inlineStr"/>
+      <c r="AI237" t="inlineStr"/>
+      <c r="AJ237" t="inlineStr"/>
+      <c r="AK237" t="inlineStr"/>
+      <c r="AL237" t="inlineStr"/>
+      <c r="AM237" t="inlineStr"/>
+      <c r="AN237" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO237" t="inlineStr">
+        <is>
+          <t>Salaries are based on a 38-hour work week. Salary Increases Based on Age Are Granted in the Pay Period of the Birthday. Salary Increases Based On Function Years Are Granted Once A Year. The Increase on 01/09/2016 was a nominal amount of € 38 for specific diploma Groups, not a percentage of increase for the main Salary Groups A-J. Salary for Group A, 0 function years, is based on the statutory minimum wage (WML). For Employees Aged 23+ with over 1 year or unempleoyent who are unable to performance at level A, the statutory minimum wage applies for a maximum introductory period or one year. The Wage Tables Apply to Employees Who Have Not Yet Reached the Aow-Eligible Age.</t>
+        </is>
+      </c>
+      <c r="AP237" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ237" t="inlineStr"/>
+      <c r="AR237" t="inlineStr"/>
+      <c r="AS237" t="inlineStr"/>
+      <c r="AT237" t="inlineStr"/>
+      <c r="AU237" t="inlineStr"/>
+      <c r="AV237" t="inlineStr"/>
+      <c r="AW237" t="inlineStr"/>
+      <c r="AX237" t="inlineStr"/>
+      <c r="AY237" t="inlineStr"/>
+      <c r="AZ237" t="inlineStr"/>
+      <c r="BA237" t="inlineStr"/>
+      <c r="BB237" t="inlineStr"/>
+      <c r="BC237" t="inlineStr"/>
+      <c r="BD237" t="inlineStr"/>
+      <c r="BE237" t="inlineStr"/>
+      <c r="BF237" t="inlineStr"/>
+      <c r="BG237" t="inlineStr"/>
+      <c r="BH237" t="inlineStr"/>
+      <c r="BI237" t="inlineStr"/>
+      <c r="BJ237" t="inlineStr"/>
+      <c r="BK237" t="inlineStr"/>
+      <c r="BL237" t="inlineStr"/>
+      <c r="BM237" t="inlineStr"/>
+      <c r="BN237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Cao_iso_ttw_juli.json</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>826</v>
+      </c>
+      <c r="C238" t="n">
+        <v>826001</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>01-03-2015</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>30-04-2017</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>30/04/2017</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>12-07-2016</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>D / 5</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1939</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="n">
+        <v>1973</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>01/12/2015</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="T238" t="n">
+        <v>2008</v>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="W238" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="X238" t="n">
+        <v>2008</v>
+      </c>
+      <c r="Y238" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z238" t="inlineStr">
+        <is>
+          <t>01/09/2016</t>
+        </is>
+      </c>
+      <c r="AA238" t="inlineStr"/>
+      <c r="AB238" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AC238" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD238" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="AE238" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="AF238" t="inlineStr"/>
+      <c r="AG238" t="inlineStr"/>
+      <c r="AH238" t="inlineStr"/>
+      <c r="AI238" t="inlineStr"/>
+      <c r="AJ238" t="inlineStr"/>
+      <c r="AK238" t="inlineStr"/>
+      <c r="AL238" t="inlineStr"/>
+      <c r="AM238" t="inlineStr"/>
+      <c r="AN238" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO238" t="inlineStr">
+        <is>
+          <t>Salaries are based on a 38-hour work week. Salary Increases Based on Age Are Granted in the Pay Period of the Birthday. Salary Increases Based On Function Years Are Granted Once A Year. The Increase on 01/09/2016 was a nominal amount of € 38 for specific diploma Groups, not a percentage of increase for the main Salary Groups A-J. Salary for Group A, 0 function years, is based on the statutory minimum wage (WML). For Employees Aged 23+ with over 1 year or unempleoyent who are unable to performance at level A, the statutory minimum wage applies for a maximum introductory period or one year. The Wage Tables Apply to Employees Who Have Not Yet Reached the Aow-Eligible Age.</t>
+        </is>
+      </c>
+      <c r="AP238" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ238" t="inlineStr"/>
+      <c r="AR238" t="inlineStr"/>
+      <c r="AS238" t="inlineStr"/>
+      <c r="AT238" t="inlineStr"/>
+      <c r="AU238" t="inlineStr"/>
+      <c r="AV238" t="inlineStr"/>
+      <c r="AW238" t="inlineStr"/>
+      <c r="AX238" t="inlineStr"/>
+      <c r="AY238" t="inlineStr"/>
+      <c r="AZ238" t="inlineStr"/>
+      <c r="BA238" t="inlineStr"/>
+      <c r="BB238" t="inlineStr"/>
+      <c r="BC238" t="inlineStr"/>
+      <c r="BD238" t="inlineStr"/>
+      <c r="BE238" t="inlineStr"/>
+      <c r="BF238" t="inlineStr"/>
+      <c r="BG238" t="inlineStr"/>
+      <c r="BH238" t="inlineStr"/>
+      <c r="BI238" t="inlineStr"/>
+      <c r="BJ238" t="inlineStr"/>
+      <c r="BK238" t="inlineStr"/>
+      <c r="BL238" t="inlineStr"/>
+      <c r="BM238" t="inlineStr"/>
+      <c r="BN238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Cao_iso_ttw_juli.json</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>826</v>
+      </c>
+      <c r="C239" t="n">
+        <v>826001</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>01-03-2015</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>30-04-2017</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>30/04/2017</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>12-07-2016</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>E / 6</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>2001</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr"/>
+      <c r="P239" t="n">
+        <v>2036</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>01/12/2015</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="T239" t="n">
+        <v>2072</v>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="W239" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="X239" t="n">
+        <v>2072</v>
+      </c>
+      <c r="Y239" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z239" t="inlineStr">
+        <is>
+          <t>01/09/2016</t>
+        </is>
+      </c>
+      <c r="AA239" t="inlineStr"/>
+      <c r="AB239" t="n">
+        <v>2083</v>
+      </c>
+      <c r="AC239" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD239" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="AE239" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="AF239" t="inlineStr"/>
+      <c r="AG239" t="inlineStr"/>
+      <c r="AH239" t="inlineStr"/>
+      <c r="AI239" t="inlineStr"/>
+      <c r="AJ239" t="inlineStr"/>
+      <c r="AK239" t="inlineStr"/>
+      <c r="AL239" t="inlineStr"/>
+      <c r="AM239" t="inlineStr"/>
+      <c r="AN239" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO239" t="inlineStr">
+        <is>
+          <t>Salaries are based on a 38-hour work week. Salary Increases Based on Age Are Granted in the Pay Period of the Birthday. Salary Increases Based On Function Years Are Granted Once A Year. The Increase on 01/09/2016 was a nominal amount of € 38 for specific diploma Groups, not a percentage of increase for the main Salary Groups A-J. Salary for Group A, 0 function years, is based on the statutory minimum wage (WML). For Employees Aged 23+ with over 1 year or unempleoyent who are unable to performance at level A, the statutory minimum wage applies for a maximum introductory period or one year. The Wage Tables Apply to Employees Who Have Not Yet Reached the Aow-Eligible Age.</t>
+        </is>
+      </c>
+      <c r="AP239" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ239" t="inlineStr"/>
+      <c r="AR239" t="inlineStr"/>
+      <c r="AS239" t="inlineStr"/>
+      <c r="AT239" t="inlineStr"/>
+      <c r="AU239" t="inlineStr"/>
+      <c r="AV239" t="inlineStr"/>
+      <c r="AW239" t="inlineStr"/>
+      <c r="AX239" t="inlineStr"/>
+      <c r="AY239" t="inlineStr"/>
+      <c r="AZ239" t="inlineStr"/>
+      <c r="BA239" t="inlineStr"/>
+      <c r="BB239" t="inlineStr"/>
+      <c r="BC239" t="inlineStr"/>
+      <c r="BD239" t="inlineStr"/>
+      <c r="BE239" t="inlineStr"/>
+      <c r="BF239" t="inlineStr"/>
+      <c r="BG239" t="inlineStr"/>
+      <c r="BH239" t="inlineStr"/>
+      <c r="BI239" t="inlineStr"/>
+      <c r="BJ239" t="inlineStr"/>
+      <c r="BK239" t="inlineStr"/>
+      <c r="BL239" t="inlineStr"/>
+      <c r="BM239" t="inlineStr"/>
+      <c r="BN239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Cao_iso_ttw_juli.json</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>826</v>
+      </c>
+      <c r="C240" t="n">
+        <v>826001</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>01-03-2015</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>30-04-2017</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>30/04/2017</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>12-07-2016</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>F / 7</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>2102</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr"/>
+      <c r="P240" t="n">
+        <v>2139</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>01/12/2015</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="T240" t="n">
+        <v>2176</v>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="X240" t="n">
+        <v>2176</v>
+      </c>
+      <c r="Y240" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z240" t="inlineStr">
+        <is>
+          <t>01/09/2016</t>
+        </is>
+      </c>
+      <c r="AA240" t="inlineStr"/>
+      <c r="AB240" t="n">
+        <v>2188</v>
+      </c>
+      <c r="AC240" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD240" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="AE240" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="AF240" t="inlineStr"/>
+      <c r="AG240" t="inlineStr"/>
+      <c r="AH240" t="inlineStr"/>
+      <c r="AI240" t="inlineStr"/>
+      <c r="AJ240" t="inlineStr"/>
+      <c r="AK240" t="inlineStr"/>
+      <c r="AL240" t="inlineStr"/>
+      <c r="AM240" t="inlineStr"/>
+      <c r="AN240" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO240" t="inlineStr">
+        <is>
+          <t>Salaries are based on a 38-hour work week. Salary Increases Based on Age Are Granted in the Pay Period of the Birthday. Salary Increases Based On Function Years Are Granted Once A Year. The Increase on 01/09/2016 was a nominal amount of € 38 for specific diploma Groups, not a percentage of increase for the main Salary Groups A-J. Salary for Group A, 0 function years, is based on the statutory minimum wage (WML). For Employees Aged 23+ with over 1 year or unempleoyent who are unable to performance at level A, the statutory minimum wage applies for a maximum introductory period or one year. The Wage Tables Apply to Employees Who Have Not Yet Reached the Aow-Eligible Age.</t>
+        </is>
+      </c>
+      <c r="AP240" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ240" t="inlineStr"/>
+      <c r="AR240" t="inlineStr"/>
+      <c r="AS240" t="inlineStr"/>
+      <c r="AT240" t="inlineStr"/>
+      <c r="AU240" t="inlineStr"/>
+      <c r="AV240" t="inlineStr"/>
+      <c r="AW240" t="inlineStr"/>
+      <c r="AX240" t="inlineStr"/>
+      <c r="AY240" t="inlineStr"/>
+      <c r="AZ240" t="inlineStr"/>
+      <c r="BA240" t="inlineStr"/>
+      <c r="BB240" t="inlineStr"/>
+      <c r="BC240" t="inlineStr"/>
+      <c r="BD240" t="inlineStr"/>
+      <c r="BE240" t="inlineStr"/>
+      <c r="BF240" t="inlineStr"/>
+      <c r="BG240" t="inlineStr"/>
+      <c r="BH240" t="inlineStr"/>
+      <c r="BI240" t="inlineStr"/>
+      <c r="BJ240" t="inlineStr"/>
+      <c r="BK240" t="inlineStr"/>
+      <c r="BL240" t="inlineStr"/>
+      <c r="BM240" t="inlineStr"/>
+      <c r="BN240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Cao_iso_ttw_juli.json</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>826</v>
+      </c>
+      <c r="C241" t="n">
+        <v>826001</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>01-03-2015</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>30-04-2017</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>30/04/2017</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>12-07-2016</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>G / 8</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>2274</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr"/>
+      <c r="P241" t="n">
+        <v>2314</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>01/12/2015</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="T241" t="n">
+        <v>2355</v>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="W241" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="X241" t="n">
+        <v>2355</v>
+      </c>
+      <c r="Y241" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z241" t="inlineStr">
+        <is>
+          <t>01/09/2016</t>
+        </is>
+      </c>
+      <c r="AA241" t="inlineStr"/>
+      <c r="AB241" t="n">
+        <v>2368</v>
+      </c>
+      <c r="AC241" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD241" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="AE241" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="AF241" t="inlineStr"/>
+      <c r="AG241" t="inlineStr"/>
+      <c r="AH241" t="inlineStr"/>
+      <c r="AI241" t="inlineStr"/>
+      <c r="AJ241" t="inlineStr"/>
+      <c r="AK241" t="inlineStr"/>
+      <c r="AL241" t="inlineStr"/>
+      <c r="AM241" t="inlineStr"/>
+      <c r="AN241" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO241" t="inlineStr">
+        <is>
+          <t>Salaries are based on a 38-hour work week. Salary Increases Based on Age Are Granted in the Pay Period of the Birthday. Salary Increases Based On Function Years Are Granted Once A Year. The Increase on 01/09/2016 was a nominal amount of € 38 for specific diploma Groups, not a percentage of increase for the main Salary Groups A-J. Salary for Group A, 0 function years, is based on the statutory minimum wage (WML). For Employees Aged 23+ with over 1 year or unempleoyent who are unable to performance at level A, the statutory minimum wage applies for a maximum introductory period or one year. The Wage Tables Apply to Employees Who Have Not Yet Reached the Aow-Eligible Age.</t>
+        </is>
+      </c>
+      <c r="AP241" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ241" t="inlineStr"/>
+      <c r="AR241" t="inlineStr"/>
+      <c r="AS241" t="inlineStr"/>
+      <c r="AT241" t="inlineStr"/>
+      <c r="AU241" t="inlineStr"/>
+      <c r="AV241" t="inlineStr"/>
+      <c r="AW241" t="inlineStr"/>
+      <c r="AX241" t="inlineStr"/>
+      <c r="AY241" t="inlineStr"/>
+      <c r="AZ241" t="inlineStr"/>
+      <c r="BA241" t="inlineStr"/>
+      <c r="BB241" t="inlineStr"/>
+      <c r="BC241" t="inlineStr"/>
+      <c r="BD241" t="inlineStr"/>
+      <c r="BE241" t="inlineStr"/>
+      <c r="BF241" t="inlineStr"/>
+      <c r="BG241" t="inlineStr"/>
+      <c r="BH241" t="inlineStr"/>
+      <c r="BI241" t="inlineStr"/>
+      <c r="BJ241" t="inlineStr"/>
+      <c r="BK241" t="inlineStr"/>
+      <c r="BL241" t="inlineStr"/>
+      <c r="BM241" t="inlineStr"/>
+      <c r="BN241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Cao_iso_ttw_juli.json</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>826</v>
+      </c>
+      <c r="C242" t="n">
+        <v>826001</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>01-03-2015</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>30-04-2017</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>30/04/2017</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>12-07-2016</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>H / 9</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>2466</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="n">
+        <v>2509</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>01/12/2015</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="T242" t="n">
+        <v>2553</v>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V242" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="W242" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="X242" t="n">
+        <v>2553</v>
+      </c>
+      <c r="Y242" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z242" t="inlineStr">
+        <is>
+          <t>01/09/2016</t>
+        </is>
+      </c>
+      <c r="AA242" t="inlineStr"/>
+      <c r="AB242" t="n">
+        <v>2567</v>
+      </c>
+      <c r="AC242" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD242" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="AE242" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="AF242" t="inlineStr"/>
+      <c r="AG242" t="inlineStr"/>
+      <c r="AH242" t="inlineStr"/>
+      <c r="AI242" t="inlineStr"/>
+      <c r="AJ242" t="inlineStr"/>
+      <c r="AK242" t="inlineStr"/>
+      <c r="AL242" t="inlineStr"/>
+      <c r="AM242" t="inlineStr"/>
+      <c r="AN242" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO242" t="inlineStr">
+        <is>
+          <t>Salaries are based on a 38-hour work week. Salary Increases Based on Age Are Granted in the Pay Period of the Birthday. Salary Increases Based On Function Years Are Granted Once A Year. The Increase on 01/09/2016 was a nominal amount of € 38 for specific diploma Groups, not a percentage of increase for the main Salary Groups A-J. Salary for Group A, 0 function years, is based on the statutory minimum wage (WML). For Employees Aged 23+ with over 1 year or unempleoyent who are unable to performance at level A, the statutory minimum wage applies for a maximum introductory period or one year. The Wage Tables Apply to Employees Who Have Not Yet Reached the Aow-Eligible Age.</t>
+        </is>
+      </c>
+      <c r="AP242" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ242" t="inlineStr"/>
+      <c r="AR242" t="inlineStr"/>
+      <c r="AS242" t="inlineStr"/>
+      <c r="AT242" t="inlineStr"/>
+      <c r="AU242" t="inlineStr"/>
+      <c r="AV242" t="inlineStr"/>
+      <c r="AW242" t="inlineStr"/>
+      <c r="AX242" t="inlineStr"/>
+      <c r="AY242" t="inlineStr"/>
+      <c r="AZ242" t="inlineStr"/>
+      <c r="BA242" t="inlineStr"/>
+      <c r="BB242" t="inlineStr"/>
+      <c r="BC242" t="inlineStr"/>
+      <c r="BD242" t="inlineStr"/>
+      <c r="BE242" t="inlineStr"/>
+      <c r="BF242" t="inlineStr"/>
+      <c r="BG242" t="inlineStr"/>
+      <c r="BH242" t="inlineStr"/>
+      <c r="BI242" t="inlineStr"/>
+      <c r="BJ242" t="inlineStr"/>
+      <c r="BK242" t="inlineStr"/>
+      <c r="BL242" t="inlineStr"/>
+      <c r="BM242" t="inlineStr"/>
+      <c r="BN242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Cao_iso_ttw_juli.json</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>826</v>
+      </c>
+      <c r="C243" t="n">
+        <v>826001</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>01-03-2015</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>30-04-2017</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>30/04/2017</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>12-07-2016</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>I / 10</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>2700</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="n">
+        <v>2747</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>01/12/2015</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="T243" t="n">
+        <v>2795</v>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V243" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="W243" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="X243" t="n">
+        <v>2795</v>
+      </c>
+      <c r="Y243" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z243" t="inlineStr">
+        <is>
+          <t>01/09/2016</t>
+        </is>
+      </c>
+      <c r="AA243" t="inlineStr"/>
+      <c r="AB243" t="n">
+        <v>2810</v>
+      </c>
+      <c r="AC243" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD243" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="AE243" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="AF243" t="inlineStr"/>
+      <c r="AG243" t="inlineStr"/>
+      <c r="AH243" t="inlineStr"/>
+      <c r="AI243" t="inlineStr"/>
+      <c r="AJ243" t="inlineStr"/>
+      <c r="AK243" t="inlineStr"/>
+      <c r="AL243" t="inlineStr"/>
+      <c r="AM243" t="inlineStr"/>
+      <c r="AN243" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO243" t="inlineStr">
+        <is>
+          <t>Salaries are based on a 38-hour work week. Salary Increases Based on Age Are Granted in the Pay Period of the Birthday. Salary Increases Based On Function Years Are Granted Once A Year. The Increase on 01/09/2016 was a nominal amount of € 38 for specific diploma Groups, not a percentage of increase for the main Salary Groups A-J. Salary for Group A, 0 function years, is based on the statutory minimum wage (WML). For Employees Aged 23+ with over 1 year or unempleoyent who are unable to performance at level A, the statutory minimum wage applies for a maximum introductory period or one year. The Wage Tables Apply to Employees Who Have Not Yet Reached the Aow-Eligible Age.</t>
+        </is>
+      </c>
+      <c r="AP243" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ243" t="inlineStr"/>
+      <c r="AR243" t="inlineStr"/>
+      <c r="AS243" t="inlineStr"/>
+      <c r="AT243" t="inlineStr"/>
+      <c r="AU243" t="inlineStr"/>
+      <c r="AV243" t="inlineStr"/>
+      <c r="AW243" t="inlineStr"/>
+      <c r="AX243" t="inlineStr"/>
+      <c r="AY243" t="inlineStr"/>
+      <c r="AZ243" t="inlineStr"/>
+      <c r="BA243" t="inlineStr"/>
+      <c r="BB243" t="inlineStr"/>
+      <c r="BC243" t="inlineStr"/>
+      <c r="BD243" t="inlineStr"/>
+      <c r="BE243" t="inlineStr"/>
+      <c r="BF243" t="inlineStr"/>
+      <c r="BG243" t="inlineStr"/>
+      <c r="BH243" t="inlineStr"/>
+      <c r="BI243" t="inlineStr"/>
+      <c r="BJ243" t="inlineStr"/>
+      <c r="BK243" t="inlineStr"/>
+      <c r="BL243" t="inlineStr"/>
+      <c r="BM243" t="inlineStr"/>
+      <c r="BN243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Cao_iso_ttw_juli.json</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>826</v>
+      </c>
+      <c r="C244" t="n">
+        <v>826001</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>01-03-2015</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>30-04-2017</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>30/04/2017</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>12-07-2016</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>J / 11</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>2981</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="n">
+        <v>3033</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>01/12/2015</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="T244" t="n">
+        <v>3086</v>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V244" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="W244" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="X244" t="n">
+        <v>3086</v>
+      </c>
+      <c r="Y244" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z244" t="inlineStr">
+        <is>
+          <t>01/09/2016</t>
+        </is>
+      </c>
+      <c r="AA244" t="inlineStr"/>
+      <c r="AB244" t="n">
+        <v>3103</v>
+      </c>
+      <c r="AC244" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AD244" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="AE244" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="AF244" t="inlineStr"/>
+      <c r="AG244" t="inlineStr"/>
+      <c r="AH244" t="inlineStr"/>
+      <c r="AI244" t="inlineStr"/>
+      <c r="AJ244" t="inlineStr"/>
+      <c r="AK244" t="inlineStr"/>
+      <c r="AL244" t="inlineStr"/>
+      <c r="AM244" t="inlineStr"/>
+      <c r="AN244" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO244" t="inlineStr">
+        <is>
+          <t>Salaries are based on a 38-hour work week. Salary Increases Based on Age Are Granted in the Pay Period of the Birthday. Salary Increases Based On Function Years Are Granted Once A Year. The Increase on 01/09/2016 was a nominal amount of € 38 for specific diploma Groups, not a percentage of increase for the main Salary Groups A-J. Salary for Group A, 0 function years, is based on the statutory minimum wage (WML). For Employees Aged 23+ with over 1 year or unempleoyent who are unable to performance at level A, the statutory minimum wage applies for a maximum introductory period or one year. The Wage Tables Apply to Employees Who Have Not Yet Reached the Aow-Eligible Age.</t>
+        </is>
+      </c>
+      <c r="AP244" t="inlineStr">
+        <is>
+          <t>23 years and older</t>
+        </is>
+      </c>
+      <c r="AQ244" t="inlineStr"/>
+      <c r="AR244" t="inlineStr"/>
+      <c r="AS244" t="inlineStr"/>
+      <c r="AT244" t="inlineStr"/>
+      <c r="AU244" t="inlineStr"/>
+      <c r="AV244" t="inlineStr"/>
+      <c r="AW244" t="inlineStr"/>
+      <c r="AX244" t="inlineStr"/>
+      <c r="AY244" t="inlineStr"/>
+      <c r="AZ244" t="inlineStr"/>
+      <c r="BA244" t="inlineStr"/>
+      <c r="BB244" t="inlineStr"/>
+      <c r="BC244" t="inlineStr"/>
+      <c r="BD244" t="inlineStr"/>
+      <c r="BE244" t="inlineStr"/>
+      <c r="BF244" t="inlineStr"/>
+      <c r="BG244" t="inlineStr"/>
+      <c r="BH244" t="inlineStr"/>
+      <c r="BI244" t="inlineStr"/>
+      <c r="BJ244" t="inlineStr"/>
+      <c r="BK244" t="inlineStr"/>
+      <c r="BL244" t="inlineStr"/>
+      <c r="BM244" t="inlineStr"/>
+      <c r="BN244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Cao_iso_ttw_juli.json</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>826</v>
+      </c>
+      <c r="C245" t="n">
+        <v>826001</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Pension</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>01-03-2015</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>30-04-2017</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>30/04/2017</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>12-07-2016</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="inlineStr"/>
+      <c r="O245" t="inlineStr"/>
+      <c r="P245" t="inlineStr"/>
+      <c r="Q245" t="inlineStr"/>
+      <c r="R245" t="inlineStr"/>
+      <c r="S245" t="inlineStr"/>
+      <c r="T245" t="inlineStr"/>
+      <c r="U245" t="inlineStr"/>
+      <c r="V245" t="inlineStr"/>
+      <c r="W245" t="inlineStr"/>
+      <c r="X245" t="inlineStr"/>
+      <c r="Y245" t="inlineStr"/>
+      <c r="Z245" t="inlineStr"/>
+      <c r="AA245" t="inlineStr"/>
+      <c r="AB245" t="inlineStr"/>
+      <c r="AC245" t="inlineStr"/>
+      <c r="AD245" t="inlineStr"/>
+      <c r="AE245" t="inlineStr"/>
+      <c r="AF245" t="inlineStr"/>
+      <c r="AG245" t="inlineStr"/>
+      <c r="AH245" t="inlineStr"/>
+      <c r="AI245" t="inlineStr"/>
+      <c r="AJ245" t="inlineStr"/>
+      <c r="AK245" t="inlineStr"/>
+      <c r="AL245" t="inlineStr"/>
+      <c r="AM245" t="inlineStr"/>
+      <c r="AN245" t="inlineStr"/>
+      <c r="AO245" t="inlineStr"/>
+      <c r="AP245" t="inlineStr"/>
+      <c r="AQ245" t="inlineStr">
+        <is>
+          <t>The Employment Contract Ends Automatically On The First Day the State Pension (AOW) Starts. Employees Receiving A Pension from the Pension Fund Metal and Technology Must Notify the Employer Three Months Before the Start Date of the Benefit. For Employees who have reached the AOW-EGE-EBELLE AGE OF AREIVING A Pension from the Pension Fund Metal and Technology, Different Rules May Apply for Social Security and/or Pension Than For Employees Younger Than 65 Years.</t>
+        </is>
+      </c>
+      <c r="AR245" t="inlineStr">
+        <is>
+          <t>An employee aged 58 or older who has not yet reached the state pension age can request a part-time guesthouse. This requires reducing working hours by a minimum of 4 hours per week and a maximum of 50% of the original weekly working hours. The Employer Must Grant The Request Unless There Are Serious Business Or Service Interests That Oppose It.</t>
+        </is>
+      </c>
+      <c r="AS245" t="inlineStr">
+        <is>
+          <t>AOW-OFFIBLE AGE</t>
+        </is>
+      </c>
+      <c r="AT245" t="inlineStr"/>
+      <c r="AU245" t="inlineStr">
+        <is>
+          <t>Employees aged 58 and older can request a part-time guesthouse.</t>
+        </is>
+      </c>
+      <c r="AV245" t="inlineStr"/>
+      <c r="AW245" t="inlineStr"/>
+      <c r="AX245" t="inlineStr"/>
+      <c r="AY245" t="inlineStr"/>
+      <c r="AZ245" t="inlineStr"/>
+      <c r="BA245" t="inlineStr"/>
+      <c r="BB245" t="inlineStr"/>
+      <c r="BC245" t="inlineStr"/>
+      <c r="BD245" t="inlineStr"/>
+      <c r="BE245" t="inlineStr"/>
+      <c r="BF245" t="inlineStr"/>
+      <c r="BG245" t="inlineStr"/>
+      <c r="BH245" t="inlineStr"/>
+      <c r="BI245" t="inlineStr"/>
+      <c r="BJ245" t="inlineStr"/>
+      <c r="BK245" t="inlineStr"/>
+      <c r="BL245" t="inlineStr"/>
+      <c r="BM245" t="inlineStr"/>
+      <c r="BN245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Cao_iso_ttw_juli.json</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>826</v>
+      </c>
+      <c r="C246" t="n">
+        <v>826001</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>01-03-2015</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>30-04-2017</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>30/04/2017</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>12-07-2016</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="inlineStr"/>
+      <c r="O246" t="inlineStr"/>
+      <c r="P246" t="inlineStr"/>
+      <c r="Q246" t="inlineStr"/>
+      <c r="R246" t="inlineStr"/>
+      <c r="S246" t="inlineStr"/>
+      <c r="T246" t="inlineStr"/>
+      <c r="U246" t="inlineStr"/>
+      <c r="V246" t="inlineStr"/>
+      <c r="W246" t="inlineStr"/>
+      <c r="X246" t="inlineStr"/>
+      <c r="Y246" t="inlineStr"/>
+      <c r="Z246" t="inlineStr"/>
+      <c r="AA246" t="inlineStr"/>
+      <c r="AB246" t="inlineStr"/>
+      <c r="AC246" t="inlineStr"/>
+      <c r="AD246" t="inlineStr"/>
+      <c r="AE246" t="inlineStr"/>
+      <c r="AF246" t="inlineStr"/>
+      <c r="AG246" t="inlineStr"/>
+      <c r="AH246" t="inlineStr"/>
+      <c r="AI246" t="inlineStr"/>
+      <c r="AJ246" t="inlineStr"/>
+      <c r="AK246" t="inlineStr"/>
+      <c r="AL246" t="inlineStr"/>
+      <c r="AM246" t="inlineStr"/>
+      <c r="AN246" t="inlineStr"/>
+      <c r="AO246" t="inlineStr"/>
+      <c r="AP246" t="inlineStr"/>
+      <c r="AQ246" t="inlineStr"/>
+      <c r="AR246" t="inlineStr"/>
+      <c r="AS246" t="inlineStr"/>
+      <c r="AT246" t="inlineStr"/>
+      <c r="AU246" t="inlineStr"/>
+      <c r="AV246" t="inlineStr">
+        <is>
+          <t>The CAO refers to the 'Work and Care Act' (Work and Care Act) for Various Forms of Leave, But Does Not specific to the Duration of Maternity Leave.</t>
+        </is>
+      </c>
+      <c r="AW246" t="inlineStr"/>
+      <c r="AX246" t="inlineStr">
+        <is>
+          <t>CAO Parties Recommend that Various Forms of Leave Under The Work and Care Act Be Integrated As Flexible as Possible Into Existing Work Schedules, Taking Into Account The Employee's Personal Circumstans and the Deviation Possibilities Offered by the Law.</t>
+        </is>
+      </c>
+      <c r="AY246" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AZ246" t="inlineStr">
+        <is>
+          <t>Days</t>
+        </is>
+      </c>
+      <c r="BA246" t="inlineStr">
+        <is>
+          <t>The Standard is 24 Vacation Days (192 Hours). Public Holidays (New Year's Day, Easter Monday, Ascension Day, Whit Monday, Both Christmas Days, King's Day - April 27) Are Not Worked. If May 5th is declared a National Holiday, The 24th Vacation Day is collectively Scheduled on this Day. An employee can buy a maximum of 64 hours of leave per calendar year. Starting January 1, 2017, The Employer Has the Right to Buy 8 Vacation Hours (One Day) from the Employee, Partularly If the Employee Already Has More Than 192 Hours (24 Days) of Leave. Vacation Hours and advhours can be Exchanged for money or fiscally facilitated arrangements.</t>
+        </is>
+      </c>
+      <c r="BB246" t="inlineStr"/>
+      <c r="BC246" t="inlineStr"/>
+      <c r="BD246" t="inlineStr"/>
+      <c r="BE246" t="inlineStr"/>
+      <c r="BF246" t="inlineStr"/>
+      <c r="BG246" t="inlineStr"/>
+      <c r="BH246" t="inlineStr"/>
+      <c r="BI246" t="inlineStr"/>
+      <c r="BJ246" t="inlineStr"/>
+      <c r="BK246" t="inlineStr"/>
+      <c r="BL246" t="inlineStr"/>
+      <c r="BM246" t="inlineStr"/>
+      <c r="BN246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Cao_iso_ttw_juli.json</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>826</v>
+      </c>
+      <c r="C247" t="n">
+        <v>826001</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>01-03-2015</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>30-04-2017</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>30/04/2017</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>12-07-2016</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="inlineStr"/>
+      <c r="O247" t="inlineStr"/>
+      <c r="P247" t="inlineStr"/>
+      <c r="Q247" t="inlineStr"/>
+      <c r="R247" t="inlineStr"/>
+      <c r="S247" t="inlineStr"/>
+      <c r="T247" t="inlineStr"/>
+      <c r="U247" t="inlineStr"/>
+      <c r="V247" t="inlineStr"/>
+      <c r="W247" t="inlineStr"/>
+      <c r="X247" t="inlineStr"/>
+      <c r="Y247" t="inlineStr"/>
+      <c r="Z247" t="inlineStr"/>
+      <c r="AA247" t="inlineStr"/>
+      <c r="AB247" t="inlineStr"/>
+      <c r="AC247" t="inlineStr"/>
+      <c r="AD247" t="inlineStr"/>
+      <c r="AE247" t="inlineStr"/>
+      <c r="AF247" t="inlineStr"/>
+      <c r="AG247" t="inlineStr"/>
+      <c r="AH247" t="inlineStr"/>
+      <c r="AI247" t="inlineStr"/>
+      <c r="AJ247" t="inlineStr"/>
+      <c r="AK247" t="inlineStr"/>
+      <c r="AL247" t="inlineStr"/>
+      <c r="AM247" t="inlineStr"/>
+      <c r="AN247" t="inlineStr"/>
+      <c r="AO247" t="inlineStr"/>
+      <c r="AP247" t="inlineStr"/>
+      <c r="AQ247" t="inlineStr"/>
+      <c r="AR247" t="inlineStr"/>
+      <c r="AS247" t="inlineStr"/>
+      <c r="AT247" t="inlineStr"/>
+      <c r="AU247" t="inlineStr"/>
+      <c r="AV247" t="inlineStr"/>
+      <c r="AW247" t="inlineStr"/>
+      <c r="AX247" t="inlineStr"/>
+      <c r="AY247" t="inlineStr"/>
+      <c r="AZ247" t="inlineStr"/>
+      <c r="BA247" t="inlineStr"/>
+      <c r="BB247" t="inlineStr">
+        <is>
+          <t>Notice Period is in Accordance with article 7: 672 of the Dutch Civil Code.</t>
+        </is>
+      </c>
+      <c r="BC247" t="inlineStr">
+        <is>
+          <t>Notice is Given Against the End of the Month for Monthly Pay, or Against the End of the Four week Period for Four-Weekek Pay. For fixed term contracts of 6 months or longer, the employer must inform the employee in Writing at Least 1 Month Before the end date Whether the contract will be continued. An indefinite employment contract ends automatically on the first day of the state pension (state pension) eligibility, without any notice request. A Non-Competition/Non-SoliciSation Clause May be affected if the Dismissal is for business-economic reasons Due to a crisis, Allowing the Employee More Freedom in The Job Market, Provised the Old Employer Is Not Seriously Harmed.</t>
+        </is>
+      </c>
+      <c r="BD247" t="inlineStr">
+        <is>
+          <t>Notice Period is in Accordance with article 7: 672 of the Dutch Civil Code.</t>
+        </is>
+      </c>
+      <c r="BE247" t="inlineStr">
+        <is>
+          <t>Notice is Given Against the End of the Month for Monthly Pay, or Against the End of the Four week Period for Four-Weekek Pay.</t>
+        </is>
+      </c>
+      <c r="BF247" t="inlineStr">
+        <is>
+          <t>The First Two Months of the Employment Relationship Will Serve As A Probationaly Period.</t>
+        </is>
+      </c>
+      <c r="BG247" t="inlineStr">
+        <is>
+          <t>This applies to both indefinite contracts and fixed-term contracts longer than six months, unless a shorter or no probation period period is agreed upon in Writing. Duration the Probation Period, Either the Employer or the Employee Can Termate the Contract at the End of the Workday.</t>
+        </is>
+      </c>
+      <c r="BH247" t="inlineStr"/>
+      <c r="BI247" t="inlineStr"/>
+      <c r="BJ247" t="inlineStr"/>
+      <c r="BK247" t="inlineStr"/>
+      <c r="BL247" t="inlineStr"/>
+      <c r="BM247" t="inlineStr"/>
+      <c r="BN247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Cao_iso_ttw_juli.json</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>826</v>
+      </c>
+      <c r="C248" t="n">
+        <v>826001</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>01-03-2015</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>30-04-2017</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>30/04/2017</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>12-07-2016</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="inlineStr"/>
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="inlineStr"/>
+      <c r="Q248" t="inlineStr"/>
+      <c r="R248" t="inlineStr"/>
+      <c r="S248" t="inlineStr"/>
+      <c r="T248" t="inlineStr"/>
+      <c r="U248" t="inlineStr"/>
+      <c r="V248" t="inlineStr"/>
+      <c r="W248" t="inlineStr"/>
+      <c r="X248" t="inlineStr"/>
+      <c r="Y248" t="inlineStr"/>
+      <c r="Z248" t="inlineStr"/>
+      <c r="AA248" t="inlineStr"/>
+      <c r="AB248" t="inlineStr"/>
+      <c r="AC248" t="inlineStr"/>
+      <c r="AD248" t="inlineStr"/>
+      <c r="AE248" t="inlineStr"/>
+      <c r="AF248" t="inlineStr"/>
+      <c r="AG248" t="inlineStr"/>
+      <c r="AH248" t="inlineStr"/>
+      <c r="AI248" t="inlineStr"/>
+      <c r="AJ248" t="inlineStr"/>
+      <c r="AK248" t="inlineStr"/>
+      <c r="AL248" t="inlineStr"/>
+      <c r="AM248" t="inlineStr"/>
+      <c r="AN248" t="inlineStr"/>
+      <c r="AO248" t="inlineStr"/>
+      <c r="AP248" t="inlineStr"/>
+      <c r="AQ248" t="inlineStr"/>
+      <c r="AR248" t="inlineStr"/>
+      <c r="AS248" t="inlineStr"/>
+      <c r="AT248" t="inlineStr"/>
+      <c r="AU248" t="inlineStr"/>
+      <c r="AV248" t="inlineStr"/>
+      <c r="AW248" t="inlineStr"/>
+      <c r="AX248" t="inlineStr"/>
+      <c r="AY248" t="inlineStr"/>
+      <c r="AZ248" t="inlineStr"/>
+      <c r="BA248" t="inlineStr"/>
+      <c r="BB248" t="inlineStr"/>
+      <c r="BC248" t="inlineStr"/>
+      <c r="BD248" t="inlineStr"/>
+      <c r="BE248" t="inlineStr"/>
+      <c r="BF248" t="inlineStr"/>
+      <c r="BG248" t="inlineStr"/>
+      <c r="BH248" t="inlineStr">
+        <is>
+          <t>Overtime is defined as hours worked outside the work schedule. The Specific Payment for Overtime is menttioned in article 42, which is not provid. IF Work is Performed Duration Adv (Work Time Reduction) Hours, It is compensated with replacement time off, to be tasks no later than the following calendar quarter.</t>
+        </is>
+      </c>
+      <c r="BI248" t="inlineStr">
+        <is>
+          <t>The Weekly Working Hours Average 38 Hours on a Maximum Period of One Year. A flexible work week can go to a maximum of 45 hours. In a 4-day work week, the maximum daily working time is 9.5 hours. Compulsory Overtime is Limited to the First 10 Hours in A Four week Period (5 Hours for Employees 55 Years and Older).</t>
+        </is>
+      </c>
+      <c r="BJ248" t="inlineStr">
+        <is>
+          <t>A Flexible Work Week has a minimum of 34 hours.</t>
+        </is>
+      </c>
+      <c r="BK248" t="inlineStr">
+        <is>
+          <t>Shift work is defined as work in a System Where the Working Times of Two or More Groups of Employees Connect Or Slightly Overlap, Covering A Time Block of More Than 13 Hours, and Where the Employee Regularly Changes Shifts about A Longer Period. The Compensation for Shift Work is Regulated in article 45, which is not provid in the text. Employees aged 55 and older Cannot Be Obliged to Work in Shifts.</t>
+        </is>
+      </c>
+      <c r="BL248" t="inlineStr"/>
+      <c r="BM248" t="inlineStr"/>
+      <c r="BN248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Cao_iso_ttw_juli.json</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>826</v>
+      </c>
+      <c r="C249" t="n">
+        <v>826001</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>01-03-2015</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>30-04-2017</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>30/04/2017</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>12-07-2016</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="inlineStr"/>
+      <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr"/>
+      <c r="R249" t="inlineStr"/>
+      <c r="S249" t="inlineStr"/>
+      <c r="T249" t="inlineStr"/>
+      <c r="U249" t="inlineStr"/>
+      <c r="V249" t="inlineStr"/>
+      <c r="W249" t="inlineStr"/>
+      <c r="X249" t="inlineStr"/>
+      <c r="Y249" t="inlineStr"/>
+      <c r="Z249" t="inlineStr"/>
+      <c r="AA249" t="inlineStr"/>
+      <c r="AB249" t="inlineStr"/>
+      <c r="AC249" t="inlineStr"/>
+      <c r="AD249" t="inlineStr"/>
+      <c r="AE249" t="inlineStr"/>
+      <c r="AF249" t="inlineStr"/>
+      <c r="AG249" t="inlineStr"/>
+      <c r="AH249" t="inlineStr"/>
+      <c r="AI249" t="inlineStr"/>
+      <c r="AJ249" t="inlineStr"/>
+      <c r="AK249" t="inlineStr"/>
+      <c r="AL249" t="inlineStr"/>
+      <c r="AM249" t="inlineStr"/>
+      <c r="AN249" t="inlineStr"/>
+      <c r="AO249" t="inlineStr"/>
+      <c r="AP249" t="inlineStr"/>
+      <c r="AQ249" t="inlineStr"/>
+      <c r="AR249" t="inlineStr"/>
+      <c r="AS249" t="inlineStr"/>
+      <c r="AT249" t="inlineStr"/>
+      <c r="AU249" t="inlineStr"/>
+      <c r="AV249" t="inlineStr"/>
+      <c r="AW249" t="inlineStr"/>
+      <c r="AX249" t="inlineStr"/>
+      <c r="AY249" t="inlineStr"/>
+      <c r="AZ249" t="inlineStr"/>
+      <c r="BA249" t="inlineStr"/>
+      <c r="BB249" t="inlineStr"/>
+      <c r="BC249" t="inlineStr"/>
+      <c r="BD249" t="inlineStr"/>
+      <c r="BE249" t="inlineStr"/>
+      <c r="BF249" t="inlineStr"/>
+      <c r="BG249" t="inlineStr"/>
+      <c r="BH249" t="inlineStr"/>
+      <c r="BI249" t="inlineStr"/>
+      <c r="BJ249" t="inlineStr"/>
+      <c r="BK249" t="inlineStr"/>
+      <c r="BL249" t="inlineStr"/>
+      <c r="BM249" t="inlineStr"/>
+      <c r="BN249" t="inlineStr">
+        <is>
+          <t>The Salary for Employees Up to 23 Years of Age is Linked to Their Level of Education. There are specific salary scales for employees with at least a vbo/mavo/vmbo diploma, a vocational diploma (professional diploma) obtave through the work-based learning path (vocational guidance learning path), or an advanced vocational diploma, providd. The Recognized Vocational Diplomas are Specificated on A List Available from the Vakraad. Furthermore, the Legal Regulations Regarding the Chain of Fixed-Term Contracts (article 7: 668a BW) do not Apply to Employment Contracts That Are Excl and Precominantly for the Purpose of the Employee's Education.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Wholesale_in_bloemen_en_planten_cao_2017_2019.json</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1547001</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>30-06-2019</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>30/06/2019</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>21-03-2017</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>Group 1</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1551.6</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr"/>
+      <c r="P250" t="n">
+        <v>1574.87</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>01/03/2017</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="T250" t="n">
+        <v>1598.5</v>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V250" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="W250" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="X250" t="n">
+        <v>1622.47</v>
+      </c>
+      <c r="Y250" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z250" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="AA250" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB250" t="inlineStr"/>
+      <c r="AC250" t="inlineStr"/>
+      <c r="AD250" t="inlineStr"/>
+      <c r="AE250" t="inlineStr"/>
+      <c r="AF250" t="inlineStr"/>
+      <c r="AG250" t="inlineStr"/>
+      <c r="AH250" t="inlineStr"/>
+      <c r="AI250" t="inlineStr"/>
+      <c r="AJ250" t="inlineStr"/>
+      <c r="AK250" t="inlineStr"/>
+      <c r="AL250" t="inlineStr"/>
+      <c r="AM250" t="inlineStr"/>
+      <c r="AN250" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO250" t="inlineStr">
+        <is>
+          <t>The Functions of the Employees Are Classified Into Function Group Based on the Orba Function Evaluation System. The End Salary of Scale 1 and 2 is Each Time Increased by An Extra 1.5%. An end-of-year bonus or 1% of the total months or period incomes earned in the calendar year is granted. Hourly Wage is: - 0.577% of the months Salary (The Monthly Salary MultiPlied by 3 Divided by 13 Week Divided by 40) OR - 0.625% of the Period Salary (The Period Salary: 4: 40).</t>
+        </is>
+      </c>
+      <c r="AP250" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ250" t="inlineStr"/>
+      <c r="AR250" t="inlineStr"/>
+      <c r="AS250" t="inlineStr"/>
+      <c r="AT250" t="inlineStr"/>
+      <c r="AU250" t="inlineStr"/>
+      <c r="AV250" t="inlineStr"/>
+      <c r="AW250" t="inlineStr"/>
+      <c r="AX250" t="inlineStr"/>
+      <c r="AY250" t="inlineStr"/>
+      <c r="AZ250" t="inlineStr"/>
+      <c r="BA250" t="inlineStr"/>
+      <c r="BB250" t="inlineStr"/>
+      <c r="BC250" t="inlineStr"/>
+      <c r="BD250" t="inlineStr"/>
+      <c r="BE250" t="inlineStr"/>
+      <c r="BF250" t="inlineStr"/>
+      <c r="BG250" t="inlineStr"/>
+      <c r="BH250" t="inlineStr"/>
+      <c r="BI250" t="inlineStr"/>
+      <c r="BJ250" t="inlineStr"/>
+      <c r="BK250" t="inlineStr"/>
+      <c r="BL250" t="inlineStr"/>
+      <c r="BM250" t="inlineStr"/>
+      <c r="BN250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Wholesale_in_bloemen_en_planten_cao_2017_2019.json</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1547001</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>30-06-2019</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>30/06/2019</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>21-03-2017</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>Group 2</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1571.18</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="n">
+        <v>1594.75</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>01/03/2017</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="T251" t="n">
+        <v>1618.67</v>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V251" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="W251" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="X251" t="n">
+        <v>1642.95</v>
+      </c>
+      <c r="Y251" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z251" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="AA251" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB251" t="inlineStr"/>
+      <c r="AC251" t="inlineStr"/>
+      <c r="AD251" t="inlineStr"/>
+      <c r="AE251" t="inlineStr"/>
+      <c r="AF251" t="inlineStr"/>
+      <c r="AG251" t="inlineStr"/>
+      <c r="AH251" t="inlineStr"/>
+      <c r="AI251" t="inlineStr"/>
+      <c r="AJ251" t="inlineStr"/>
+      <c r="AK251" t="inlineStr"/>
+      <c r="AL251" t="inlineStr"/>
+      <c r="AM251" t="inlineStr"/>
+      <c r="AN251" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO251" t="inlineStr">
+        <is>
+          <t>The Functions of the Employees Are Classified Into Function Group Based on the Orba Function Evaluation System. The End Salary of Scale 1 and 2 is Each Time Increased by An Extra 1.5%. An end-of-year bonus or 1% of the total months or period incomes earned in the calendar year is granted. Hourly Wage is: - 0.577% of the months Salary (The Monthly Salary MultiPlied by 3 Divided by 13 Week Divided by 40) OR - 0.625% of the Period Salary (The Period Salary: 4: 40).</t>
+        </is>
+      </c>
+      <c r="AP251" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ251" t="inlineStr"/>
+      <c r="AR251" t="inlineStr"/>
+      <c r="AS251" t="inlineStr"/>
+      <c r="AT251" t="inlineStr"/>
+      <c r="AU251" t="inlineStr"/>
+      <c r="AV251" t="inlineStr"/>
+      <c r="AW251" t="inlineStr"/>
+      <c r="AX251" t="inlineStr"/>
+      <c r="AY251" t="inlineStr"/>
+      <c r="AZ251" t="inlineStr"/>
+      <c r="BA251" t="inlineStr"/>
+      <c r="BB251" t="inlineStr"/>
+      <c r="BC251" t="inlineStr"/>
+      <c r="BD251" t="inlineStr"/>
+      <c r="BE251" t="inlineStr"/>
+      <c r="BF251" t="inlineStr"/>
+      <c r="BG251" t="inlineStr"/>
+      <c r="BH251" t="inlineStr"/>
+      <c r="BI251" t="inlineStr"/>
+      <c r="BJ251" t="inlineStr"/>
+      <c r="BK251" t="inlineStr"/>
+      <c r="BL251" t="inlineStr"/>
+      <c r="BM251" t="inlineStr"/>
+      <c r="BN251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Wholesale_in_bloemen_en_planten_cao_2017_2019.json</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1547001</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>30-06-2019</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>30/06/2019</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>21-03-2017</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>Group 3</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1660.46</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="n">
+        <v>1685.37</v>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>01/03/2017</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="T252" t="n">
+        <v>1710.65</v>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V252" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="W252" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="X252" t="n">
+        <v>1736.31</v>
+      </c>
+      <c r="Y252" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z252" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="AA252" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB252" t="inlineStr"/>
+      <c r="AC252" t="inlineStr"/>
+      <c r="AD252" t="inlineStr"/>
+      <c r="AE252" t="inlineStr"/>
+      <c r="AF252" t="inlineStr"/>
+      <c r="AG252" t="inlineStr"/>
+      <c r="AH252" t="inlineStr"/>
+      <c r="AI252" t="inlineStr"/>
+      <c r="AJ252" t="inlineStr"/>
+      <c r="AK252" t="inlineStr"/>
+      <c r="AL252" t="inlineStr"/>
+      <c r="AM252" t="inlineStr"/>
+      <c r="AN252" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO252" t="inlineStr">
+        <is>
+          <t>The Functions of the Employees Are Classified Into Function Group Based on the Orba Function Evaluation System. The End Salary of Scale 1 and 2 is Each Time Increased by An Extra 1.5%. An end-of-year bonus or 1% of the total months or period incomes earned in the calendar year is granted. Hourly Wage is: - 0.577% of the months Salary (The Monthly Salary MultiPlied by 3 Divided by 13 Week Divided by 40) OR - 0.625% of the Period Salary (The Period Salary: 4: 40).</t>
+        </is>
+      </c>
+      <c r="AP252" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ252" t="inlineStr"/>
+      <c r="AR252" t="inlineStr"/>
+      <c r="AS252" t="inlineStr"/>
+      <c r="AT252" t="inlineStr"/>
+      <c r="AU252" t="inlineStr"/>
+      <c r="AV252" t="inlineStr"/>
+      <c r="AW252" t="inlineStr"/>
+      <c r="AX252" t="inlineStr"/>
+      <c r="AY252" t="inlineStr"/>
+      <c r="AZ252" t="inlineStr"/>
+      <c r="BA252" t="inlineStr"/>
+      <c r="BB252" t="inlineStr"/>
+      <c r="BC252" t="inlineStr"/>
+      <c r="BD252" t="inlineStr"/>
+      <c r="BE252" t="inlineStr"/>
+      <c r="BF252" t="inlineStr"/>
+      <c r="BG252" t="inlineStr"/>
+      <c r="BH252" t="inlineStr"/>
+      <c r="BI252" t="inlineStr"/>
+      <c r="BJ252" t="inlineStr"/>
+      <c r="BK252" t="inlineStr"/>
+      <c r="BL252" t="inlineStr"/>
+      <c r="BM252" t="inlineStr"/>
+      <c r="BN252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Wholesale_in_bloemen_en_planten_cao_2017_2019.json</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1547001</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>30-06-2019</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>30/06/2019</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>21-03-2017</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>Group 4</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1749.74</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr"/>
+      <c r="P253" t="n">
+        <v>1775.99</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>01/03/2017</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="T253" t="n">
+        <v>1802.63</v>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="W253" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="X253" t="n">
+        <v>1829.67</v>
+      </c>
+      <c r="Y253" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z253" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="AA253" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB253" t="inlineStr"/>
+      <c r="AC253" t="inlineStr"/>
+      <c r="AD253" t="inlineStr"/>
+      <c r="AE253" t="inlineStr"/>
+      <c r="AF253" t="inlineStr"/>
+      <c r="AG253" t="inlineStr"/>
+      <c r="AH253" t="inlineStr"/>
+      <c r="AI253" t="inlineStr"/>
+      <c r="AJ253" t="inlineStr"/>
+      <c r="AK253" t="inlineStr"/>
+      <c r="AL253" t="inlineStr"/>
+      <c r="AM253" t="inlineStr"/>
+      <c r="AN253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO253" t="inlineStr">
+        <is>
+          <t>The Functions of the Employees Are Classified Into Function Group Based on the Orba Function Evaluation System. The End Salary of Scale 1 and 2 is Each Time Increased by An Extra 1.5%. An end-of-year bonus or 1% of the total months or period incomes earned in the calendar year is granted. Hourly Wage is: - 0.577% of the months Salary (The Monthly Salary MultiPlied by 3 Divided by 13 Week Divided by 40) OR - 0.625% of the Period Salary (The Period Salary: 4: 40).</t>
+        </is>
+      </c>
+      <c r="AP253" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ253" t="inlineStr"/>
+      <c r="AR253" t="inlineStr"/>
+      <c r="AS253" t="inlineStr"/>
+      <c r="AT253" t="inlineStr"/>
+      <c r="AU253" t="inlineStr"/>
+      <c r="AV253" t="inlineStr"/>
+      <c r="AW253" t="inlineStr"/>
+      <c r="AX253" t="inlineStr"/>
+      <c r="AY253" t="inlineStr"/>
+      <c r="AZ253" t="inlineStr"/>
+      <c r="BA253" t="inlineStr"/>
+      <c r="BB253" t="inlineStr"/>
+      <c r="BC253" t="inlineStr"/>
+      <c r="BD253" t="inlineStr"/>
+      <c r="BE253" t="inlineStr"/>
+      <c r="BF253" t="inlineStr"/>
+      <c r="BG253" t="inlineStr"/>
+      <c r="BH253" t="inlineStr"/>
+      <c r="BI253" t="inlineStr"/>
+      <c r="BJ253" t="inlineStr"/>
+      <c r="BK253" t="inlineStr"/>
+      <c r="BL253" t="inlineStr"/>
+      <c r="BM253" t="inlineStr"/>
+      <c r="BN253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Wholesale_in_bloemen_en_planten_cao_2017_2019.json</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1547001</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>30-06-2019</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>30/06/2019</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>21-03-2017</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>Group 5</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1840.26</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr"/>
+      <c r="P254" t="n">
+        <v>1867.86</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>01/03/2017</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="T254" t="n">
+        <v>1895.88</v>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V254" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="W254" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="X254" t="n">
+        <v>1924.32</v>
+      </c>
+      <c r="Y254" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z254" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="AA254" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB254" t="inlineStr"/>
+      <c r="AC254" t="inlineStr"/>
+      <c r="AD254" t="inlineStr"/>
+      <c r="AE254" t="inlineStr"/>
+      <c r="AF254" t="inlineStr"/>
+      <c r="AG254" t="inlineStr"/>
+      <c r="AH254" t="inlineStr"/>
+      <c r="AI254" t="inlineStr"/>
+      <c r="AJ254" t="inlineStr"/>
+      <c r="AK254" t="inlineStr"/>
+      <c r="AL254" t="inlineStr"/>
+      <c r="AM254" t="inlineStr"/>
+      <c r="AN254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO254" t="inlineStr">
+        <is>
+          <t>The Functions of the Employees Are Classified Into Function Group Based on the Orba Function Evaluation System. The End Salary of Scale 1 and 2 is Each Time Increased by An Extra 1.5%. An end-of-year bonus or 1% of the total months or period incomes earned in the calendar year is granted. Hourly Wage is: - 0.577% of the months Salary (The Monthly Salary MultiPlied by 3 Divided by 13 Week Divided by 40) OR - 0.625% of the Period Salary (The Period Salary: 4: 40).</t>
+        </is>
+      </c>
+      <c r="AP254" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ254" t="inlineStr"/>
+      <c r="AR254" t="inlineStr"/>
+      <c r="AS254" t="inlineStr"/>
+      <c r="AT254" t="inlineStr"/>
+      <c r="AU254" t="inlineStr"/>
+      <c r="AV254" t="inlineStr"/>
+      <c r="AW254" t="inlineStr"/>
+      <c r="AX254" t="inlineStr"/>
+      <c r="AY254" t="inlineStr"/>
+      <c r="AZ254" t="inlineStr"/>
+      <c r="BA254" t="inlineStr"/>
+      <c r="BB254" t="inlineStr"/>
+      <c r="BC254" t="inlineStr"/>
+      <c r="BD254" t="inlineStr"/>
+      <c r="BE254" t="inlineStr"/>
+      <c r="BF254" t="inlineStr"/>
+      <c r="BG254" t="inlineStr"/>
+      <c r="BH254" t="inlineStr"/>
+      <c r="BI254" t="inlineStr"/>
+      <c r="BJ254" t="inlineStr"/>
+      <c r="BK254" t="inlineStr"/>
+      <c r="BL254" t="inlineStr"/>
+      <c r="BM254" t="inlineStr"/>
+      <c r="BN254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Wholesale_in_bloemen_en_planten_cao_2017_2019.json</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1547001</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>30-06-2019</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>30/06/2019</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>21-03-2017</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>Group 6</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1935.75</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr"/>
+      <c r="P255" t="n">
+        <v>1964.79</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>01/03/2017</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="T255" t="n">
+        <v>1994.26</v>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="W255" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="X255" t="n">
+        <v>2024.17</v>
+      </c>
+      <c r="Y255" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="Z255" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="AA255" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="AB255" t="inlineStr"/>
+      <c r="AC255" t="inlineStr"/>
+      <c r="AD255" t="inlineStr"/>
+      <c r="AE255" t="inlineStr"/>
+      <c r="AF255" t="inlineStr"/>
+      <c r="AG255" t="inlineStr"/>
+      <c r="AH255" t="inlineStr"/>
+      <c r="AI255" t="inlineStr"/>
+      <c r="AJ255" t="inlineStr"/>
+      <c r="AK255" t="inlineStr"/>
+      <c r="AL255" t="inlineStr"/>
+      <c r="AM255" t="inlineStr"/>
+      <c r="AN255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO255" t="inlineStr">
+        <is>
+          <t>The Functions of the Employees Are Classified Into Function Group Based on the Orba Function Evaluation System. The End Salary of Scale 1 and 2 is Each Time Increased by An Extra 1.5%. An end-of-year bonus or 1% of the total months or period incomes earned in the calendar year is granted. Hourly Wage is: - 0.577% of the months Salary (The Monthly Salary MultiPlied by 3 Divided by 13 Week Divided by 40) OR - 0.625% of the Period Salary (The Period Salary: 4: 40).</t>
+        </is>
+      </c>
+      <c r="AP255" t="inlineStr">
+        <is>
+          <t>21 years and older</t>
+        </is>
+      </c>
+      <c r="AQ255" t="inlineStr"/>
+      <c r="AR255" t="inlineStr"/>
+      <c r="AS255" t="inlineStr"/>
+      <c r="AT255" t="inlineStr"/>
+      <c r="AU255" t="inlineStr"/>
+      <c r="AV255" t="inlineStr"/>
+      <c r="AW255" t="inlineStr"/>
+      <c r="AX255" t="inlineStr"/>
+      <c r="AY255" t="inlineStr"/>
+      <c r="AZ255" t="inlineStr"/>
+      <c r="BA255" t="inlineStr"/>
+      <c r="BB255" t="inlineStr"/>
+      <c r="BC255" t="inlineStr"/>
+      <c r="BD255" t="inlineStr"/>
+      <c r="BE255" t="inlineStr"/>
+      <c r="BF255" t="inlineStr"/>
+      <c r="BG255" t="inlineStr"/>
+      <c r="BH255" t="inlineStr"/>
+      <c r="BI255" t="inlineStr"/>
+      <c r="BJ255" t="inlineStr"/>
+      <c r="BK255" t="inlineStr"/>
+      <c r="BL255" t="inlineStr"/>
+      <c r="BM255" t="inlineStr"/>
+      <c r="BN255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Wholesale_in_bloemen_en_planten_cao_2017_2019.json</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1547001</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Pension</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>30-06-2019</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>30/06/2019</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>21-03-2017</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="inlineStr"/>
+      <c r="O256" t="inlineStr"/>
+      <c r="P256" t="inlineStr"/>
+      <c r="Q256" t="inlineStr"/>
+      <c r="R256" t="inlineStr"/>
+      <c r="S256" t="inlineStr"/>
+      <c r="T256" t="inlineStr"/>
+      <c r="U256" t="inlineStr"/>
+      <c r="V256" t="inlineStr"/>
+      <c r="W256" t="inlineStr"/>
+      <c r="X256" t="inlineStr"/>
+      <c r="Y256" t="inlineStr"/>
+      <c r="Z256" t="inlineStr"/>
+      <c r="AA256" t="inlineStr"/>
+      <c r="AB256" t="inlineStr"/>
+      <c r="AC256" t="inlineStr"/>
+      <c r="AD256" t="inlineStr"/>
+      <c r="AE256" t="inlineStr"/>
+      <c r="AF256" t="inlineStr"/>
+      <c r="AG256" t="inlineStr"/>
+      <c r="AH256" t="inlineStr"/>
+      <c r="AI256" t="inlineStr"/>
+      <c r="AJ256" t="inlineStr"/>
+      <c r="AK256" t="inlineStr"/>
+      <c r="AL256" t="inlineStr"/>
+      <c r="AM256" t="inlineStr"/>
+      <c r="AN256" t="inlineStr"/>
+      <c r="AO256" t="inlineStr"/>
+      <c r="AP256" t="inlineStr"/>
+      <c r="AQ256" t="inlineStr">
+        <is>
+          <t>The Pension Scheme is based on a defined contribution system. The available premium is 8% of the pensionable salary, with an employee contribution or 50% deducted from the gross salary. Taking Parental Leave has no consequences for pension accual.</t>
+        </is>
+      </c>
+      <c r="AR256" t="inlineStr">
+        <is>
+          <t>To promote the Labor Participation of Older Employees, Agreements Can Be Made to Reduce Working Hours to 80% While Retaining 90% of the Salary and 100% Pension Accrual of the Last Salary Before Participation. The Pension Premium is Distributed 50:50.</t>
+        </is>
+      </c>
+      <c r="AS256" t="inlineStr">
+        <is>
+          <t>AOW-Long-aged age</t>
+        </is>
+      </c>
+      <c r="AT256" t="inlineStr">
+        <is>
+          <t>Participation is Possible for a maximum of 4 years before the Legal Aow Age.</t>
+        </is>
+      </c>
+      <c r="AU256" t="inlineStr">
+        <is>
+          <t>The CAO is Applicable to Employees in Function Groups I to VI. For Function Groups VII to IX, participation can be on a Voluntary basis.</t>
+        </is>
+      </c>
+      <c r="AV256" t="inlineStr"/>
+      <c r="AW256" t="inlineStr"/>
+      <c r="AX256" t="inlineStr"/>
+      <c r="AY256" t="inlineStr"/>
+      <c r="AZ256" t="inlineStr"/>
+      <c r="BA256" t="inlineStr"/>
+      <c r="BB256" t="inlineStr"/>
+      <c r="BC256" t="inlineStr"/>
+      <c r="BD256" t="inlineStr"/>
+      <c r="BE256" t="inlineStr"/>
+      <c r="BF256" t="inlineStr"/>
+      <c r="BG256" t="inlineStr"/>
+      <c r="BH256" t="inlineStr"/>
+      <c r="BI256" t="inlineStr"/>
+      <c r="BJ256" t="inlineStr"/>
+      <c r="BK256" t="inlineStr"/>
+      <c r="BL256" t="inlineStr"/>
+      <c r="BM256" t="inlineStr"/>
+      <c r="BN256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Wholesale_in_bloemen_en_planten_cao_2017_2019.json</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1547001</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>30-06-2019</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>30/06/2019</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>21-03-2017</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="inlineStr"/>
+      <c r="O257" t="inlineStr"/>
+      <c r="P257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr"/>
+      <c r="R257" t="inlineStr"/>
+      <c r="S257" t="inlineStr"/>
+      <c r="T257" t="inlineStr"/>
+      <c r="U257" t="inlineStr"/>
+      <c r="V257" t="inlineStr"/>
+      <c r="W257" t="inlineStr"/>
+      <c r="X257" t="inlineStr"/>
+      <c r="Y257" t="inlineStr"/>
+      <c r="Z257" t="inlineStr"/>
+      <c r="AA257" t="inlineStr"/>
+      <c r="AB257" t="inlineStr"/>
+      <c r="AC257" t="inlineStr"/>
+      <c r="AD257" t="inlineStr"/>
+      <c r="AE257" t="inlineStr"/>
+      <c r="AF257" t="inlineStr"/>
+      <c r="AG257" t="inlineStr"/>
+      <c r="AH257" t="inlineStr"/>
+      <c r="AI257" t="inlineStr"/>
+      <c r="AJ257" t="inlineStr"/>
+      <c r="AK257" t="inlineStr"/>
+      <c r="AL257" t="inlineStr"/>
+      <c r="AM257" t="inlineStr"/>
+      <c r="AN257" t="inlineStr"/>
+      <c r="AO257" t="inlineStr"/>
+      <c r="AP257" t="inlineStr"/>
+      <c r="AQ257" t="inlineStr"/>
+      <c r="AR257" t="inlineStr"/>
+      <c r="AS257" t="inlineStr"/>
+      <c r="AT257" t="inlineStr"/>
+      <c r="AU257" t="inlineStr"/>
+      <c r="AV257" t="inlineStr">
+        <is>
+          <t>Partner Leave (maternity leave): 2 Days at the Birth of the Life Partner. In Addition, The Employee Can Take Up To 3 Vacation Days. The Employee also has the right to take 3 days of unpaid leave within 4 weeks of the partner Leave. Adoption Leave: 2 days. Parental Leave (parental leave): 26 Times the Weekly Working Hours for a Child Under 8 Years Old.</t>
+        </is>
+      </c>
+      <c r="AW257" t="inlineStr">
+        <is>
+          <t>Partner Leave and Adoption Leave are with full salary retention. Parental Leave is Unpaid, But Pension Accrual Continues.</t>
+        </is>
+      </c>
+      <c r="AX257" t="inlineStr">
+        <is>
+          <t>Parental Leave can be tasks flexible, for a maximum consecutive period of 12 months, and for most or for the aged weekly working hours. Taking Parental Leave has no consequences for pension accual, and all Other Rights Apply Pro Rata.</t>
+        </is>
+      </c>
+      <c r="AY257" t="inlineStr">
+        <is>
+          <t>192 hours per calendar year for a full-time employee. Extra Hours Based on Age: 16 extra hours from Age 50, A Total of 32 extra Hours from Age 55, A Total of 48 Extra Hours from Age 60, and A Total of 64 Extra Hours From Age 63.</t>
+        </is>
+      </c>
+      <c r="AZ257" t="inlineStr">
+        <is>
+          <t>HORS</t>
+        </is>
+      </c>
+      <c r="BA257" t="inlineStr">
+        <is>
+          <t>The Holiday Allowance is 8% of the earned gross monthly/Period Salaries from June to May, paid out in May or June. The Employer Can Mandate Up to 24 Vacation Hours per year. The Employee is entitled to at Least 15 Consecutive Working Days of Vacation. Vacation Claims Expire After 5 Years.</t>
+        </is>
+      </c>
+      <c r="BB257" t="inlineStr"/>
+      <c r="BC257" t="inlineStr"/>
+      <c r="BD257" t="inlineStr"/>
+      <c r="BE257" t="inlineStr"/>
+      <c r="BF257" t="inlineStr"/>
+      <c r="BG257" t="inlineStr"/>
+      <c r="BH257" t="inlineStr"/>
+      <c r="BI257" t="inlineStr"/>
+      <c r="BJ257" t="inlineStr"/>
+      <c r="BK257" t="inlineStr"/>
+      <c r="BL257" t="inlineStr"/>
+      <c r="BM257" t="inlineStr"/>
+      <c r="BN257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Wholesale_in_bloemen_en_planten_cao_2017_2019.json</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1547001</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>30-06-2019</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>30/06/2019</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>21-03-2017</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="inlineStr"/>
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr"/>
+      <c r="R258" t="inlineStr"/>
+      <c r="S258" t="inlineStr"/>
+      <c r="T258" t="inlineStr"/>
+      <c r="U258" t="inlineStr"/>
+      <c r="V258" t="inlineStr"/>
+      <c r="W258" t="inlineStr"/>
+      <c r="X258" t="inlineStr"/>
+      <c r="Y258" t="inlineStr"/>
+      <c r="Z258" t="inlineStr"/>
+      <c r="AA258" t="inlineStr"/>
+      <c r="AB258" t="inlineStr"/>
+      <c r="AC258" t="inlineStr"/>
+      <c r="AD258" t="inlineStr"/>
+      <c r="AE258" t="inlineStr"/>
+      <c r="AF258" t="inlineStr"/>
+      <c r="AG258" t="inlineStr"/>
+      <c r="AH258" t="inlineStr"/>
+      <c r="AI258" t="inlineStr"/>
+      <c r="AJ258" t="inlineStr"/>
+      <c r="AK258" t="inlineStr"/>
+      <c r="AL258" t="inlineStr"/>
+      <c r="AM258" t="inlineStr"/>
+      <c r="AN258" t="inlineStr"/>
+      <c r="AO258" t="inlineStr"/>
+      <c r="AP258" t="inlineStr"/>
+      <c r="AQ258" t="inlineStr"/>
+      <c r="AR258" t="inlineStr"/>
+      <c r="AS258" t="inlineStr"/>
+      <c r="AT258" t="inlineStr"/>
+      <c r="AU258" t="inlineStr"/>
+      <c r="AV258" t="inlineStr"/>
+      <c r="AW258" t="inlineStr"/>
+      <c r="AX258" t="inlineStr"/>
+      <c r="AY258" t="inlineStr"/>
+      <c r="AZ258" t="inlineStr"/>
+      <c r="BA258" t="inlineStr"/>
+      <c r="BB258" t="inlineStr">
+        <is>
+          <t>If the employee has leg in service for less than 5 years: 1 month; if the employee has leg in service for between 5 and 10 years: 2 months; if the employee has bone in service for between 10 and 15 years: 3 months; If the employee has leg in service for 15 years or more: 4 months. For an employee who has reached the state pension age, the notice period is 1 month.</t>
+        </is>
+      </c>
+      <c r="BC258" t="inlineStr">
+        <is>
+          <t>Termination can only occur at the end of the month if salary is paid monthly, or at the end of a 4-week period if salary is paid per period (art. 7: 672 BW).</t>
+        </is>
+      </c>
+      <c r="BD258" t="inlineStr">
+        <is>
+          <t>1 Month</t>
+        </is>
+      </c>
+      <c r="BE258" t="inlineStr">
+        <is>
+          <t>Termination can only occur at the end of the month if salary is paid monthly, or at the end of a 4-week period if salary is paid per period (art. 7: 672 BW).</t>
+        </is>
+      </c>
+      <c r="BF258" t="inlineStr">
+        <is>
+          <t>Maximum two months for an indefinite term contract and for a fixed term contract or two years or longer; One months for a fixed term contract shorter than two years but longer than half a year; One months for a fixed term contract not set on a calendar date. No Probation Period can be agreed Upon in fixed term contracts or six months or less.</t>
+        </is>
+      </c>
+      <c r="BG258" t="inlineStr">
+        <is>
+          <t>The Probation Period (art. 7: 652 BW) is the same for both parties and must be recorded in Writing.</t>
+        </is>
+      </c>
+      <c r="BH258" t="inlineStr"/>
+      <c r="BI258" t="inlineStr"/>
+      <c r="BJ258" t="inlineStr"/>
+      <c r="BK258" t="inlineStr"/>
+      <c r="BL258" t="inlineStr"/>
+      <c r="BM258" t="inlineStr"/>
+      <c r="BN258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Wholesale_in_bloemen_en_planten_cao_2017_2019.json</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1547001</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>30-06-2019</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>30/06/2019</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>21-03-2017</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="inlineStr"/>
+      <c r="O259" t="inlineStr"/>
+      <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr"/>
+      <c r="R259" t="inlineStr"/>
+      <c r="S259" t="inlineStr"/>
+      <c r="T259" t="inlineStr"/>
+      <c r="U259" t="inlineStr"/>
+      <c r="V259" t="inlineStr"/>
+      <c r="W259" t="inlineStr"/>
+      <c r="X259" t="inlineStr"/>
+      <c r="Y259" t="inlineStr"/>
+      <c r="Z259" t="inlineStr"/>
+      <c r="AA259" t="inlineStr"/>
+      <c r="AB259" t="inlineStr"/>
+      <c r="AC259" t="inlineStr"/>
+      <c r="AD259" t="inlineStr"/>
+      <c r="AE259" t="inlineStr"/>
+      <c r="AF259" t="inlineStr"/>
+      <c r="AG259" t="inlineStr"/>
+      <c r="AH259" t="inlineStr"/>
+      <c r="AI259" t="inlineStr"/>
+      <c r="AJ259" t="inlineStr"/>
+      <c r="AK259" t="inlineStr"/>
+      <c r="AL259" t="inlineStr"/>
+      <c r="AM259" t="inlineStr"/>
+      <c r="AN259" t="inlineStr"/>
+      <c r="AO259" t="inlineStr"/>
+      <c r="AP259" t="inlineStr"/>
+      <c r="AQ259" t="inlineStr"/>
+      <c r="AR259" t="inlineStr"/>
+      <c r="AS259" t="inlineStr"/>
+      <c r="AT259" t="inlineStr"/>
+      <c r="AU259" t="inlineStr"/>
+      <c r="AV259" t="inlineStr"/>
+      <c r="AW259" t="inlineStr"/>
+      <c r="AX259" t="inlineStr"/>
+      <c r="AY259" t="inlineStr"/>
+      <c r="AZ259" t="inlineStr"/>
+      <c r="BA259" t="inlineStr"/>
+      <c r="BB259" t="inlineStr"/>
+      <c r="BC259" t="inlineStr"/>
+      <c r="BD259" t="inlineStr"/>
+      <c r="BE259" t="inlineStr"/>
+      <c r="BF259" t="inlineStr"/>
+      <c r="BG259" t="inlineStr"/>
+      <c r="BH259" t="inlineStr">
+        <is>
+          <t>Under The Standard Regulation, Overstime (Hours over 40/week OR 10/Day) is compensated with a surcharge or 26% on Monday-saturday, 50% on a sixth workday, and 100% on a Sunday or holiday. The Employee Can Chose Payment in Money or Time Off, with a maximum of 40 Hours of Time Off Compensation on A Three-Month Period. Under the Variable Working Hours Regulation, Overtime (Hours Over The Rostered Week, about 45 Hours/Week, OR over 10 Hours/Day) Receives The Same Surcharges. A Plus-Hour Balance at the End of the 26-week Reference Period is Paid Out With A 26% Surcharge.</t>
+        </is>
+      </c>
+      <c r="BI259" t="inlineStr">
+        <is>
+          <t>A Full-time employee Cannot Be Required to Work More Than 160 Hours of Overtime in a 26-week period. The Normal Workday is a maximum of 10 hours. In The Variable Schedule, The Work Week Can Be Up to 45 Hours.</t>
+        </is>
+      </c>
+      <c r="BJ259" t="inlineStr">
+        <is>
+          <t>The Normal Workday is a minimum of 3 hours.</t>
+        </is>
+      </c>
+      <c r="BK259" t="inlineStr">
+        <is>
+          <t>An Employee Working at Least 3 Hours Between 23:00 and 06:00 is entitled to a night supplement of 26% of the Gross Hourly Wage for Those Hours. For Work on a Sunday or Public Holiday, The Total Compensation is 100% (Salary + 100% Surcharge).</t>
+        </is>
+      </c>
+      <c r="BL259" t="inlineStr">
+        <is>
+          <t>To Qualify for the night supplement, an employee must work at least 3 hours between 23:00 and 06:00. No -time supplement is due for incidental Extra Work of Up to Half An Hour Immediately Before or After the Daily Work Schedule.</t>
+        </is>
+      </c>
+      <c r="BM259" t="inlineStr">
+        <is>
+          <t>A Full-time employee Cannot Be Required to Work More Than 160 Hours of Overtime in a 26-week period.</t>
+        </is>
+      </c>
+      <c r="BN259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Wholesale_in_bloemen_en_planten_cao_2017_2019.json</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1547001</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>30-06-2019</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>30/06/2019</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>21-03-2017</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="inlineStr"/>
+      <c r="O260" t="inlineStr"/>
+      <c r="P260" t="inlineStr"/>
+      <c r="Q260" t="inlineStr"/>
+      <c r="R260" t="inlineStr"/>
+      <c r="S260" t="inlineStr"/>
+      <c r="T260" t="inlineStr"/>
+      <c r="U260" t="inlineStr"/>
+      <c r="V260" t="inlineStr"/>
+      <c r="W260" t="inlineStr"/>
+      <c r="X260" t="inlineStr"/>
+      <c r="Y260" t="inlineStr"/>
+      <c r="Z260" t="inlineStr"/>
+      <c r="AA260" t="inlineStr"/>
+      <c r="AB260" t="inlineStr"/>
+      <c r="AC260" t="inlineStr"/>
+      <c r="AD260" t="inlineStr"/>
+      <c r="AE260" t="inlineStr"/>
+      <c r="AF260" t="inlineStr"/>
+      <c r="AG260" t="inlineStr"/>
+      <c r="AH260" t="inlineStr"/>
+      <c r="AI260" t="inlineStr"/>
+      <c r="AJ260" t="inlineStr"/>
+      <c r="AK260" t="inlineStr"/>
+      <c r="AL260" t="inlineStr"/>
+      <c r="AM260" t="inlineStr"/>
+      <c r="AN260" t="inlineStr"/>
+      <c r="AO260" t="inlineStr"/>
+      <c r="AP260" t="inlineStr"/>
+      <c r="AQ260" t="inlineStr"/>
+      <c r="AR260" t="inlineStr"/>
+      <c r="AS260" t="inlineStr"/>
+      <c r="AT260" t="inlineStr"/>
+      <c r="AU260" t="inlineStr"/>
+      <c r="AV260" t="inlineStr"/>
+      <c r="AW260" t="inlineStr"/>
+      <c r="AX260" t="inlineStr"/>
+      <c r="AY260" t="inlineStr"/>
+      <c r="AZ260" t="inlineStr"/>
+      <c r="BA260" t="inlineStr"/>
+      <c r="BB260" t="inlineStr"/>
+      <c r="BC260" t="inlineStr"/>
+      <c r="BD260" t="inlineStr"/>
+      <c r="BE260" t="inlineStr"/>
+      <c r="BF260" t="inlineStr"/>
+      <c r="BG260" t="inlineStr"/>
+      <c r="BH260" t="inlineStr"/>
+      <c r="BI260" t="inlineStr"/>
+      <c r="BJ260" t="inlineStr"/>
+      <c r="BK260" t="inlineStr"/>
+      <c r="BL260" t="inlineStr"/>
+      <c r="BM260" t="inlineStr"/>
+      <c r="BN260" t="inlineStr">
+        <is>
+          <t>The Employer Will Set Aside 0.4% of its payroll for a contribution to training costs. Costs for training that benefit both the company and the employee's potential future role will be reimbursed from thesis funds. An employee following an employer-approved training will be granted four half-days of paid leave for exam preparation. The Employer Encourages Participation in training.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
